--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.478</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.828</v>
+        <v>19.879</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4904555758.109</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1227397.051</v>
+        <v>17.732</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.849</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.112</v>
+        <v>16.676</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-178507.574943311</v>
+        <v>16.84458976381883</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>450316.9744484678</v>
+        <v>16.9319615219622</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>877731.8830886902</v>
+        <v>16.95527612792275</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-750522.6382747563</v>
+        <v>16.84401367964458</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>812684.3067623228</v>
+        <v>16.93312829991005</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1251274.428284706</v>
+        <v>16.95812613335093</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-705039.3046947527</v>
+        <v>16.89608169783124</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1720300.174949748</v>
+        <v>16.9681003506834</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2370451.425704264</v>
+        <v>16.98820846110363</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>991980.6581533884</v>
+        <v>16.98387591948673</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1358127.902179831</v>
+        <v>17.03910300108359</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1794264.637010175</v>
+        <v>17.06876668031813</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>170428.040590269</v>
+        <v>16.87089418038344</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1066382.538581412</v>
+        <v>17.02117752180424</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1629571.261191329</v>
+        <v>17.06313516995348</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16919.56930461897</v>
+        <v>16.84231238152998</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>775723.3294763977</v>
+        <v>16.96482494675735</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1141498.051581843</v>
+        <v>16.99817987840504</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-445926.4744505151</v>
+        <v>16.83324199634318</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>560912.722902118</v>
+        <v>16.95911159737495</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1083645.358388088</v>
+        <v>16.994943478079</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-481577.3770118505</v>
+        <v>16.90636406281232</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1242022.782406803</v>
+        <v>17.00811015801393</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1909603.680787592</v>
+        <v>17.03696600104931</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>552849.8914470235</v>
+        <v>17.03106989773677</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>838229.2495946987</v>
+        <v>17.11206652485355</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1269984.834263177</v>
+        <v>17.15560820992006</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37731.085344702</v>
+        <v>16.88467784520301</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1156405.902969475</v>
+        <v>17.0958014035499</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1490478.005987547</v>
+        <v>17.15622596946202</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>216220.3037090562</v>
+        <v>16.88307700232988</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1079471.740311924</v>
+        <v>17.02088095296998</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1453622.273044804</v>
+        <v>17.05622260422134</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-339181.7478015921</v>
+        <v>16.88307021044359</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>954117.3750401994</v>
+        <v>17.02570297593092</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1354783.055556281</v>
+        <v>17.06375161788077</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-124765.5064273793</v>
+        <v>16.96466763331779</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1874233.800171082</v>
+        <v>17.08008960453536</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2408307.161699145</v>
+        <v>17.11071882517049</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1441749.264450459</v>
+        <v>17.12972638759572</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1690355.435604913</v>
+        <v>17.22500867543689</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2019875.436683526</v>
+        <v>17.27261687583563</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>212607.3907074519</v>
+        <v>16.9774044131068</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1572869.99635897</v>
+        <v>17.21573994768426</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1916767.743118174</v>
+        <v>17.2800217001746</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-122437.5211345712</v>
+        <v>16.84823188159028</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1083310.168999319</v>
+        <v>16.94955872190749</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1383632.436639867</v>
+        <v>16.97302799120365</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-546234.2359046256</v>
+        <v>16.84869644715386</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1379975.600474157</v>
+        <v>16.95222889811818</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1556710.981649095</v>
+        <v>16.97727052989357</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-249431.1620894959</v>
+        <v>16.90770306189147</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2342970.873493806</v>
+        <v>16.99137407334447</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2711766.977276796</v>
+        <v>17.01148055493079</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1270342.037818804</v>
+        <v>17.00739987827364</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1907373.883373505</v>
+        <v>17.07251707299933</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2004046.863586156</v>
+        <v>17.10212285914102</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-24116.29668581114</v>
+        <v>16.87385799649182</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1442587.432099763</v>
+        <v>17.04825234521943</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1640613.358610294</v>
+        <v>17.09048285738652</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16065.29475392354</v>
+        <v>16.84260142044422</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>835333.3373819375</v>
+        <v>16.98451012560592</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1000369.263171738</v>
+        <v>17.01849024441866</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-376856.8808058796</v>
+        <v>16.83321014966236</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>652801.8842783398</v>
+        <v>16.97922911504981</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>870019.1467421502</v>
+        <v>17.01558683277987</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-219644.8183943331</v>
+        <v>16.91675661675534</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1348367.620672226</v>
+        <v>17.03479047041098</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1701466.61644481</v>
+        <v>17.06402522445765</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>722983.8601612236</v>
+        <v>17.05729850367395</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>989942.5206734206</v>
+        <v>17.15242921066481</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1135000.910927608</v>
+        <v>17.19661470324478</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>95842.5054228287</v>
+        <v>16.88452607171644</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1156928.991672947</v>
+        <v>17.12920347036433</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1258383.177412224</v>
+        <v>17.19080703761919</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50502.51363096432</v>
+        <v>16.89342722089739</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>968733.645284293</v>
+        <v>17.05313850041731</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1148291.586654403</v>
+        <v>17.0891984482905</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-330669.7145397477</v>
+        <v>16.89422415682268</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>935233.6891772728</v>
+        <v>17.05977387097204</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1075761.457940664</v>
+        <v>17.09845182682093</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-57586.48102897313</v>
+        <v>16.98755284368487</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1732925.229938611</v>
+        <v>17.12151962188677</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1998187.897534939</v>
+        <v>17.15260868777997</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1162962.798604339</v>
+        <v>17.17516348298676</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1475297.009215063</v>
+        <v>17.28701192203125</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1632342.203153272</v>
+        <v>17.33563539752454</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>125012.0827529961</v>
+        <v>16.99552345243727</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1414312.180230875</v>
+        <v>17.27190982579009</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1529516.69619266</v>
+        <v>17.33757529810636</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-122437.5211345712</v>
+        <v>16.84823188159028</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1083310.168999319</v>
+        <v>16.94955872190749</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1383632.436639867</v>
+        <v>16.97302799120365</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-546234.2359046256</v>
+        <v>16.84869644715386</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1379975.600474157</v>
+        <v>16.95222889811818</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1556710.981649095</v>
+        <v>16.97727052989357</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-249431.1620894959</v>
+        <v>16.90770306189147</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2342970.873493806</v>
+        <v>16.99137407334447</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2711766.977276796</v>
+        <v>17.01148055493079</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1270342.037818804</v>
+        <v>17.00739987827364</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1907373.883373505</v>
+        <v>17.07251707299933</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2004046.863586156</v>
+        <v>17.10212285914102</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-24116.29668581114</v>
+        <v>16.87385799649182</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1442587.432099763</v>
+        <v>17.04825234521943</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1640613.358610294</v>
+        <v>17.09048285738652</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16065.29475392354</v>
+        <v>16.84260142044422</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>835333.3373819375</v>
+        <v>16.98451012560592</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1000369.263171738</v>
+        <v>17.01849024441866</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-376856.8808058796</v>
+        <v>16.83321014966236</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>652801.8842783398</v>
+        <v>16.97922911504981</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>870019.1467421502</v>
+        <v>17.01558683277987</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-219644.8183943331</v>
+        <v>16.91675661675534</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1348367.620672226</v>
+        <v>17.03479047041098</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1701466.61644481</v>
+        <v>17.06402522445765</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>722983.8601612236</v>
+        <v>17.05729850367395</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>989942.5206734206</v>
+        <v>17.15242921066481</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1135000.910927608</v>
+        <v>17.19661470324478</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>95842.5054228287</v>
+        <v>16.88452607171644</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1156928.991672947</v>
+        <v>17.12920347036433</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1258383.177412224</v>
+        <v>17.19080703761919</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>50502.51363096432</v>
+        <v>16.89342722089739</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>968733.645284293</v>
+        <v>17.05313850041731</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1148291.586654403</v>
+        <v>17.0891984482905</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-330669.7145397477</v>
+        <v>16.89422415682268</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>935233.6891772728</v>
+        <v>17.05977387097204</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1075761.457940664</v>
+        <v>17.09845182682093</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-57586.48102897313</v>
+        <v>16.98755284368487</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1732925.229938611</v>
+        <v>17.12151962188677</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1998187.897534939</v>
+        <v>17.15260868777997</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1162962.798604339</v>
+        <v>17.17516348298676</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1475297.009215063</v>
+        <v>17.28701192203125</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1632342.203153272</v>
+        <v>17.33563539752454</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>125012.0827529961</v>
+        <v>16.99552345243727</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1414312.180230875</v>
+        <v>17.27190982579009</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1529516.69619266</v>
+        <v>17.33757529810636</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-277865.4814759595</v>
+        <v>16.81087524774011</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-175900.5646724044</v>
+        <v>16.89897912967339</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>244350.4132321239</v>
+        <v>16.92246420888303</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-798391.9524942925</v>
+        <v>16.80592395152943</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>111291.1502466325</v>
+        <v>16.89568021971989</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>558125.1763365252</v>
+        <v>16.92083889087755</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-1048401.425508417</v>
+        <v>16.86083896678567</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>692172.8304267996</v>
+        <v>16.93336758317315</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1347394.483495476</v>
+        <v>16.95360219179749</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>472342.3567502424</v>
+        <v>16.94086332600798</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>543410.400269835</v>
+        <v>16.99600319398349</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1049900.915007801</v>
+        <v>17.02594814206566</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>156896.6102656838</v>
+        <v>16.82586552227596</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>435436.2870809629</v>
+        <v>16.97728434381196</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>976216.2497161981</v>
+        <v>17.01953338006282</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-123652.9838282182</v>
+        <v>16.80028076637297</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>332091.6855697234</v>
+        <v>16.9239300969985</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>716840.863884503</v>
+        <v>16.9575776266847</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-497970.6117739277</v>
+        <v>16.78550865342284</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>150765.7850143972</v>
+        <v>16.91241922059222</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>697903.5712075108</v>
+        <v>16.94853876718947</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-684582.2275852435</v>
+        <v>16.862373654112</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>655257.2910380941</v>
+        <v>16.9649502791074</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1346505.953643542</v>
+        <v>16.99403449006197</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>212622.8929315917</v>
+        <v>16.97762954414894</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>336422.055575083</v>
+        <v>17.05870208350957</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>829105.9693325916</v>
+        <v>17.10272626983838</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-42202.869537998</v>
+        <v>16.82864539092505</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>720112.5096061921</v>
+        <v>17.04156972098733</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1069770.08970704</v>
+        <v>17.10251046462135</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>297170.9426169014</v>
+        <v>16.84386524739134</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>886995.1530444724</v>
+        <v>16.98312039401708</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1271042.082856138</v>
+        <v>17.01877271044651</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-333952.6232591681</v>
+        <v>16.83836492010624</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>638638.3643152257</v>
+        <v>16.98238360574011</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1056855.425732971</v>
+        <v>17.02073929981045</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-189662.5332288304</v>
+        <v>16.92379385544201</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1464096.330565951</v>
+        <v>17.04032766386337</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2015611.169523044</v>
+        <v>17.07120053550721</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1202099.359612562</v>
+        <v>17.08063064262373</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1311225.294398286</v>
+        <v>17.17628661947789</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1693811.132004352</v>
+        <v>17.22443161873352</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>197810.5606766092</v>
+        <v>16.92558666749775</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1238414.414616828</v>
+        <v>17.16628462017352</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1592894.113521754</v>
+        <v>17.23111987793872</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-327323.9115548725</v>
+        <v>16.8609852317961</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>596825.6546874747</v>
+        <v>16.9492145816022</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1048822.180393443</v>
+        <v>16.97205339314687</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-699475.4044490131</v>
+        <v>16.86203210787999</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1195354.060625351</v>
+        <v>16.95211213734735</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1624504.160755852</v>
+        <v>16.97657828620926</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-544511.0714492579</v>
+        <v>16.91320876352849</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2221952.85043849</v>
+        <v>16.98601256684525</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2865454.475808051</v>
+        <v>17.00568776661763</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1206036.462068014</v>
+        <v>17.0052970939391</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1558261.771064345</v>
+        <v>17.06166989682263</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2016571.686825763</v>
+        <v>17.09072949041651</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-36919.30499935384</v>
+        <v>16.89202991836197</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1079756.08526946</v>
+        <v>17.04387651394048</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1649861.004503907</v>
+        <v>17.08497846494094</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>62828.3341509439</v>
+        <v>16.8648941167253</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>987949.0645929896</v>
+        <v>16.98852000370654</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1282635.30050638</v>
+        <v>17.02122354173184</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-375166.3789246134</v>
+        <v>16.85802422140526</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>829720.2407796707</v>
+        <v>16.98514614860235</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1265318.123510246</v>
+        <v>17.02024978181536</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-328839.7686345424</v>
+        <v>16.92992132453004</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1596755.65658371</v>
+        <v>17.03268623302903</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2177071.979064339</v>
+        <v>17.06094904262912</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>752218.754339193</v>
+        <v>17.06058575391905</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1013840.586264276</v>
+        <v>17.14306265346514</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1428592.875869439</v>
+        <v>17.18577699756385</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>68635.58479991554</v>
+        <v>16.9138794526284</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1318695.344961681</v>
+        <v>17.12703053047566</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1588401.291127225</v>
+        <v>17.18628076030072</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>118367.2858110685</v>
+        <v>16.90390614090169</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1093068.016929099</v>
+        <v>17.04283531762429</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1400944.820485595</v>
+        <v>17.07749889492379</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-420560.3284237455</v>
+        <v>16.90595984219544</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>996345.6113907841</v>
+        <v>17.04985842187981</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1326300.714954995</v>
+        <v>17.08715003028843</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-197926.2354372274</v>
+        <v>16.98645136749245</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1930277.66377012</v>
+        <v>17.10290325611544</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2393513.217305287</v>
+        <v>17.13291591078201</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1456175.289068773</v>
+        <v>17.1570628778084</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1674962.724321743</v>
+        <v>17.2538546592358</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1991543.789592651</v>
+        <v>17.30059082733787</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>131019.8726045107</v>
+        <v>17.0044659687419</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1581533.510797226</v>
+        <v>17.24484995457855</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1870151.614792389</v>
+        <v>17.30791208085472</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-173475.1497436936</v>
+        <v>16.83211800931177</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>391883.4701465886</v>
+        <v>16.96653254042591</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>563655.1267308524</v>
+        <v>16.9973129373747</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-301279.2824176494</v>
+        <v>16.83334518544155</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>728341.4329168659</v>
+        <v>16.97073284101652</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>818017.9894082726</v>
+        <v>17.00357680339273</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-117285.1905675191</v>
+        <v>16.9113634767773</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1292245.994435135</v>
+        <v>17.02241025609292</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1485151.192544793</v>
+        <v>17.04878043375099</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>648852.1473664452</v>
+        <v>17.04573316868018</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>882479.4612562243</v>
+        <v>17.13267200906987</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>987349.8652144693</v>
+        <v>17.17151456944559</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-117951.2782932141</v>
+        <v>16.87153930191191</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>512866.7653200025</v>
+        <v>17.10300538093745</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>677457.7467705403</v>
+        <v>17.15839413925316</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>114280.1853948312</v>
+        <v>16.83625952554545</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>630952.2964174171</v>
+        <v>17.02450376609117</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>689550.4739574862</v>
+        <v>17.06896892227972</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-151451.0286041636</v>
+        <v>16.82555675295685</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>529583.5122622359</v>
+        <v>17.01931291527023</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>606547.4924948881</v>
+        <v>17.06688127889939</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-4552.446314530689</v>
+        <v>16.93521532064069</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>987405.9747667067</v>
+        <v>17.09185782294944</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1134189.294829051</v>
+        <v>17.13010525323115</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>493961.3189218831</v>
+        <v>17.12707328340141</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>650047.6169450039</v>
+        <v>17.25400541268191</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>735947.6497076878</v>
+        <v>17.31184184846492</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>115115.3297355298</v>
+        <v>16.90172436263684</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>749603.2509655737</v>
+        <v>17.22645607860894</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>783886.0844967562</v>
+        <v>17.30706578349189</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>64013.16048973053</v>
+        <v>16.9020793595951</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>619125.6097899462</v>
+        <v>17.11371755617433</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>683343.6103835412</v>
+        <v>17.16087947047506</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-216278.8154858558</v>
+        <v>16.90496568176561</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>576230.6001386727</v>
+        <v>17.12437745884448</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>606062.4163188225</v>
+        <v>17.17495739025395</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-14733.60401874782</v>
+        <v>17.02747380125114</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1083400.292124159</v>
+        <v>17.2050460607728</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1177416.07549352</v>
+        <v>17.24569939240627</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>709767.5208470528</v>
+        <v>17.2811671919108</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>861169.3706141671</v>
+        <v>17.43006499263746</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>917478.5968611919</v>
+        <v>17.49364530854627</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>84758.65677569363</v>
+        <v>17.04687740666219</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>842921.4429764933</v>
+        <v>17.41325311056002</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>880289.4197613597</v>
+        <v>17.49914401884119</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-353364.474558098</v>
+        <v>16.78623087981259</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-220143.7760677736</v>
+        <v>16.9178571819272</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-79134.68995167177</v>
+        <v>16.95024109688677</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-589463.0215555124</v>
+        <v>16.78273212785296</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-41375.96743462072</v>
+        <v>16.91697556627962</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>55363.06852228403</v>
+        <v>16.95161075895283</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-654741.5672371457</v>
+        <v>16.86322399161178</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>260608.5433614963</v>
+        <v>16.97171324884592</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>457612.6615067341</v>
+        <v>16.99954176348725</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>134438.3552302627</v>
+        <v>16.98543878359369</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>296742.955395204</v>
+        <v>17.06861185237118</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>374151.1565346097</v>
+        <v>17.10948983193859</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-168675.721523748</v>
+        <v>16.8121309645819</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>98639.33296687981</v>
+        <v>17.03850573779419</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>250164.5466235918</v>
+        <v>17.09677594270511</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-53463.487084436</v>
+        <v>16.77265516512349</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>225230.241128564</v>
+        <v>16.95728751673454</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>357434.1374893911</v>
+        <v>17.00394764200821</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-252181.0978239912</v>
+        <v>16.75552159315195</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>151165.300339856</v>
+        <v>16.94520793789921</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>319137.2753709275</v>
+        <v>16.99522921807815</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-260885.6751471555</v>
+        <v>16.86860164181152</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>447471.808018712</v>
+        <v>17.02193263242403</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>685560.237761394</v>
+        <v>17.06217741750667</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>184426.0043094615</v>
+        <v>17.04346984707284</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>321002.1714622383</v>
+        <v>17.16554609311826</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>423148.7183323354</v>
+        <v>17.22616868485814</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-15252.79324522499</v>
+        <v>16.81907722502628</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>411983.3029694594</v>
+        <v>17.13721982475429</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>511641.2859039415</v>
+        <v>17.22178335373294</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29526.04891365486</v>
+        <v>16.84475088882578</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>421986.837791388</v>
+        <v>17.05274700661804</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>558916.3937080874</v>
+        <v>17.10219075518233</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-179898.8933684418</v>
+        <v>16.84170770513384</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>431871.8494232084</v>
+        <v>17.05701506042941</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>539663.8916518063</v>
+        <v>17.11014141005951</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-45361.85194257089</v>
+        <v>16.96721874271801</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>864684.4484598087</v>
+        <v>17.14145094184143</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1037256.107493273</v>
+        <v>17.184178076794</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>598718.8019432877</v>
+        <v>17.2053944662025</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>749609.190157878</v>
+        <v>17.34934842296694</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>824396.300299201</v>
+        <v>17.41585872151868</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>86388.14381403824</v>
+        <v>16.97192032313263</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>698904.2053837114</v>
+        <v>17.33165405471626</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>796519.3868897688</v>
+        <v>17.42164564301953</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-539498.1980042495</v>
+        <v>16.83653882298421</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>2684.836677783392</v>
+        <v>16.93815193921322</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>338670.7410182005</v>
+        <v>16.96411789633986</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-862019.25427069</v>
+        <v>16.83563179619322</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>407024.0574421068</v>
+        <v>16.93935175764987</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>713675.767337159</v>
+        <v>16.96714954144602</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-835330.3097321587</v>
+        <v>16.89585588348276</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1114862.946197642</v>
+        <v>16.97968089495541</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1592990.165909905</v>
+        <v>17.00203064763711</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>594163.3462555679</v>
+        <v>16.99692410399035</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>760796.4496507081</v>
+        <v>17.06172412052122</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1099788.118287745</v>
+        <v>17.09475315192063</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-271067.0517440275</v>
+        <v>16.86584711493285</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>403380.8848668386</v>
+        <v>17.04069358984409</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>813530.4159606427</v>
+        <v>17.08741767110561</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-201840.7301441871</v>
+        <v>16.83582737672669</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>430631.1643726974</v>
+        <v>16.97824181141854</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>653271.3225946401</v>
+        <v>17.01547879097244</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-577150.3117337122</v>
+        <v>16.82518439687734</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>260084.280411917</v>
+        <v>16.97159728818217</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>586311.3153244697</v>
+        <v>17.0115451416664</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-585571.991405325</v>
+        <v>16.90968730234792</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>814182.7539574015</v>
+        <v>17.02804343732268</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1256820.144154691</v>
+        <v>17.06020087278742</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>325875.7341445279</v>
+        <v>17.05385751985604</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>474375.3800201663</v>
+        <v>17.14872250767241</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>786985.0619044416</v>
+        <v>17.19736649846705</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-141341.7446115492</v>
+        <v>16.8841106486869</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>730551.8995804093</v>
+        <v>17.12961314519506</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>929991.89157118</v>
+        <v>17.1970768898206</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-72897.20150857141</v>
+        <v>16.88230394968038</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>624151.078925946</v>
+        <v>17.04242796858072</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>866960.8784450584</v>
+        <v>17.08190416677042</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-561314.5943305218</v>
+        <v>16.88199065380053</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>472972.3244595334</v>
+        <v>17.04781948077758</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>725497.6216015324</v>
+        <v>17.09026684939518</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-400809.0206737714</v>
+        <v>16.9763821317699</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1188204.416191536</v>
+        <v>17.11057831469478</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1548422.250764207</v>
+        <v>17.1447345278975</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>924324.5475611284</v>
+        <v>17.16700091102073</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1056724.330725947</v>
+        <v>17.27844071386003</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1306535.664930116</v>
+        <v>17.33170302354666</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-56804.18345322787</v>
+        <v>16.99043732560987</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1003274.691080129</v>
+        <v>17.26745758397113</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1226729.044825225</v>
+        <v>17.33927946771312</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-268977.6706790214</v>
+        <v>16.87297556442573</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>580889.690368682</v>
+        <v>16.99494331552978</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>827509.4303520807</v>
+        <v>17.02270770022105</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-432753.9751203123</v>
+        <v>16.87958026225016</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1053112.016103121</v>
+        <v>17.00435797285121</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1186416.584781574</v>
+        <v>17.03402033559101</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-125368.7649625372</v>
+        <v>16.94784845689429</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1816896.114142715</v>
+        <v>17.04871596934361</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2074709.279904543</v>
+        <v>17.07253219378543</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>986743.2509584167</v>
+        <v>17.07891048175142</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1459489.213817607</v>
+        <v>17.15837083973828</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1534117.878444199</v>
+        <v>17.19321021627764</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-42450.32732681139</v>
+        <v>16.92176854243402</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>984619.4089263673</v>
+        <v>17.13194090725167</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1231574.440604088</v>
+        <v>17.18195499707551</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-151937.0043073497</v>
+        <v>16.8781700572547</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>476312.6593121132</v>
+        <v>17.04883487131074</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>580084.4588467721</v>
+        <v>17.08891099679827</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-459769.5089512329</v>
+        <v>16.87497055082698</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>397595.6311336126</v>
+        <v>17.05076691363594</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>511410.6137403183</v>
+        <v>17.09368484856149</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-342748.0692832735</v>
+        <v>16.97160836320206</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>888836.2841083643</v>
+        <v>17.11374752731739</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1087605.15484901</v>
+        <v>17.14825641299028</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>442085.3522145944</v>
+        <v>17.1552385320672</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>680605.0683862253</v>
+        <v>17.27101393584541</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>751417.2814992485</v>
+        <v>17.32288001354746</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-45840.1575836863</v>
+        <v>16.9519637933216</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>769171.1207564293</v>
+        <v>17.2465485532199</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>841443.1466361769</v>
+        <v>17.31926631933094</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-120372.7090487708</v>
+        <v>16.9352774221062</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>580741.1317671624</v>
+        <v>17.12697862097939</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>667324.3796709471</v>
+        <v>17.16946767120255</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-362249.5822929246</v>
+        <v>16.9442697066402</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>655358.6829448509</v>
+        <v>17.14313652247181</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>684919.3517859254</v>
+        <v>17.18874923420394</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-183325.8402752522</v>
+        <v>17.05252602383301</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1201359.076223726</v>
+        <v>17.21348592577464</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1308186.937310296</v>
+        <v>17.25014782929382</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>785783.3321259683</v>
+        <v>17.29128472243502</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1013850.480763012</v>
+        <v>17.42679694974523</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1034448.758757813</v>
+        <v>17.483819965732</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-5374.240198155176</v>
+        <v>17.07995437081606</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>971784.8829692145</v>
+        <v>17.41198548487674</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1018355.60351177</v>
+        <v>17.48942787023179</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-458344.0885842789</v>
+        <v>16.77529257368639</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-352572.254517684</v>
+        <v>16.88434574786472</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-143070.8974030374</v>
+        <v>16.91213403410899</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-739491.5920616998</v>
+        <v>16.76727487163959</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-309710.3642643155</v>
+        <v>16.87840143271891</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-117684.9282110538</v>
+        <v>16.90810239170791</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-975546.0519097229</v>
+        <v>16.83631708042302</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-75416.34142722866</v>
+        <v>16.92609735242575</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>259158.3936587672</v>
+        <v>16.94996709267186</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-38774.80015170482</v>
+        <v>16.9272495410504</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24641.44412226112</v>
+        <v>16.99524767416051</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>172532.5878072323</v>
+        <v>17.03056027625151</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-378187.2800489513</v>
+        <v>16.77984264436611</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-74364.32055213723</v>
+        <v>16.96719515167161</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>48502.04636895144</v>
+        <v>17.01714007332719</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-268773.5127619877</v>
+        <v>16.74907202943759</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-80286.23062536401</v>
+        <v>16.90212110547953</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>204474.1084680506</v>
+        <v>16.94226090676339</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-370657.1733231065</v>
+        <v>16.72763413472412</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-162219.665897543</v>
+        <v>16.88475712953691</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>209323.5676554858</v>
+        <v>16.92777709953661</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-484017.7800830468</v>
+        <v>16.82498157259468</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>107312.086264906</v>
+        <v>16.95195502630319</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>582749.8301535216</v>
+        <v>16.98657404813614</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-23492.15198942904</v>
+        <v>16.95518664546494</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-23474.83153370548</v>
+        <v>17.05519935198148</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>234633.729305208</v>
+        <v>17.10763728276082</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-246239.5363017069</v>
+        <v>16.76426981747159</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>103941.0633173813</v>
+        <v>17.02773079595255</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>337543.8014012158</v>
+        <v>17.10040653974367</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-80019.82560807608</v>
+        <v>16.80904161518035</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>226196.9336175439</v>
+        <v>16.98175549706509</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>594130.1438170741</v>
+        <v>17.02436532195102</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-288547.2312990343</v>
+        <v>16.79902594336412</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>155238.5930940276</v>
+        <v>16.97772451864155</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>538018.3849751996</v>
+        <v>17.02349712419372</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-198186.2934419787</v>
+        <v>16.90702556487453</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>616711.8807741748</v>
+        <v>17.05159999473825</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1097453.074044413</v>
+        <v>17.08842112384064</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>486840.9129918073</v>
+        <v>17.09018319361305</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>556799.3271605817</v>
+        <v>17.20862452477122</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>907383.0959686763</v>
+        <v>17.2662329734612</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-67055.41355387263</v>
+        <v>16.8915575474217</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>477182.8782526802</v>
+        <v>17.19005422505007</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>799097.1442515608</v>
+        <v>17.26752329287575</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-478653.137814139</v>
+        <v>16.82570217527129</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>350896.7871656071</v>
+        <v>16.93056320782778</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>524799.9198080257</v>
+        <v>16.95501839313595</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-760819.3823240073</v>
+        <v>16.82256250688635</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>597792.9123368589</v>
+        <v>16.9296260231892</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>678218.4610458799</v>
+        <v>16.95569449786581</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-724979.7557513677</v>
+        <v>16.88519027309692</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1204302.676479467</v>
+        <v>16.9717041690909</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>1450904.523850656</v>
+        <v>16.99263508668878</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>588222.3991573057</v>
+        <v>16.98252744482939</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>925105.1702323603</v>
+        <v>17.04947253112043</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1012559.113243812</v>
+        <v>17.0804634218506</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-352703.8938284216</v>
+        <v>16.843346365316</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>616716.6140013363</v>
+        <v>17.02371547321267</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>685924.183361816</v>
+        <v>17.06768388959365</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>1346.502170278448</v>
+        <v>16.81849415693699</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>643168.7337472051</v>
+        <v>16.96545310179983</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>715790.5809598683</v>
+        <v>17.00089355204549</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-293176.469481094</v>
+        <v>16.80439204667699</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>488449.8384482524</v>
+        <v>16.95551138235477</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>616307.2622365241</v>
+        <v>16.99340197357619</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-198274.6877153553</v>
+        <v>16.89269334031734</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1043035.401552533</v>
+        <v>17.01483640228838</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1288228.807279816</v>
+        <v>17.04530372807448</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>545238.2660936811</v>
+        <v>17.03185105567862</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>687547.3349323994</v>
+        <v>17.12982150575905</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>805139.2303102678</v>
+        <v>17.17609288539139</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>76077.88117841886</v>
+        <v>16.85177234985671</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>881534.9621173701</v>
+        <v>17.10501903672662</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>900306.7225421467</v>
+        <v>17.16922599650989</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>122762.197166387</v>
+        <v>16.87301830595924</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>839412.9860858857</v>
+        <v>17.03855480752731</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>961731.9177396656</v>
+        <v>17.07617901126557</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-236691.7520912937</v>
+        <v>16.86953787465103</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>740864.6560505552</v>
+        <v>17.04103900381203</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>843679.4959614945</v>
+        <v>17.08136532728145</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>2160.114732185369</v>
+        <v>16.96800795695455</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1427985.609331876</v>
+        <v>17.10677821687928</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1639386.485207242</v>
+        <v>17.13919212071879</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>981615.5518872493</v>
+        <v>17.15659910548452</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1185770.4849323</v>
+        <v>17.27202669497622</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1343772.205858889</v>
+        <v>17.32294627238828</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>152428.7575355535</v>
+        <v>16.96935663772865</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1156430.635908367</v>
+        <v>17.25569591829022</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1228488.40101811</v>
+        <v>17.32416668387546</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-226953.3528497415</v>
+        <v>16.7914029150721</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-75373.54684828107</v>
+        <v>16.8883973940455</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>150330.8334393643</v>
+        <v>16.91161205296293</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-638714.7342367654</v>
+        <v>16.78450919382227</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20468.43847202206</v>
+        <v>16.88336087757767</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>176224.9628843472</v>
+        <v>16.90812945029604</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-951275.4522651536</v>
+        <v>16.84557082980338</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>303624.7786260261</v>
+        <v>16.92544069959312</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>638950.3606736427</v>
+        <v>16.94533047641891</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>150206.7844171003</v>
+        <v>16.92672522832727</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>385126.8860313289</v>
+        <v>16.98754324895012</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>513551.5823939426</v>
+        <v>17.0169095920735</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-150452.9270474105</v>
+        <v>16.79619457677175</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>216218.3705890016</v>
+        <v>16.96284947880662</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>340366.5667819413</v>
+        <v>17.00459977990346</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-371380.3876759172</v>
+        <v>16.76883657716051</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-188465.2824652533</v>
+        <v>16.90494157355887</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>35735.87091961246</v>
+        <v>16.93858836525055</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-578911.3882498816</v>
+        <v>16.75014314536769</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-294781.8946460484</v>
+        <v>16.88988483971247</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-990.572918449538</v>
+        <v>16.9258878380638</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-801354.7431594396</v>
+        <v>16.83624444603304</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-32084.437096057</v>
+        <v>16.94918044081085</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>392757.3850662997</v>
+        <v>16.97813372720986</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-127421.9574954093</v>
+        <v>16.9525545303797</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-81565.52518461797</v>
+        <v>17.0419303118188</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>120321.2755968147</v>
+        <v>17.08578468132507</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-283821.2611495524</v>
+        <v>16.78362516244029</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>100668.0462630549</v>
+        <v>17.01793938806031</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>248767.5301606185</v>
+        <v>17.07891257251715</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>35929.56909200595</v>
+        <v>16.82443470368437</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>430116.4660294217</v>
+        <v>16.97802790166764</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>642149.7087354905</v>
+        <v>17.01371929237137</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-367319.91749263</v>
+        <v>16.81600135060253</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>290738.6193244797</v>
+        <v>16.97492919262339</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>474839.802524481</v>
+        <v>17.01321059202177</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-294038.6523320228</v>
+        <v>16.91140813591774</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>836311.8454659432</v>
+        <v>17.03999557953956</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1141002.09048075</v>
+        <v>17.07077012485657</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>607090.9224881427</v>
+        <v>17.07518537603678</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>747740.1906613705</v>
+        <v>17.18096860950625</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>940788.0229138311</v>
+        <v>17.22919979502461</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-48020.70013146103</v>
+        <v>16.89943357826817</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>667548.3457088135</v>
+        <v>17.16490091630401</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>804147.141634956</v>
+        <v>17.22986144438327</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-412185.4863070054</v>
+        <v>16.75913480515492</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-607550.8057735709</v>
+        <v>16.85884804462818</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-526250.3668618577</v>
+        <v>16.88300245943475</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-654925.4979538938</v>
+        <v>16.74730911237638</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-527512.0328756063</v>
+        <v>16.84881157564399</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-489382.5246006788</v>
+        <v>16.87455744618877</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1200431.881388162</v>
+        <v>16.81231981421091</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-571601.2709516848</v>
+        <v>16.89431760562078</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-379223.9077269372</v>
+        <v>16.9149925571177</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-374927.9564952862</v>
+        <v>16.88783351058631</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-422860.0006921854</v>
+        <v>16.94967447845638</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-319688.8603975958</v>
+        <v>16.98038608671217</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-346718.7286943132</v>
+        <v>16.75222747223229</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-445780.5570375584</v>
+        <v>16.92340097326872</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-466488.8324697814</v>
+        <v>16.96680226429415</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-382136.3167858396</v>
+        <v>16.73230095876345</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-374155.5368017742</v>
+        <v>16.87236479857305</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-262721.8499813407</v>
+        <v>16.9074120353264</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-488604.0228909552</v>
+        <v>16.70723895358665</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-447622.0817435553</v>
+        <v>16.85090149949547</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-265699.0899449213</v>
+        <v>16.88837369212467</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-782344.4542624303</v>
+        <v>16.7984870739457</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-334074.1197027355</v>
+        <v>16.91457424314546</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-39383.88843065804</v>
+        <v>16.9447096554144</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-304324.3531568635</v>
+        <v>16.90917484531572</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-384236.760253822</v>
+        <v>17.0003139506931</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-226706.3686681562</v>
+        <v>17.04619944705543</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-305607.6173005702</v>
+        <v>16.73365771654587</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-173607.2959244318</v>
+        <v>16.97459310289922</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-127416.3603994731</v>
+        <v>17.03805662275438</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>87282.58669510762</v>
+        <v>16.79258314741235</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>277342.153892352</v>
+        <v>16.95085217237908</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>414436.936862394</v>
+        <v>16.98804128992569</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-290210.5978768549</v>
+        <v>16.77823357914508</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>78582.51446470221</v>
+        <v>16.94186977454824</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>205484.8751667549</v>
+        <v>16.98172799136558</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-266255.1389074563</v>
+        <v>16.87907917703349</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>499335.6113542744</v>
+        <v>17.01146015560413</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>730774.8473708597</v>
+        <v>17.04350286918294</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>405866.6043775915</v>
+        <v>17.03969231451664</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>434128.436192581</v>
+        <v>17.14792213203707</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>612288.6647393359</v>
+        <v>17.19838309084513</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-41361.97196473229</v>
+        <v>16.85706497221694</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>386736.0256146947</v>
+        <v>17.1304345261355</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>463275.5048270514</v>
+        <v>17.19807330550901</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-362701.0598826595</v>
+        <v>16.81268548205853</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-143136.97170448</v>
+        <v>16.91303048649581</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>168671.1289747676</v>
+        <v>16.93970247687288</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-878824.3701101341</v>
+        <v>16.809406582324</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28404.57904149218</v>
+        <v>16.9116985695721</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>346196.6517982958</v>
+        <v>16.94028528131775</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-971797.8038455704</v>
+        <v>16.87092695696636</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>606441.7759011937</v>
+        <v>16.95359059149152</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1092835.487120031</v>
+        <v>16.97658269802864</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>381922.6107902601</v>
+        <v>16.96574330728012</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>549103.3504437245</v>
+        <v>17.02884611926087</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>866255.1535604182</v>
+        <v>17.06277128754825</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-52655.89282976697</v>
+        <v>16.83508718943737</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>373969.0971561533</v>
+        <v>17.00762136222612</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>777652.7348986932</v>
+        <v>17.05561495027081</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-217437.4075185072</v>
+        <v>16.80295945935434</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>234447.348531118</v>
+        <v>16.94372819432657</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>532163.4088198368</v>
+        <v>16.98193170885548</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-605604.79131952</v>
+        <v>16.78909964538121</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>17356.83123158965</v>
+        <v>16.93366080206399</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>435326.0604721431</v>
+        <v>16.97468915833655</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-699563.1230364381</v>
+        <v>16.87538474104995</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>481619.6554369233</v>
+        <v>16.99223437841744</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>1016169.038176439</v>
+        <v>17.02527168864163</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>141281.4128018278</v>
+        <v>17.01087449853428</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>307330.7689138469</v>
+        <v>17.10354731967647</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>639243.8108561793</v>
+        <v>17.15341847245884</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-155801.4248885987</v>
+        <v>16.8415899131581</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>570298.8608828164</v>
+        <v>17.08409440265359</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>837613.8206582502</v>
+        <v>17.15330026540941</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>45819.49518651794</v>
+        <v>16.8520639848193</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>621306.2868543558</v>
+        <v>17.01052533005052</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>934463.5840568061</v>
+        <v>17.05100740598052</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-448484.4184023445</v>
+        <v>16.84874358448257</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>450716.1517648168</v>
+        <v>17.01270141167247</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>778355.752380389</v>
+        <v>17.0562717095161</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-298036.5364660816</v>
+        <v>16.94473930245183</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1149953.132179937</v>
+        <v>17.07741312418197</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1585504.012518193</v>
+        <v>17.11248389764236</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>921988.3357568949</v>
+        <v>17.12728740149797</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1080031.293865319</v>
+        <v>17.23649234458851</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1345796.077048166</v>
+        <v>17.29104757374048</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>39146.29531458066</v>
+        <v>16.95112705977438</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>998398.6955022051</v>
+        <v>17.22511947821797</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1280739.267589925</v>
+        <v>17.29875020665569</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-21073.22055582703</v>
+        <v>16.83591381331877</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1036025.208456918</v>
+        <v>16.93149265381581</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1415469.320441741</v>
+        <v>16.95465761628916</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-244887.6117892228</v>
+        <v>16.83374438292864</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1365171.892292416</v>
+        <v>16.93129290512141</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1679052.865949775</v>
+        <v>16.9560233737359</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-63045.35113542761</v>
+        <v>16.89078848560214</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>2205340.170933694</v>
+        <v>16.96960863876231</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>2718047.02327264</v>
+        <v>16.98947394239973</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1311569.63555054</v>
+        <v>16.9805236287353</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1858175.128011035</v>
+        <v>17.04111506696933</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2071108.472264787</v>
+        <v>17.07048276939989</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>216565.6470902679</v>
+        <v>16.85256286843609</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1549840.093023062</v>
+        <v>17.01691868915029</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1794718.266579601</v>
+        <v>17.05857020505722</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-199974.5609275401</v>
+        <v>16.82381936016181</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>511951.0854695889</v>
+        <v>16.95778667999006</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>808637.3919591655</v>
+        <v>16.99131499864898</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-407789.1566112107</v>
+        <v>16.81126128866</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>400476.5175377948</v>
+        <v>16.94897568324526</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>793632.1872992308</v>
+        <v>16.98487213825789</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-378389.3077669758</v>
+        <v>16.89213863945662</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>960393.4615846153</v>
+        <v>17.0034401106012</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1495889.282309292</v>
+        <v>17.03231465093085</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>481772.6731564011</v>
+        <v>17.01863467942275</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>685627.3898779424</v>
+        <v>17.10739362164728</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>955481.6802765089</v>
+        <v>17.15114514485211</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-74750.41870480172</v>
+        <v>16.85300656167688</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>861947.0552370814</v>
+        <v>17.08380684080931</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1096267.761961367</v>
+        <v>17.14454371295867</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-169237.1702895742</v>
+        <v>16.87292635950751</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>621761.0823043417</v>
+        <v>17.02390204763254</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>962224.0617763381</v>
+        <v>17.05950156115457</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-420560.965314718</v>
+        <v>16.87000487567462</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>609680.959557926</v>
+        <v>17.0263818668463</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>957577.084237234</v>
+        <v>17.06458725044716</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-264534.0208816482</v>
+        <v>16.96025156646939</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1280585.176522459</v>
+        <v>17.08677768609839</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1760159.487671903</v>
+        <v>17.11749859910199</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>917745.2506928537</v>
+        <v>17.13182585738866</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1190770.803829386</v>
+        <v>17.23654925772333</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1528448.21485506</v>
+        <v>17.28467430729322</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-13137.68008031744</v>
+        <v>16.9595847377397</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1120790.935481823</v>
+        <v>17.22068938002629</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1403398.463404458</v>
+        <v>17.28545589316195</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-271291.0332093411</v>
+        <v>16.87410518501551</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1013086.180931931</v>
+        <v>16.9602254373831</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1491654.802670401</v>
+        <v>16.98223173217655</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-667816.4811420212</v>
+        <v>16.87711953649444</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1778243.044736844</v>
+        <v>16.96509579615266</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2196438.498482172</v>
+        <v>16.98867647262647</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-324453.6860616002</v>
+        <v>16.9261428080113</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3087085.300912092</v>
+        <v>16.99725153550078</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3745289.168267808</v>
+        <v>17.01621256689202</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1712675.150226208</v>
+        <v>17.01904173041881</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2339582.068830848</v>
+        <v>17.07434048140502</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2730714.308616862</v>
+        <v>17.10225394181209</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>138169.4387010317</v>
+        <v>16.90873650133648</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1727814.659520383</v>
+        <v>17.05701164194247</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2333395.786406456</v>
+        <v>17.09663546788456</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-174996.0708772684</v>
+        <v>16.87837755204513</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>913219.5467110493</v>
+        <v>16.99898833161028</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1207696.620637716</v>
+        <v>17.03050973233033</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-692770.5943173841</v>
+        <v>16.87405032313976</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>746299.5471574427</v>
+        <v>16.99813139581001</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1171899.115956071</v>
+        <v>17.0319739607786</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-644565.7232158552</v>
+        <v>16.94317370075948</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1592597.55257697</v>
+        <v>17.04348693528242</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2180743.601788518</v>
+        <v>17.07073192948234</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>736261.0896434281</v>
+        <v>17.07381058364002</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1099044.782399254</v>
+        <v>17.15461233915622</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1464016.067673542</v>
+        <v>17.19567799725807</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-90374.59853848444</v>
+        <v>16.93096204320404</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1395720.946368388</v>
+        <v>17.13898880398292</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1658143.792501514</v>
+        <v>17.19612528715766</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-102298.630260292</v>
+        <v>16.91587716557064</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1063425.171808378</v>
+        <v>17.05135991520283</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1355865.143344674</v>
+        <v>17.08476596227898</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-645646.5380164753</v>
+        <v>16.92021082218737</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1050373.155053305</v>
+        <v>17.06059631048017</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1339257.373001865</v>
+        <v>17.0965428295669</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-429296.8474721964</v>
+        <v>16.99769312683032</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2053304.876956714</v>
+        <v>17.11130799560721</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2490845.754674661</v>
+        <v>17.14023557752335</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1520482.894010654</v>
+        <v>17.16702198785858</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1831161.003104</v>
+        <v>17.26173436191433</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2081332.223045749</v>
+        <v>17.30668452287326</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-14381.98219559669</v>
+        <v>17.01844740685932</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1708033.452675066</v>
+        <v>17.2529398585034</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1968309.743741986</v>
+        <v>17.31374327156227</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>644567.2727025431</v>
+        <v>16.8648937343572</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>2056491.840425947</v>
+        <v>16.92840291779878</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2743560.565991499</v>
+        <v>16.94540360268149</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>151623.2918294696</v>
+        <v>16.86466213845162</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>3328774.242983175</v>
+        <v>16.92941351251828</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>4029957.915129722</v>
+        <v>16.9476378094313</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>382768.0244177449</v>
+        <v>16.90216795578593</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>5108683.951982193</v>
+        <v>16.95449607287864</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>6191672.054435033</v>
+        <v>16.96915578884028</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>2947323.000602684</v>
+        <v>16.96708923074933</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3684478.763669017</v>
+        <v>17.00710535705697</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4485764.945935952</v>
+        <v>17.02876712593526</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1333105.558138999</v>
+        <v>16.88478700437835</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>3139911.021524713</v>
+        <v>16.99400439731142</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>4098583.270840685</v>
+        <v>17.02458901701246</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>497867.3808679301</v>
+        <v>16.86534923926064</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1958187.24792995</v>
+        <v>16.95441593296245</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2483392.852133231</v>
+        <v>16.97873127100214</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-55495.41308760085</v>
+        <v>16.85901252675909</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1905376.365168077</v>
+        <v>16.95048860284954</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>2709806.794827345</v>
+        <v>16.97660419156442</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-125211.8686983902</v>
+        <v>16.91169621704196</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3124688.457513102</v>
+        <v>16.98563895158122</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4188077.108385124</v>
+        <v>17.00667038529931</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1514604.65523376</v>
+        <v>17.00392610219124</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2003126.257483318</v>
+        <v>17.06264549440314</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>2746773.82716498</v>
+        <v>17.09442835754364</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>501496.6018539127</v>
+        <v>16.89729038860034</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2574829.473739416</v>
+        <v>17.05074878465451</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>3046165.375346416</v>
+        <v>17.09478381865165</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>628072.6121763233</v>
+        <v>16.89463331564668</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2168791.949134025</v>
+        <v>16.99483134472532</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2714226.803583341</v>
+        <v>17.02058845534508</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-193695.3044558456</v>
+        <v>16.89485031300498</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2164824.871740925</v>
+        <v>16.99852830043042</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2760831.833345386</v>
+        <v>17.02625219169493</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>120652.8042949037</v>
+        <v>16.95373309403907</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3750921.766377386</v>
+        <v>17.03763054651433</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4585144.438612688</v>
+        <v>17.05994848816486</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2854350.819199691</v>
+        <v>17.07525650535668</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3206164.210064377</v>
+        <v>17.14437171468321</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3757072.765397742</v>
+        <v>17.17910546596726</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>557163.3488685014</v>
+        <v>16.96430305169278</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>2969636.68825588</v>
+        <v>17.13756916664899</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3473093.402171126</v>
+        <v>17.18440359579219</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-363725.5811862466</v>
+        <v>16.84901922382634</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>980325.7115536239</v>
+        <v>16.93782080220902</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1393383.096713264</v>
+        <v>16.95995747369294</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-755593.2554646102</v>
+        <v>16.84846908892237</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1412183.472519114</v>
+        <v>16.93914610212655</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1754089.046490113</v>
+        <v>16.96281398859863</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-491494.0797806028</v>
+        <v>16.90081858043191</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2576647.575765569</v>
+        <v>16.9740929498973</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3172631.802313221</v>
+        <v>16.99311428073037</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1530077.163272246</v>
+        <v>16.98770957479482</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2107148.115994564</v>
+        <v>17.04428963465341</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2324292.568760558</v>
+        <v>17.07237918135707</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-141529.3039408796</v>
+        <v>16.8705491304325</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1577362.491716942</v>
+        <v>17.02332482411885</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1899969.698736189</v>
+        <v>17.06314174387387</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-352540.9353624238</v>
+        <v>16.84196986274767</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>615377.9544287054</v>
+        <v>16.96638772982882</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>920334.5882400293</v>
+        <v>16.99829541918525</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-741998.8964148476</v>
+        <v>16.83237540125642</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>395325.7189934531</v>
+        <v>16.96032785147983</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>834705.7758788932</v>
+        <v>16.99452914072669</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-695002.3624372957</v>
+        <v>16.90646121209424</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1171286.609036056</v>
+        <v>17.0098815548331</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1789763.776209478</v>
+        <v>17.0374036800425</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>588605.0900675897</v>
+        <v>17.02879910169547</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>818018.3989980288</v>
+        <v>17.11158578968472</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1111395.462541734</v>
+        <v>17.1532120561768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-262155.9062242461</v>
+        <v>16.87710431084543</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1041998.314993395</v>
+        <v>17.09154774858153</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1291012.296697458</v>
+        <v>17.14935123507956</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-330945.9847958656</v>
+        <v>16.88428223019586</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>719405.4712269406</v>
+        <v>17.02432452358485</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1133403.219342443</v>
+        <v>17.05819283722424</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-748386.6342322454</v>
+        <v>16.88356972866215</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>648035.7069212585</v>
+        <v>17.02866227605546</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1080118.355546886</v>
+        <v>17.06505040289145</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-537943.9891847381</v>
+        <v>16.96638141764104</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1568061.662537107</v>
+        <v>17.08378473219201</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2167091.894355818</v>
+        <v>17.11305592045681</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1172521.260708276</v>
+        <v>17.12969087735905</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1454725.527279884</v>
+        <v>17.2271268286078</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1855054.319166756</v>
+        <v>17.27283934333146</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-198700.786613808</v>
+        <v>16.97193886317316</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1334128.947298923</v>
+        <v>17.21421194059514</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1698267.992769063</v>
+        <v>17.27582628771247</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-182046.9971356634</v>
+        <v>16.8149639468702</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-39990.52337753191</v>
+        <v>16.90186286804199</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>135725.4378434329</v>
+        <v>16.92491100675405</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-740977.0116762631</v>
+        <v>16.81102812309362</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>96876.24410890367</v>
+        <v>16.89958878688328</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>294183.5080661997</v>
+        <v>16.92427191588519</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-989132.1814879412</v>
+        <v>16.86507222641554</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>633328.9386222553</v>
+        <v>16.93663598521029</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1039088.663032378</v>
+        <v>16.95648673282723</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>434606.1673473734</v>
+        <v>16.94394641199665</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>623933.4710201342</v>
+        <v>16.99826828877731</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>878859.7778027281</v>
+        <v>17.02762884514494</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>45019.59227204229</v>
+        <v>16.82966254244505</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>388038.9408502211</v>
+        <v>16.97907214666284</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>669575.7980299206</v>
+        <v>17.02052046291023</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-223502.2563985833</v>
+        <v>16.8056159876645</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>368016.4795585528</v>
+        <v>16.92759524612601</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>844228.9663593811</v>
+        <v>16.96066273026736</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-428912.1855686628</v>
+        <v>16.79241405426944</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>304445.7336736994</v>
+        <v>16.91765571169687</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>935906.137859605</v>
+        <v>16.95314581551383</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-513416.4967012503</v>
+        <v>16.86803755724345</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>876192.0099670603</v>
+        <v>16.969266643783</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1657668.860453393</v>
+        <v>16.997842813769</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>301817.9475923278</v>
+        <v>16.98172118724283</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>586064.2718460711</v>
+        <v>17.06164390779349</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1084917.059790818</v>
+        <v>17.10487679483792</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-103056.1011970951</v>
+        <v>16.83363951403954</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>791000.5424787921</v>
+        <v>17.04377323365362</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1235485.823799667</v>
+        <v>17.10364974408069</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-20521.57031084319</v>
+        <v>16.84933301647449</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>728034.4110481972</v>
+        <v>16.98673210827319</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1249255.062785303</v>
+        <v>17.02179593088086</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-472866.78028986</v>
+        <v>16.84537609624369</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>596865.9467611499</v>
+        <v>16.98752472473052</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>1166776.879145417</v>
+        <v>17.02524193268021</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-321761.8662415128</v>
+        <v>16.92936812603388</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1394253.540091516</v>
+        <v>17.04438979802074</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2101800.798949724</v>
+        <v>17.07474789409665</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>979818.5495927297</v>
+        <v>17.08413785125149</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1236421.232668446</v>
+        <v>17.17848447318246</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1684171.346274688</v>
+        <v>17.22582245464038</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-125879.2921973602</v>
+        <v>16.93002727601913</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1038220.061879668</v>
+        <v>17.16760595325069</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1553788.022821338</v>
+        <v>17.23135773574498</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-493978.6419489924</v>
+        <v>16.85903456289797</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>770083.1750391913</v>
+        <v>16.92204488336696</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1580834.288032299</v>
+        <v>16.93909725438029</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1303762.29929072</v>
+        <v>16.85825728442276</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1683215.922761204</v>
+        <v>16.92248136810695</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2543888.38396174</v>
+        <v>16.94076743486072</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-1296507.759341558</v>
+        <v>16.89592351459083</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3226633.979212327</v>
+        <v>16.94782468569096</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>4465548.51712091</v>
+        <v>16.96253558898184</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1715450.788491139</v>
+        <v>16.95900778216667</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2478068.277969175</v>
+        <v>16.99858810909853</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3424228.506096741</v>
+        <v>17.02032100256831</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>422356.1899568141</v>
+        <v>16.87720343391882</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>2115315.141224137</v>
+        <v>16.98554448986564</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3212811.037450776</v>
+        <v>17.01622383307918</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-375560.4603903014</v>
+        <v>16.85737172505973</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1017007.833169871</v>
+        <v>16.94575767377534</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1716172.895756117</v>
+        <v>16.97013921400757</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-1005040.171404604</v>
+        <v>16.85033408088865</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>857600.0183899282</v>
+        <v>16.9410888096117</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1858906.222169298</v>
+        <v>16.96728385767771</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-1223313.079995816</v>
+        <v>16.90322152320095</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1920757.138420981</v>
+        <v>16.97658008581654</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>3179872.002354127</v>
+        <v>16.99767740729703</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>680823.5127450442</v>
+        <v>16.9929334345274</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1207248.295171435</v>
+        <v>17.05105508706688</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2104007.561294693</v>
+        <v>17.0829251903203</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-198877.1052344814</v>
+        <v>16.88692991427604</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1822007.616754247</v>
+        <v>17.03919277900345</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2468711.018525526</v>
+        <v>17.08334827474718</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-146500.6147755757</v>
+        <v>16.88664811975136</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1342692.469732817</v>
+        <v>16.98610246014939</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2044466.550302348</v>
+        <v>17.0119285660679</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1008572.251480624</v>
+        <v>16.88614362252002</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1276184.55120146</v>
+        <v>16.98903106970823</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2045034.297813487</v>
+        <v>17.01683743004361</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-813948.5726670343</v>
+        <v>16.94518639725585</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2734482.862945352</v>
+        <v>17.02844322240094</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3740577.839607449</v>
+        <v>17.05082961704218</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>2169475.902277329</v>
+        <v>17.06407558887968</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2552336.060493464</v>
+        <v>17.13252937175207</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3232362.681367935</v>
+        <v>17.16735043263331</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-28449.73721141462</v>
+        <v>16.95376999314907</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>2336364.710163274</v>
+        <v>17.12572846875537</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>2997741.889949677</v>
+        <v>17.1726869207637</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>255488.5405000458</v>
+        <v>16.8457233476716</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>913118.5532319988</v>
+        <v>16.94101258029063</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1050234.599519721</v>
+        <v>16.96544965845146</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>88957.005257925</v>
+        <v>16.84564386036426</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1636871.311317294</v>
+        <v>16.94278419287627</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1701653.135671137</v>
+        <v>16.96894941579654</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>294126.4791207029</v>
+        <v>16.90205293354264</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>2552693.743390223</v>
+        <v>16.98055640183582</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>2807841.64468924</v>
+        <v>17.00159097797795</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1462139.107047912</v>
+        <v>16.99780583257118</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1903552.079217517</v>
+        <v>17.05772485471984</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2003132.07685901</v>
+        <v>17.08870183491551</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>614125.4055741988</v>
+        <v>16.87259044284003</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1504305.660549423</v>
+        <v>17.03645324016175</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>1719660.12350329</v>
+        <v>17.08040397908522</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>101033.9857172225</v>
+        <v>16.84439276216424</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>792772.1091735889</v>
+        <v>16.97805581219821</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>888331.9181905</v>
+        <v>17.01313761978795</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-220464.8191966028</v>
+        <v>16.83510527778098</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>754190.9701886021</v>
+        <v>16.9723702933763</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>925969.6154534132</v>
+        <v>17.01001321897101</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-191268.6350652734</v>
+        <v>16.91450232066787</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1375490.691386866</v>
+        <v>17.02545802925403</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1677219.114084898</v>
+        <v>17.05575737558869</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>655870.6094185943</v>
+        <v>17.05047670602459</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>923018.1885774264</v>
+        <v>17.13845918426174</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1040983.053703876</v>
+        <v>17.18416052981594</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>126804.5868138885</v>
+        <v>16.88829982337974</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1103978.938822841</v>
+        <v>17.11858974227645</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1152681.519283216</v>
+        <v>17.18212649812505</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27643.3232201347</v>
+        <v>16.89274783666355</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>814408.0989942381</v>
+        <v>17.04326180677718</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>960346.2656156002</v>
+        <v>17.08041769613816</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-337707.1443997412</v>
+        <v>16.89347165330747</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>896405.9899177293</v>
+        <v>17.04921176998576</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1002423.960650674</v>
+        <v>17.0891674287763</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-127662.9983879826</v>
+        <v>16.98204214899367</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1687577.553776819</v>
+        <v>17.10806991047984</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1913728.97936749</v>
+        <v>17.14021861644527</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1202927.38050036</v>
+        <v>17.16301485951104</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1417214.035213183</v>
+        <v>17.26674828273229</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1505131.114541654</v>
+        <v>17.31677926833866</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>72456.8321423903</v>
+        <v>16.9942759111509</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1277623.152952112</v>
+        <v>17.25455674505696</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1372019.396419782</v>
+        <v>17.32212887817415</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-460341.3575359536</v>
+        <v>16.85085561844299</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>855808.3593454396</v>
+        <v>16.94199381654378</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1178143.572658793</v>
+        <v>16.96492136076798</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-746237.3935861452</v>
+        <v>16.85111264231091</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1427495.571801733</v>
+        <v>16.94419725881606</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1669707.652087758</v>
+        <v>16.96873009228872</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-449255.4295676518</v>
+        <v>16.90448357171572</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2587946.014036224</v>
+        <v>16.97970867670218</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3071781.514367181</v>
+        <v>16.99942767495286</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1569779.408473235</v>
+        <v>16.99477911493697</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2123912.628528904</v>
+        <v>17.05293385594036</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2268920.614892793</v>
+        <v>17.08204917191942</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-151762.3299313001</v>
+        <v>16.87509627159181</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>1543557.922540717</v>
+        <v>17.03193699930732</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1805862.464548842</v>
+        <v>17.07318647791256</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-326403.1145050195</v>
+        <v>16.84341559941782</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>577316.4138561336</v>
+        <v>16.97106681999349</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>838568.5168977592</v>
+        <v>17.00406730165987</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-683753.6113853492</v>
+        <v>16.83452941996767</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>413344.3988795746</v>
+        <v>16.96583178396586</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>792358.2687781192</v>
+        <v>17.00122697817941</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-639900.0888642394</v>
+        <v>16.91011640784171</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1159325.580940031</v>
+        <v>17.01625105305575</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1707893.230395282</v>
+        <v>17.0447369168438</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>610160.976459811</v>
+        <v>17.03677059947745</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>795125.0230060918</v>
+        <v>17.12180186126508</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1058700.689757923</v>
+        <v>17.16487122099327</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-277346.9687822056</v>
+        <v>16.88180437063669</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>971366.4398849763</v>
+        <v>17.10187715209792</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1175462.572937715</v>
+        <v>17.16166681172906</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-324785.013402381</v>
+        <v>16.88352746756736</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>598365.6006856728</v>
+        <v>17.0271073863699</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1023370.915010253</v>
+        <v>17.06213517174011</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-726571.8249006378</v>
+        <v>16.88351965745045</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>548236.0002004793</v>
+        <v>17.03229324487694</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>982447.6530341981</v>
+        <v>17.06995027098997</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-551753.4308764394</v>
+        <v>16.96818037582966</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1407329.023167313</v>
+        <v>17.08856833361938</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2000766.490582313</v>
+        <v>17.11886344223353</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1113094.699308192</v>
+        <v>17.1359834770132</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1278014.990654315</v>
+        <v>17.23593286237322</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>1674980.117675978</v>
+        <v>17.28320264277995</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-282600.4778139717</v>
+        <v>16.974851335299</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1109815.345105908</v>
+        <v>17.22329004570902</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1491697.854148988</v>
+        <v>17.28701801793283</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.433</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.879</v>
+        <v>18.828</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.024</v>
+        <v>-0.726</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.732</v>
+        <v>23.026</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.659</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.676</v>
+        <v>11.112</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.84458976381883</v>
+        <v>12.14374802824695</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.9319615219622</v>
+        <v>20.82814469918137</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.95527612792275</v>
+        <v>26.73096864790671</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.84401367964458</v>
+        <v>3.14994847266802</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.93312829991005</v>
+        <v>27.01716250080429</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.95812613335093</v>
+        <v>33.71360428302139</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.89608169783124</v>
+        <v>5.187953198238359</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.9681003506834</v>
+        <v>37.59654117269452</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.98820846110363</v>
+        <v>46.28418435980939</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.98387591948673</v>
+        <v>34.92898073877871</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.03910300108359</v>
+        <v>42.4292572355375</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.06876668031813</v>
+        <v>51.36322070237195</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.87089418038344</v>
+        <v>18.19072116327289</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.02117752180424</v>
+        <v>37.02051893451394</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.06313516995348</v>
+        <v>48.85675590590517</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.84231238152998</v>
+        <v>14.99320657902796</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.96482494675735</v>
+        <v>32.22842108187193</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16.99817987840504</v>
+        <v>40.53650563036551</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.83324199634318</v>
+        <v>3.411250301113737</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.95911159737495</v>
+        <v>28.69389032220732</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.994943478079</v>
+        <v>41.82017809986437</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.90636406281232</v>
+        <v>4.025378024591594</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.00811015801393</v>
+        <v>41.90460900079214</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.03696600104931</v>
+        <v>56.57590669525455</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17.03106989773677</v>
+        <v>33.23414847715343</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17.11206652485355</v>
+        <v>42.84852476966984</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.15560820992006</v>
+        <v>57.39428829068024</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.88467784520301</v>
+        <v>15.91290355938745</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>17.0958014035499</v>
+        <v>54.57991599810175</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17.15622596946202</v>
+        <v>66.12712342542571</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.88307700232988</v>
+        <v>20.03341508934022</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>17.02088095296998</v>
+        <v>41.69072162882557</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>17.05622260422134</v>
+        <v>51.07743381455076</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.88307021044359</v>
+        <v>5.201317628622666</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>17.02570297593092</v>
+        <v>41.07212937387259</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.06375161788077</v>
+        <v>52.18495157001864</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.96466763331779</v>
+        <v>11.58029816276184</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>17.08008960453536</v>
+        <v>60.10436436843543</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.11071882517049</v>
+        <v>73.06855653595761</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>17.12972638759572</v>
+        <v>68.25850237349253</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>17.22500867543689</v>
+        <v>77.50953854830426</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>17.27261687583563</v>
+        <v>89.7715087003221</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.9774044131068</v>
+        <v>22.72566556127055</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>17.21573994768426</v>
+        <v>74.65818960593563</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.2800217001746</v>
+        <v>87.78762353161595</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.84823188159028</v>
+        <v>12.38990696472717</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.94955872190749</v>
+        <v>34.24291356381298</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>16.97302799120365</v>
+        <v>39.68596317552684</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.84869644715386</v>
+        <v>3.664116744601655</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.95222889811818</v>
+        <v>42.25932977774774</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16.97727052989357</v>
+        <v>45.80055335480503</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.90770306189147</v>
+        <v>10.23493550589141</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.99137407334447</v>
+        <v>55.69546830345369</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>17.01148055493079</v>
+        <v>62.16270106345836</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>17.00739987827364</v>
+        <v>48.75853047775013</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>17.07251707299933</v>
+        <v>65.88339885557329</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>17.10212285914102</v>
+        <v>68.48218896848786</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.87385799649182</v>
+        <v>13.94368721478134</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.04825234521943</v>
+        <v>54.39631068636043</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>17.09048285738652</v>
+        <v>59.85799192813248</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.84260142044422</v>
+        <v>15.08767068221925</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.98451012560592</v>
+        <v>39.50835487895768</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>17.01849024441866</v>
+        <v>44.42773414816829</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.83321014966236</v>
+        <v>2.189845257700453</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.97922911504981</v>
+        <v>36.12112358513149</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>17.01558683277987</v>
+        <v>43.27928086997543</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.91675661675534</v>
+        <v>8.274051359750095</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>17.03479047041098</v>
+        <v>53.49698436533478</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>17.06402522445765</v>
+        <v>63.68068688728113</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>17.05729850367395</v>
+        <v>46.57336970582415</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.15242921066481</v>
+        <v>58.37622731641463</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>17.19661470324478</v>
+        <v>64.78959304917228</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.88452607171644</v>
+        <v>18.95606946947371</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.12920347036433</v>
+        <v>67.0878728739623</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.19080703761919</v>
+        <v>71.68992274061675</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.89342722089739</v>
+        <v>16.27149343141343</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>17.05313850041731</v>
+        <v>46.50327501040049</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17.0891984482905</v>
+        <v>52.41502890018939</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.89422415682268</v>
+        <v>2.57272733978572</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>17.05977387097204</v>
+        <v>48.65006563392036</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>17.09845182682093</v>
+        <v>53.76510483992067</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.98755284368487</v>
+        <v>12.77430154026049</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>17.12151962188677</v>
+        <v>69.81256611842477</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>17.15260868777997</v>
+        <v>78.26273269616594</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>17.17516348298676</v>
+        <v>71.40074551703634</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>17.28701192203125</v>
+        <v>86.65330139242947</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17.33563539752454</v>
+        <v>94.32245998642649</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.99552345243727</v>
+        <v>20.87194584981956</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>17.27190982579009</v>
+        <v>85.46938202178525</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>17.33757529810636</v>
+        <v>91.2414411266644</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.84823188159028</v>
+        <v>12.38990696472717</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16.94955872190749</v>
+        <v>34.24291356381298</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16.97302799120365</v>
+        <v>39.68596317552684</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.84869644715386</v>
+        <v>3.664116744601655</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.95222889811818</v>
+        <v>42.25932977774774</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16.97727052989357</v>
+        <v>45.80055335480503</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.90770306189147</v>
+        <v>10.23493550589141</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.99137407334447</v>
+        <v>55.69546830345369</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>17.01148055493079</v>
+        <v>62.16270106345836</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.00739987827364</v>
+        <v>48.75853047775013</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>17.07251707299933</v>
+        <v>65.88339885557329</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>17.10212285914102</v>
+        <v>68.48218896848786</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.87385799649182</v>
+        <v>13.94368721478134</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.04825234521943</v>
+        <v>54.39631068636043</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.09048285738652</v>
+        <v>59.85799192813248</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.84260142044422</v>
+        <v>15.08767068221925</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.98451012560592</v>
+        <v>39.50835487895768</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>17.01849024441866</v>
+        <v>44.42773414816829</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.83321014966236</v>
+        <v>2.189845257700453</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>16.97922911504981</v>
+        <v>36.12112358513149</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>17.01558683277987</v>
+        <v>43.27928086997543</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.91675661675534</v>
+        <v>8.274051359750095</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.03479047041098</v>
+        <v>53.49698436533478</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>17.06402522445765</v>
+        <v>63.68068688728113</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>17.05729850367395</v>
+        <v>46.57336970582415</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>17.15242921066481</v>
+        <v>58.37622731641463</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>17.19661470324478</v>
+        <v>64.78959304917228</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.88452607171644</v>
+        <v>18.95606946947371</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.12920347036433</v>
+        <v>67.0878728739623</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>17.19080703761919</v>
+        <v>71.68992274061675</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.89342722089739</v>
+        <v>16.27149343141343</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>17.05313850041731</v>
+        <v>46.50327501040049</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>17.0891984482905</v>
+        <v>52.41502890018939</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.89422415682268</v>
+        <v>2.57272733978572</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>17.05977387097204</v>
+        <v>48.65006563392036</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>17.09845182682093</v>
+        <v>53.76510483992067</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16.98755284368487</v>
+        <v>12.77430154026049</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>17.12151962188677</v>
+        <v>69.81256611842477</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>17.15260868777997</v>
+        <v>78.26273269616594</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>17.17516348298676</v>
+        <v>71.40074551703634</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>17.28701192203125</v>
+        <v>86.65330139242947</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>17.33563539752454</v>
+        <v>94.32245998642649</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.99552345243727</v>
+        <v>20.87194584981956</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>17.27190982579009</v>
+        <v>85.46938202178525</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>17.33757529810636</v>
+        <v>91.2414411266644</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.81087524774011</v>
+        <v>10.64143598497733</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.89897912967339</v>
+        <v>12.0973736491372</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.92246420888303</v>
+        <v>18.0980574757113</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>16.80592395152943</v>
+        <v>2.005732060627649</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.89568021971989</v>
+        <v>16.36582423500548</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.92083889087755</v>
+        <v>23.41946498303366</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.86083896678567</v>
+        <v>0.1247473985404195</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.93336758317315</v>
+        <v>24.1718068414927</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.95360219179749</v>
+        <v>33.22408024259208</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.94086332600798</v>
+        <v>24.61261401562768</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.99600319398349</v>
+        <v>26.11775683802966</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>17.02594814206566</v>
+        <v>36.84466762827755</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.82586552227596</v>
+        <v>18.01813618252469</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.97728434381196</v>
+        <v>24.0705500407551</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>17.01953338006282</v>
+        <v>35.82120681442674</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.80028076637297</v>
+        <v>11.70504331797793</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>16.9239300969985</v>
+        <v>22.40767707404257</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16.9575776266847</v>
+        <v>31.4430642545264</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.78550865342284</v>
+        <v>1.68036179065224</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.91241922059222</v>
+        <v>18.52308915316948</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.94853876718947</v>
+        <v>32.7280768927254</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.862373654112</v>
+        <v>-0.9461734929267553</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.9649502791074</v>
+        <v>29.49765445924751</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>16.99403449006197</v>
+        <v>45.20420368698021</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.97762954414894</v>
+        <v>22.0148387369615</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>17.05870208350957</v>
+        <v>26.32703098082395</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>17.10272626983838</v>
+        <v>43.48827590541553</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.82864539092505</v>
+        <v>13.10050515916263</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>17.04156972098733</v>
+        <v>40.3434019873006</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>17.10251046462135</v>
+        <v>52.83912966180586</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.84386524739134</v>
+        <v>22.3170957266072</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.98312039401708</v>
+        <v>37.61639629537256</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.01877271044651</v>
+        <v>47.578092183442</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.83836492010624</v>
+        <v>5.032267378863173</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>16.98238360574011</v>
+        <v>32.92263961559885</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.02073929981045</v>
+        <v>44.91558389302057</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.92379385544201</v>
+        <v>9.848855526082806</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>17.04032766386337</v>
+        <v>51.35367947240043</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>17.07120053550721</v>
+        <v>65.19519336891058</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>17.08063064262373</v>
+        <v>60.85749426195455</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>17.17628661947789</v>
+        <v>65.05593762739504</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>17.22443161873352</v>
+        <v>79.77530726911937</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.92558666749775</v>
+        <v>22.41680353424776</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17.16628462017352</v>
+        <v>63.49240671250516</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>17.23111987793872</v>
+        <v>77.48473183394719</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.8609852317961</v>
+        <v>10.08851640679801</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.9492145816022</v>
+        <v>22.85150637639246</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.97205339314687</v>
+        <v>29.09381534302788</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.86203210787999</v>
+        <v>3.929343202928058</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.95211213734735</v>
+        <v>32.85980601422079</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.97657828620926</v>
+        <v>39.41211652085172</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.91320876352849</v>
+        <v>7.333010998669023</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.98601256684525</v>
+        <v>44.2998728104428</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.00568776661763</v>
+        <v>52.89866040801466</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>17.0052970939391</v>
+        <v>39.31376784639327</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.06166989682263</v>
+        <v>46.52886300202496</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.09072949041651</v>
+        <v>55.9170289529955</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.89202991836197</v>
+        <v>13.83301260260541</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.04387651394048</v>
+        <v>37.30158363164722</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.08497846494094</v>
+        <v>49.28317461830608</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.8648941167253</v>
+        <v>16.03596288997573</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.98852000370654</v>
+        <v>37.04884535987689</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.02122354173184</v>
+        <v>43.74224983886721</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.85802422140526</v>
+        <v>5.188100097729487</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.98514614860235</v>
+        <v>35.44388945548879</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.02024978181536</v>
+        <v>46.38214502993785</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.92992132453004</v>
+        <v>7.38206322498633</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.03268623302903</v>
+        <v>49.70050551564893</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.06094904262912</v>
+        <v>62.45400631940871</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17.06058575391905</v>
+        <v>39.95084754499595</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>17.14306265346514</v>
+        <v>48.7648372981194</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>17.18577699756385</v>
+        <v>62.7377630427312</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.9138794526284</v>
+        <v>16.98111806284764</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>17.12703053047566</v>
+        <v>60.18945308011725</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.18628076030072</v>
+        <v>69.51184329655987</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.90390614090169</v>
+        <v>17.57847239874118</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>17.04283531762429</v>
+        <v>42.03182587493646</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>17.07749889492379</v>
+        <v>49.75585855915448</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>16.90595984219544</v>
+        <v>2.944209668017413</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>17.04985842187981</v>
+        <v>42.24336740358472</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.08715003028843</v>
+        <v>51.39496829412694</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>16.98645136749245</v>
+        <v>9.804381559673862</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>17.10290325611544</v>
+        <v>61.46478312333312</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.13291591078201</v>
+        <v>72.70944568743721</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>17.1570628778084</v>
+        <v>68.79531799229527</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>17.2538546592358</v>
+        <v>76.9367509612231</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>17.30059082733787</v>
+        <v>88.71724246503686</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>17.0044659687419</v>
+        <v>19.61079220666114</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>17.24484995457855</v>
+        <v>74.98894792422831</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.30791208085472</v>
+        <v>86.00789864976228</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>16.83211800931177</v>
+        <v>9.163087608901725</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.96653254042591</v>
+        <v>26.91067828629537</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.9973129373747</v>
+        <v>32.30288943119088</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>16.83334518544155</v>
+        <v>4.152866393829049</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.97073284101652</v>
+        <v>39.88572371199692</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17.00357680339273</v>
+        <v>42.99793731664809</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.9113634767773</v>
+        <v>11.0464442802898</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.02241025609292</v>
+        <v>53.85863818144021</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.04878043375099</v>
+        <v>59.71781663303311</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>17.04573316868018</v>
+        <v>44.82006553562106</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.13267200906987</v>
+        <v>55.69809777978918</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.17151456944559</v>
+        <v>60.58101843116976</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.87153930191191</v>
+        <v>8.973876897147482</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.10300538093745</v>
+        <v>39.10872665688188</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.15839413925316</v>
+        <v>46.97141312889818</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.83625952554545</v>
+        <v>20.50863311566982</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.02450376609117</v>
+        <v>47.18381934220252</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17.06896892227972</v>
+        <v>50.20917578213876</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.82555675295685</v>
+        <v>5.963901567294306</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>17.01931291527023</v>
+        <v>44.83588198037843</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>17.06688127889939</v>
+        <v>49.22881971348069</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>16.93521532064069</v>
+        <v>14.3810905048385</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.09185782294944</v>
+        <v>63.93333355160607</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>17.13010525323115</v>
+        <v>71.26574043113142</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>17.12707328340141</v>
+        <v>52.43466329850506</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.25400541268191</v>
+        <v>64.38743325162218</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.31184184846492</v>
+        <v>70.96548234101238</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.90172436263684</v>
+        <v>23.65238892441895</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.22645607860894</v>
+        <v>73.50240891881154</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.30706578349189</v>
+        <v>76.19591951185581</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.9020793595951</v>
+        <v>18.25880970411182</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>17.11371755617433</v>
+        <v>49.91461184487013</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17.16087947047506</v>
+        <v>53.57670287386831</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.90496568176561</v>
+        <v>0.9731146671203756</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>17.12437745884448</v>
+        <v>50.93650198329077</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>17.17495739025395</v>
+        <v>52.81723495221723</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.02747380125114</v>
+        <v>13.79548640230562</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>17.2050460607728</v>
+        <v>74.38605973571852</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>17.24569939240627</v>
+        <v>79.57346924628573</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>17.2811671919108</v>
+        <v>74.64234800066829</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>17.43006499263746</v>
+        <v>87.44838868488509</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>17.49364530854627</v>
+        <v>92.2111986725122</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>17.04687740666219</v>
+        <v>21.96335948163551</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>17.41325311056002</v>
+        <v>87.75706656184762</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>17.49914401884119</v>
+        <v>90.99987636933206</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.78623087981259</v>
+        <v>3.516048735330008</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.9178571819272</v>
+        <v>7.698078235504616</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16.95024109688677</v>
+        <v>12.12459877333607</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.78273212785296</v>
+        <v>-5.848513996695397</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.91697556627962</v>
+        <v>13.17277822397341</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.95161075895283</v>
+        <v>16.5300942894518</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.86322399161178</v>
+        <v>-5.277910126495856</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.97171324884592</v>
+        <v>22.52434557338238</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.99954176348725</v>
+        <v>28.50802198658095</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.98543878359369</v>
+        <v>20.86820081341664</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>17.06861185237118</v>
+        <v>28.42534233329025</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>17.10948983193859</v>
+        <v>32.02958232532706</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.8121309645819</v>
+        <v>6.550716222874604</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.03850573779419</v>
+        <v>19.32064106436223</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.09677594270511</v>
+        <v>26.55916189391843</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.77265516512349</v>
+        <v>11.84822043566021</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.95728751673454</v>
+        <v>26.23685675190078</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.00394764200821</v>
+        <v>33.06239170929252</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.75552159315195</v>
+        <v>0.2144468146173946</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.94520793789921</v>
+        <v>23.23658790773488</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.99522921807815</v>
+        <v>32.82406538728787</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.86860164181152</v>
+        <v>1.576232774778616</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>17.02193263242403</v>
+        <v>36.96148826922647</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>17.06217741750667</v>
+        <v>48.85494618692179</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>17.04346984707284</v>
+        <v>28.7310810187769</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>17.16554609311826</v>
+        <v>39.18980499219029</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.22616868485814</v>
+        <v>47.01197895433526</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.81907722502628</v>
+        <v>13.40971397384643</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.13721982475429</v>
+        <v>46.97651205778303</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>17.22178335373294</v>
+        <v>54.80637339265422</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.84475088882578</v>
+        <v>16.29215018883607</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17.05274700661804</v>
+        <v>38.67259057777519</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17.10219075518233</v>
+        <v>46.48112546973452</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.84170770513384</v>
+        <v>3.266669927725422</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.05701506042941</v>
+        <v>41.83547172134706</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>17.11014141005951</v>
+        <v>48.63117086294847</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.96721874271801</v>
+        <v>12.10554393862353</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.14145094184143</v>
+        <v>62.31820679786008</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>17.184178076794</v>
+        <v>71.84001083165199</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>17.2053944662025</v>
+        <v>65.2495009885837</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>17.34934842296694</v>
+        <v>78.01228065941459</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>17.41585872151868</v>
+        <v>84.33800770037995</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.97192032313263</v>
+        <v>22.10476709862719</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>17.33165405471626</v>
+        <v>75.25918600487279</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>17.42164564301953</v>
+        <v>83.7302752953061</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.83653882298421</v>
+        <v>4.831086990661346</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.93815193921322</v>
+        <v>14.65762825777276</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.96411789633986</v>
+        <v>20.74704666995993</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.83563179619322</v>
+        <v>-2.663226116142384</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.93935175764987</v>
+        <v>22.76442773485169</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.96714954144602</v>
+        <v>28.90876769556372</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.89585588348276</v>
+        <v>-0.03943052679169945</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.97968089495541</v>
+        <v>34.1592868233204</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.00203064763711</v>
+        <v>42.54375723137644</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.99692410399035</v>
+        <v>30.5813056282683</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>17.06172412052122</v>
+        <v>35.06078335447104</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.09475315192063</v>
+        <v>44.17365227475033</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.86584711493285</v>
+        <v>7.132628025157549</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.04069358984409</v>
+        <v>25.73433189720939</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.08741767110561</v>
+        <v>37.04651732549662</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.83582737672669</v>
+        <v>8.592343217052784</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.97824181141854</v>
+        <v>27.44502096800898</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.01547879097244</v>
+        <v>34.08146314632783</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.82518439687734</v>
+        <v>-4.410605670734357</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.97159728818217</v>
+        <v>23.17954451763893</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.0115451416664</v>
+        <v>33.92999961491617</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.90968730234792</v>
+        <v>-2.279627691331962</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>17.02804343732268</v>
+        <v>38.09059737620544</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>17.06020087278742</v>
+        <v>50.85667023629424</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.05385751985604</v>
+        <v>29.01630428454248</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>17.14872250767241</v>
+        <v>35.58181585901092</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.19736649846705</v>
+        <v>49.40301033119717</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>16.8841106486869</v>
+        <v>8.197186153896288</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.12961314519506</v>
+        <v>47.74703813643401</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.1970768898206</v>
+        <v>56.7938091677273</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.88230394968038</v>
+        <v>12.20868930028342</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.04242796858072</v>
+        <v>35.15826118658511</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.08190416677042</v>
+        <v>43.15251510724995</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.88199065380053</v>
+        <v>-5.822464679398189</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.04781948077758</v>
+        <v>31.8243163548908</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.09026684939518</v>
+        <v>41.01592885081804</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>16.9763821317699</v>
+        <v>1.840657316911807</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>17.11057831469478</v>
+        <v>52.46002399015732</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.1447345278975</v>
+        <v>63.93506770434062</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.16700091102073</v>
+        <v>59.7470645099912</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>17.27844071386003</v>
+        <v>66.21268698106633</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>17.33170302354666</v>
+        <v>78.41199529828063</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.99043732560987</v>
+        <v>11.76245716345975</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.26745758397113</v>
+        <v>64.87528758120452</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.33927946771312</v>
+        <v>76.07095752775211</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.87297556442573</v>
+        <v>7.714625087001663</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.99494331552978</v>
+        <v>29.49778635416531</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.02270770022105</v>
+        <v>35.8189581204276</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.87958026225016</v>
+        <v>2.34612447633298</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.00435797285121</v>
+        <v>44.45023398579224</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.03402033559101</v>
+        <v>48.22760704023514</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.94784845689429</v>
+        <v>11.4997576269096</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.04871596934361</v>
+        <v>59.66742581828951</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.07253219378543</v>
+        <v>66.06112585239322</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.07891048175142</v>
+        <v>52.12197679250583</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.15837083973828</v>
+        <v>70.09449471146728</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.19321021627764</v>
+        <v>72.93167391053984</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.92176854243402</v>
+        <v>12.95289189596749</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>17.13194090725167</v>
+        <v>53.01365578910519</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.18195499707551</v>
+        <v>62.64611487835896</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.8781700572547</v>
+        <v>8.20374637955018</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>17.04883487131074</v>
+        <v>34.68747173411671</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.08891099679827</v>
+        <v>39.06194894845711</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.87497055082698</v>
+        <v>-6.818482171976891</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.05076691363594</v>
+        <v>33.13804367101333</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.09368484856149</v>
+        <v>38.44226130387364</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.97160836320206</v>
+        <v>0.6288925124428655</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.11374752731739</v>
+        <v>50.86180773467486</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.14825641299028</v>
+        <v>58.96903953347781</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.1552385320672</v>
+        <v>42.24998944768225</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>17.27101393584541</v>
+        <v>57.16358753764006</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.32288001354746</v>
+        <v>61.59116653689573</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.9519637933216</v>
+        <v>11.66765180054721</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>17.2465485532199</v>
+        <v>63.95058771808352</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>17.31926631933094</v>
+        <v>68.58683484511693</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.9352774221062</v>
+        <v>9.003821913332095</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>17.12697862097939</v>
+        <v>41.64871621205779</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>17.16946767120255</v>
+        <v>45.68015991108282</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>16.9442697066402</v>
+        <v>-4.038550663209856</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>17.14313652247181</v>
+        <v>48.34349317264252</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.18874923420394</v>
+        <v>49.86514772669949</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>17.05252602383301</v>
+        <v>6.349568094792664</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>17.21348592577464</v>
+        <v>68.73096515385831</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.25014782929382</v>
+        <v>73.54366379743225</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>17.29128472243502</v>
+        <v>68.87585698314172</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.42679694974523</v>
+        <v>84.6265910638633</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>17.483819965732</v>
+        <v>86.04914578581604</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.07995437081606</v>
+        <v>14.22740098515323</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>17.41198548487674</v>
+        <v>83.46492917161788</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.48942787023179</v>
+        <v>86.76474135142485</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.77529257368639</v>
+        <v>3.982490770265917</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.88434574786472</v>
+        <v>6.43474054476807</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.91213403410899</v>
+        <v>11.29189046823282</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.76727487163959</v>
+        <v>-4.345234012985943</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.87840143271891</v>
+        <v>6.670595307922939</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.90810239170791</v>
+        <v>11.59244691989707</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>16.83631708042302</v>
+        <v>-7.274749425503872</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.92609735242575</v>
+        <v>12.91714999069046</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.94996709267186</v>
+        <v>20.42240097772492</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.9272495410504</v>
+        <v>13.27534556022321</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.99524767416051</v>
+        <v>15.456098801875</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.03056027625151</v>
+        <v>20.54176880164543</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.77984264436611</v>
+        <v>1.265790122712273</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.96719515167161</v>
+        <v>11.98504989577877</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>17.01714007332719</v>
+        <v>16.31993132336555</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.74907202943759</v>
+        <v>4.360225834957367</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.90212110547953</v>
+        <v>11.54732728300293</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>16.94226090676339</v>
+        <v>22.40536195910077</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.72763413472412</v>
+        <v>-1.016353878596471</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.88475712953691</v>
+        <v>7.770283058764148</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.92777709953661</v>
+        <v>23.43260573805524</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.82498157259468</v>
+        <v>-3.248386144468521</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.95195502630319</v>
+        <v>18.56780583253325</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>16.98657404813614</v>
+        <v>36.10833893268578</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.95518664546494</v>
+        <v>13.27977118911517</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>17.05519935198148</v>
+        <v>13.28075077468665</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>17.10763728276082</v>
+        <v>27.87848567823504</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.76426981747159</v>
+        <v>0.3201351042224783</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.02773079595255</v>
+        <v>20.63965033613081</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.10040653974367</v>
+        <v>34.19463996112061</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.80904161518035</v>
+        <v>11.23846762842441</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.98175549706509</v>
+        <v>24.13522691968475</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.02436532195102</v>
+        <v>39.63126331953333</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.79902594336412</v>
+        <v>1.17336816532829</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.97772451864155</v>
+        <v>21.8366905606162</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.02349712419372</v>
+        <v>39.65948212197963</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.90702556487453</v>
+        <v>6.532519517203829</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>17.05159999473825</v>
+        <v>39.73972979346729</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.08842112384064</v>
+        <v>59.32999812207034</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>17.09018319361305</v>
+        <v>45.02067504044883</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.20862452477122</v>
+        <v>49.39089136384336</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.2662329734612</v>
+        <v>71.29142938153852</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>16.8915575474217</v>
+        <v>10.31060728698677</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.19005422505007</v>
+        <v>45.1917152015644</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>17.26752329287575</v>
+        <v>65.82371853650343</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.82570217527129</v>
+        <v>4.943357963019585</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.93056320782778</v>
+        <v>21.69469736742226</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.95501839313595</v>
+        <v>25.20637316975493</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.82256250688635</v>
+        <v>-2.376019420511115</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.9296260231892</v>
+        <v>27.9543456673946</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.95569449786581</v>
+        <v>29.74980730448579</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.88519027309692</v>
+        <v>0.444152376928967</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.9717041690909</v>
+        <v>38.13884694670994</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.99263508668878</v>
+        <v>42.95700169777682</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.98252744482939</v>
+        <v>32.22692938721361</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>17.04947253112043</v>
+        <v>42.31706843039936</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.0804634218506</v>
+        <v>44.93644383521911</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.843346365316</v>
+        <v>3.770343442580829</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>17.02371547321267</v>
+        <v>33.56022320674008</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.06768388959365</v>
+        <v>35.68694236871931</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.81849415693699</v>
+        <v>14.65346668843992</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>16.96545310179983</v>
+        <v>35.96912846550249</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.00089355204549</v>
+        <v>38.38098436056409</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.80439204667699</v>
+        <v>3.844335363712203</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>16.95551138235477</v>
+        <v>32.54277739556946</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.99340197357619</v>
+        <v>37.23723154548026</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>16.89269334031734</v>
+        <v>8.237453356403526</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>17.01483640228838</v>
+        <v>48.12540722681464</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.04530372807448</v>
+        <v>56.0043919716715</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.03185105567862</v>
+        <v>41.46701198466156</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>17.12982150575905</v>
+        <v>48.47717281233854</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.17609288539139</v>
+        <v>54.26976287956526</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.85177234985671</v>
+        <v>18.45345626425352</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>17.10501903672662</v>
+        <v>59.16110383460948</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>17.16922599650989</v>
+        <v>60.10982503369911</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.87301830595924</v>
+        <v>19.11197376489083</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.03855480752731</v>
+        <v>45.40082222416904</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.07617901126557</v>
+        <v>49.8878386450851</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.86953787465103</v>
+        <v>5.009724488631823</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>17.04103900381203</v>
+        <v>44.65403732137111</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.08136532728145</v>
+        <v>48.82364190206302</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>16.96800795695455</v>
+        <v>14.68538317222698</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>17.10677821687928</v>
+        <v>65.29205361988843</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.13919212071879</v>
+        <v>72.79528209931712</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>17.15659910548452</v>
+        <v>68.01772142322199</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>17.27202669497622</v>
+        <v>79.12570421844637</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>17.32294627238828</v>
+        <v>87.72251043561019</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.96935663772865</v>
+        <v>23.11745473846182</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.25569591829022</v>
+        <v>79.16389613012871</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>17.32416668387546</v>
+        <v>83.18637994817286</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.7914029150721</v>
+        <v>10.49565895671014</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.8883973940455</v>
+        <v>13.242895818914</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.91161205296293</v>
+        <v>17.33356864560228</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.78450919382227</v>
+        <v>1.811097168470743</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.88336087757767</v>
+        <v>15.01906366208467</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.90812945029604</v>
+        <v>18.13993664667839</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.84557082980338</v>
+        <v>-2.072652180888626</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>16.92544069959312</v>
+        <v>19.93336089928831</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.94533047641891</v>
+        <v>25.81365238620975</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.92672522832727</v>
+        <v>18.6467410692111</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.98754324895012</v>
+        <v>24.96192899509816</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>17.0169095920735</v>
+        <v>28.41427762886661</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.79619457677175</v>
+        <v>10.45924244356509</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>16.96284947880662</v>
+        <v>20.57227048734051</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.00459977990346</v>
+        <v>23.99635684963642</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.76883657716051</v>
+        <v>3.538717028817144</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>16.90494157355887</v>
+        <v>8.991037620796545</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.93858836525055</v>
+        <v>15.67400983315518</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.75014314536769</v>
+        <v>-4.468640021013373</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>16.88988483971247</v>
+        <v>4.8945366501677</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.9258878380638</v>
+        <v>14.57610829872572</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.83624444603304</v>
+        <v>-8.503002380970644</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.94918044081085</v>
+        <v>13.6834667104359</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.97813372720986</v>
+        <v>25.93629888379288</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.9525545303797</v>
+        <v>8.974968673360257</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>17.0419303118188</v>
+        <v>11.00238722593058</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.08578468132507</v>
+        <v>19.92826795409993</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.78362516244029</v>
+        <v>1.734191696771111</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>17.01793938806031</v>
+        <v>19.17496018765744</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.07891257251715</v>
+        <v>25.89288123899095</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.82443470368437</v>
+        <v>15.79169476082413</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>16.97802790166764</v>
+        <v>28.76987831255253</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.01371929237137</v>
+        <v>35.7508468944306</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.81600135060253</v>
+        <v>1.238704700259012</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.97492919262339</v>
+        <v>25.19123198569651</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.01321059202177</v>
+        <v>31.89229027636012</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.91140813591774</v>
+        <v>5.241917683593959</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>17.03999557953956</v>
+        <v>41.25018859550008</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.07077012485657</v>
+        <v>50.95635399117209</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>17.07518537603678</v>
+        <v>44.25525020467692</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>17.18096860950625</v>
+        <v>51.12372874069623</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.22919979502461</v>
+        <v>60.55104329038308</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.89943357826817</v>
+        <v>12.20253353075672</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.16490091630401</v>
+        <v>48.0544859627274</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.22986144438327</v>
+        <v>54.89845659320272</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.75913480515492</v>
+        <v>6.285558301163332</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.85884804462818</v>
+        <v>2.340490408697596</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.88300245943475</v>
+        <v>3.982213474336556</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.74730911237638</v>
+        <v>-0.01198945689233888</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.84881157564399</v>
+        <v>2.832454780897015</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.87455744618877</v>
+        <v>3.683677687639806</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.81231981421091</v>
+        <v>-8.845323523040713</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.89431760562078</v>
+        <v>3.440890978553925</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.9149925571177</v>
+        <v>7.199597235215991</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.88783351058631</v>
+        <v>3.379146590194187</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.94967447845638</v>
+        <v>1.943510718914718</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.98038608671217</v>
+        <v>5.0336395120629</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.75222747223229</v>
+        <v>3.954265020739461</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.92340097326872</v>
+        <v>0.9101371817786355</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.96680226429415</v>
+        <v>0.273780688110163</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.73230095876345</v>
+        <v>1.917556861672677</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.87236479857305</v>
+        <v>2.182607834496492</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.9074120353264</v>
+        <v>5.883450002260942</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.70723895358665</v>
+        <v>-3.331045321486743</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.85090149949547</v>
+        <v>-1.826339235683678</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.88837369212467</v>
+        <v>4.853203637210568</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.7984870739457</v>
+        <v>-10.5309012284547</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.91457424314546</v>
+        <v>3.873707725410389</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.9447096554144</v>
+        <v>13.3432113189669</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.90917484531572</v>
+        <v>-0.3825387343171958</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>17.0003139506931</v>
+        <v>-4.319032946879618</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.04619944705543</v>
+        <v>3.440931961016828</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.73365771654587</v>
+        <v>-0.8368561838055033</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.97459310289922</v>
+        <v>5.834414935315889</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.03805662275438</v>
+        <v>8.168896025361944</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.79258314741235</v>
+        <v>17.81047780969022</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.95085217237908</v>
+        <v>24.78241900829687</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.98804128992569</v>
+        <v>29.81145690203917</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.77823357914508</v>
+        <v>2.8392943762583</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.94186977454824</v>
+        <v>17.79551520858911</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.98172799136558</v>
+        <v>22.9419771876473</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.87907917703349</v>
+        <v>5.158549534093728</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>17.01146015560413</v>
+        <v>32.3315794336243</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.04350286918294</v>
+        <v>40.54602726760782</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>17.03969231451664</v>
+        <v>36.69146685807446</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>17.14792213203707</v>
+        <v>38.22918106795937</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.19838309084513</v>
+        <v>47.9228030832141</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.85706497221694</v>
+        <v>12.29946624945122</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>17.1304345261355</v>
+        <v>36.19719975779481</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.19807330550901</v>
+        <v>40.46986650098774</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.81268548205853</v>
+        <v>8.035363521872069</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.91303048649581</v>
+        <v>12.01474951378896</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.93970247687288</v>
+        <v>17.66596870130858</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.809406582324</v>
+        <v>-2.999948010925623</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.9116985695721</v>
+        <v>15.17807906642272</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.94028528131775</v>
+        <v>21.54563701188802</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.87092695696636</v>
+        <v>-2.432533489526742</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.95359059149152</v>
+        <v>25.24357970305007</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>16.97658269802864</v>
+        <v>33.77301185049036</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.96574330728012</v>
+        <v>24.87579077117562</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.02884611926087</v>
+        <v>29.36999020854519</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.06277128754825</v>
+        <v>37.8957537509301</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.83508718943737</v>
+        <v>13.15654696675683</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.00762136222612</v>
+        <v>24.92313604999325</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.05561495027081</v>
+        <v>36.05698801937559</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.80295945935434</v>
+        <v>8.127438554784957</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.94372819432657</v>
+        <v>21.59718758271791</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.98193170885548</v>
+        <v>30.47148696986208</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.78909964538121</v>
+        <v>-5.34829192100557</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.93366080206399</v>
+        <v>15.1807269334779</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.97468915833655</v>
+        <v>28.95444569409116</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.87538474104995</v>
+        <v>-5.567237649354078</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.99223437841744</v>
+        <v>28.49916917714515</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>17.02527168864163</v>
+        <v>43.91606914650277</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.01087449853428</v>
+        <v>20.85496392438397</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.10354731967647</v>
+        <v>28.19638863322023</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.15341847245884</v>
+        <v>42.87102913983831</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.8415899131581</v>
+        <v>7.541282514179747</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.08409440265359</v>
+        <v>40.47782129736808</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>17.15330026540941</v>
+        <v>52.60345974222472</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.8520639848193</v>
+        <v>16.11731003916014</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>17.01052533005052</v>
+        <v>35.06459943891953</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>17.05100740598052</v>
+        <v>45.37496976130485</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.84874358448257</v>
+        <v>-1.715584035281205</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.01270141167247</v>
+        <v>31.01421884241727</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>17.0562717095161</v>
+        <v>42.93990027418128</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.94473930245183</v>
+        <v>5.114561703955706</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.07741312418197</v>
+        <v>51.24149699334369</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>17.11248389764236</v>
+        <v>65.11633858070911</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>17.12728740149797</v>
+        <v>59.63297774054107</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.23649234458851</v>
+        <v>67.35086123637296</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.29104757374048</v>
+        <v>80.32924166188732</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.95112705977438</v>
+        <v>16.56983671768811</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.22511947821797</v>
+        <v>64.63098696126035</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.29875020665569</v>
+        <v>78.7770163611475</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.83591381331877</v>
+        <v>14.24664959087317</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.93149265381581</v>
+        <v>32.42236191983776</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>16.95465761628916</v>
+        <v>38.94651031990487</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.83374438292864</v>
+        <v>9.953974231819357</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>16.93129290512141</v>
+        <v>40.55901960614853</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.9560233737359</v>
+        <v>46.52547079419031</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.89078848560214</v>
+        <v>13.56015658068279</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.96960863876231</v>
+        <v>51.29741006302404</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.98947394239973</v>
+        <v>59.82688984528127</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.9805236287353</v>
+        <v>48.0575190968848</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>17.04111506696933</v>
+        <v>61.99747322739035</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>17.07048276939989</v>
+        <v>67.42786332169257</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.85256286843609</v>
+        <v>20.27535365902602</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.01691868915029</v>
+        <v>55.16086604287966</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.05857020505722</v>
+        <v>61.56817444229394</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.82381936016181</v>
+        <v>8.953882220550481</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.95778667999006</v>
+        <v>29.08591856867645</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.99131499864898</v>
+        <v>37.4756985077297</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.81126128866</v>
+        <v>1.860137093069978</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.94897568324526</v>
+        <v>27.1288016874113</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.98487213825789</v>
+        <v>39.41995677454241</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.89213863945662</v>
+        <v>4.255758906592183</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>17.0034401106012</v>
+        <v>40.88606865156653</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>17.03231465093085</v>
+        <v>55.53771956113602</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>17.01863467942275</v>
+        <v>34.81584025334713</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>17.10739362164728</v>
+        <v>43.36621545344219</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.15114514485211</v>
+        <v>54.68484211742501</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.85300656167688</v>
+        <v>11.39186225595795</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.08380684080931</v>
+        <v>51.70085578249698</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.14454371295867</v>
+        <v>61.78440155181219</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.87292635950751</v>
+        <v>9.322757444231646</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>17.02390204763254</v>
+        <v>34.02910275188563</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>17.05950156115457</v>
+        <v>44.66325511281755</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>16.87000487567462</v>
+        <v>0.08637408407486724</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.0263818668463</v>
+        <v>35.66156914055947</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>17.06458725044716</v>
+        <v>47.6747402182036</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>16.96025156646939</v>
+        <v>6.614280083291396</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.08677768609839</v>
+        <v>53.30949522425207</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>17.11749859910199</v>
+        <v>67.80276258694099</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>17.13182585738866</v>
+        <v>57.12593365584008</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>17.23654925772333</v>
+        <v>69.77468394918476</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>17.28467430729322</v>
+        <v>85.418630835098</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.9595847377397</v>
+        <v>13.98408349702746</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>17.22068938002629</v>
+        <v>67.88153568060207</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.28545589316195</v>
+        <v>81.31432634651135</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>16.87410518501551</v>
+        <v>11.13228184743243</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>16.9602254373831</v>
+        <v>27.59237742575748</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.98223173217655</v>
+        <v>33.72553298774486</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>16.87711953649444</v>
+        <v>5.147264828802312</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>16.96509579615266</v>
+        <v>39.8035389317885</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.98867647262647</v>
+        <v>45.72861807245493</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.9261428080113</v>
+        <v>10.58586794723418</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.99725153550078</v>
+        <v>52.8885115552843</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.01621256689202</v>
+        <v>61.05015465199993</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>17.01904173041881</v>
+        <v>47.16458477306396</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>17.07434048140502</v>
+        <v>59.08123421410667</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>17.10225394181209</v>
+        <v>66.51612709581541</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>16.90873650133648</v>
+        <v>17.30359140695358</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>17.05701164194247</v>
+        <v>48.30557677233949</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>17.09663546788456</v>
+        <v>60.11589582176753</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>16.87837755204513</v>
+        <v>10.92046475751786</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>16.99898833161028</v>
+        <v>33.8572088671124</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>17.03050973233033</v>
+        <v>40.06401676585759</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.87405032313976</v>
+        <v>-1.533999698939725</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>16.99813139581001</v>
+        <v>31.99911274602601</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>17.0319739607786</v>
+        <v>41.91640432600376</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.94317370075948</v>
+        <v>1.463909595539262</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>17.04348693528242</v>
+        <v>47.08775698434189</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>17.07073192948234</v>
+        <v>59.08218129923071</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>17.07381058364002</v>
+        <v>37.62637445323342</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>17.15461233915622</v>
+        <v>48.96801587849878</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>17.19567799725807</v>
+        <v>60.37804761573955</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>16.93096204320404</v>
+        <v>11.710001222099</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>17.13898880398292</v>
+        <v>59.37648155594069</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>17.19612528715766</v>
+        <v>67.79368829425154</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.91587716557064</v>
+        <v>12.22730532549664</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>17.05135991520283</v>
+        <v>39.3662149323473</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>17.08476596227898</v>
+        <v>46.1744330873429</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.92021082218737</v>
+        <v>-2.008679668572706</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>17.06059631048017</v>
+        <v>41.64317583600181</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>17.0965428295669</v>
+        <v>49.07842684809606</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>16.99769312683032</v>
+        <v>4.938784442614695</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>17.11130799560721</v>
+        <v>60.86059093658793</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>17.14023557752335</v>
+        <v>70.71641116589008</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>17.16702198785858</v>
+        <v>67.11239218872947</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>17.26173436191433</v>
+        <v>77.84039117997777</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>17.30668452287326</v>
+        <v>86.47903200023555</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.01844740685932</v>
+        <v>14.09919096789768</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.2529398585034</v>
+        <v>75.12087330871654</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>17.31374327156227</v>
+        <v>84.34193393833</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.8648937343572</v>
+        <v>19.40057892662065</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.92840291779878</v>
+        <v>29.89625979509883</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.94540360268149</v>
+        <v>35.00365309576293</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.86466213845162</v>
+        <v>15.85517629071491</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>16.92941351251828</v>
+        <v>41.96548815681012</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>16.9476378094313</v>
+        <v>47.72792268908809</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.90216795578593</v>
+        <v>17.36216574832039</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>16.95449607287864</v>
+        <v>51.35305469991072</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.96915578884028</v>
+        <v>59.14238673429576</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.96708923074933</v>
+        <v>47.10569217529886</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.00710535705697</v>
+        <v>55.23343077483212</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>17.02876712593526</v>
+        <v>64.06825912344716</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.88478700437835</v>
+        <v>29.68947944244724</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.99400439731142</v>
+        <v>50.1284987946593</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>17.02458901701246</v>
+        <v>60.97323058967216</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.86534923926064</v>
+        <v>20.69586583074022</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>16.95441593296245</v>
+        <v>38.54939881521172</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.97873127100214</v>
+        <v>44.97044107436906</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.85901252675909</v>
+        <v>13.85895419208169</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.95048860284954</v>
+        <v>40.36228518926639</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.97660419156442</v>
+        <v>51.23504401922775</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.91169621704196</v>
+        <v>13.12791002545614</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>16.98563895158122</v>
+        <v>51.5714726253938</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.00667038529931</v>
+        <v>64.15045784477495</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>17.00392610219124</v>
+        <v>42.07442345353636</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>17.06264549440314</v>
+        <v>50.93314987464542</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.09442835754364</v>
+        <v>64.41826566729175</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.89729038860034</v>
+        <v>23.93922037634501</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>17.05074878465451</v>
+        <v>62.51322672938784</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.09478381865165</v>
+        <v>71.28235121949433</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.89463331564668</v>
+        <v>23.09040448814324</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>16.99483134472532</v>
+        <v>43.89597481124429</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.02058845534508</v>
+        <v>51.26141960622812</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.89485031300498</v>
+        <v>11.71733460083389</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>16.99852830043042</v>
+        <v>46.92771974769956</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.02625219169493</v>
+        <v>55.82551713781037</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.95373309403907</v>
+        <v>16.18545841479295</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>17.03763054651433</v>
+        <v>63.61755304317492</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>17.05994848816486</v>
+        <v>74.51727676719391</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>17.07525650535668</v>
+        <v>71.77980786178716</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>17.14437171468321</v>
+        <v>78.82641075939273</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>17.17910546596726</v>
+        <v>89.8607656848507</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.96430305169278</v>
+        <v>26.05847621751801</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>17.13756916664899</v>
+        <v>75.63409599172149</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.18440359579219</v>
+        <v>85.97998384645366</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>16.84901922382634</v>
+        <v>9.544781890602513</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.93782080220902</v>
+        <v>28.25836430190024</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.95995747369294</v>
+        <v>34.00947176300354</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>16.84846908892237</v>
+        <v>2.978351004772334</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.93914610212655</v>
+        <v>36.34639340261936</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.96281398859863</v>
+        <v>41.60925997972468</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>16.90081858043191</v>
+        <v>7.987834871320166</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>16.9740929498973</v>
+        <v>49.32054739535602</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>16.99311428073037</v>
+        <v>57.34939595266884</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>16.98770957479482</v>
+        <v>46.20738019379935</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>17.04428963465341</v>
+        <v>58.12478374735364</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>17.07237918135707</v>
+        <v>62.60915098299826</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.8705491304325</v>
+        <v>11.61019595485225</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.02332482411885</v>
+        <v>48.03013105984576</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.06314174387387</v>
+        <v>54.86554302337844</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.84196986274767</v>
+        <v>6.536033285847145</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.96638772982882</v>
+        <v>28.70049106260307</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.99829541918525</v>
+        <v>35.68371920819683</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.83237540125642</v>
+        <v>-4.175500766643134</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.96032785147983</v>
+        <v>24.61688632328455</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.99452914072669</v>
+        <v>35.74018437386229</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>16.90646121209424</v>
+        <v>-0.7897119165974491</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>17.0098815548331</v>
+        <v>40.56018628551163</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.0374036800425</v>
+        <v>54.26329887624826</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>17.02879910169547</v>
+        <v>34.60061048372059</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.11158578968472</v>
+        <v>42.39259525619027</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>17.1532120561768</v>
+        <v>52.35709828517965</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.87710431084543</v>
+        <v>5.47332889066279</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.09154774858153</v>
+        <v>50.9194304787544</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.14935123507956</v>
+        <v>59.59686641790366</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.88428223019586</v>
+        <v>6.238290675260634</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>17.02432452358485</v>
+        <v>32.80469040253296</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>17.05819283722424</v>
+        <v>43.27588040237467</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>16.88356972866215</v>
+        <v>-6.317799551373065</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>17.02866227605546</v>
+        <v>32.72940408686557</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>17.06505040289145</v>
+        <v>44.81143591364029</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.96638141764104</v>
+        <v>1.444128081221939</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>17.08378473219201</v>
+        <v>52.9830111804327</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>17.11305592045681</v>
+        <v>67.64268175887872</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.12969087735905</v>
+        <v>58.59627079147061</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>17.2271268286078</v>
+        <v>69.18327234875223</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>17.27283934333146</v>
+        <v>84.20176088763618</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.97193886317316</v>
+        <v>6.960682889686018</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.21421194059514</v>
+        <v>65.95925693191269</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>17.27582628771247</v>
+        <v>79.97495871569491</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.8149639468702</v>
+        <v>12.00960990840725</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.90186286804199</v>
+        <v>14.03800729318858</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.92491100675405</v>
+        <v>16.54702210101955</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.81102812309362</v>
+        <v>2.912073884316262</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.89958878688328</v>
+        <v>16.13827314582638</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.92427191588519</v>
+        <v>19.2529297647723</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.86507222641554</v>
+        <v>0.9435869448848972</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.93663598521029</v>
+        <v>23.35884378677107</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.95648673282723</v>
+        <v>28.96465358153667</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.94394641199665</v>
+        <v>23.81340312123724</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.99826828877731</v>
+        <v>27.82314671477207</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.02762884514494</v>
+        <v>33.22220488342501</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.82966254244505</v>
+        <v>15.58715032851346</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.97907214666284</v>
+        <v>23.04064881285933</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.02052046291023</v>
+        <v>29.15818867460365</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.8056159876645</v>
+        <v>9.360199226785999</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.92759524612601</v>
+        <v>23.2513290981904</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.96066273026736</v>
+        <v>34.43462575205313</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>16.79241405426944</v>
+        <v>3.473281457902933</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>16.91765571169687</v>
+        <v>22.51298318281114</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.95314581551383</v>
+        <v>38.90718501976492</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.86803755724345</v>
+        <v>2.943053530079629</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>16.969266643783</v>
+        <v>34.51773222097433</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>16.997842813769</v>
+        <v>52.27444595729359</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.98172118724283</v>
+        <v>25.12169515412869</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>17.06164390779349</v>
+        <v>35.0226086063745</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.10487679483792</v>
+        <v>52.39872874382365</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.83363951403954</v>
+        <v>10.92579065502108</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>17.04377323365362</v>
+        <v>42.87673060526362</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.10364974408069</v>
+        <v>58.76131983426793</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.84933301647449</v>
+        <v>14.07655022541811</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>16.98673210827319</v>
+        <v>33.49315393359927</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>17.02179593088086</v>
+        <v>47.01296419671608</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.84537609624369</v>
+        <v>1.048714582228859</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.98752472473052</v>
+        <v>31.72475860529276</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>17.02524193268021</v>
+        <v>48.06773139555037</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.92936812603388</v>
+        <v>6.533523599423964</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>17.04438979802074</v>
+        <v>49.60081647282471</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>17.07474789409665</v>
+        <v>67.35831731258224</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>17.08413785125149</v>
+        <v>52.305600581268</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>17.17848447318246</v>
+        <v>62.17797266614869</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>17.22582245464038</v>
+        <v>79.40443214655004</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>16.93002727601913</v>
+        <v>9.639841485594678</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>17.16760595325069</v>
+        <v>55.59016441308072</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>17.23135773574498</v>
+        <v>75.94110285605286</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.85903456289797</v>
+        <v>10.95412552457124</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.92204488336696</v>
+        <v>20.3070504007734</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.93909725438029</v>
+        <v>26.30588222309094</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.85825728442276</v>
+        <v>3.944315339830316</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.92248136810695</v>
+        <v>28.37784880249739</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.94076743486072</v>
+        <v>35.4181644050192</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.89592351459083</v>
+        <v>5.327340005544349</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>16.94782468569096</v>
+        <v>37.70882337190347</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.96253558898184</v>
+        <v>46.57829791429337</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.95900778216667</v>
+        <v>33.43553574411209</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.99858810909853</v>
+        <v>41.80499181947573</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.02032100256831</v>
+        <v>52.18876425955644</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.87720343391882</v>
+        <v>19.36469274598075</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.98554448986564</v>
+        <v>38.42698391188806</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.01622383307918</v>
+        <v>50.78451113462861</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.85737172505973</v>
+        <v>10.03884630989411</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>16.94575767377534</v>
+        <v>26.98506046712941</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.97013921400757</v>
+        <v>35.49322551486253</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.85033408088865</v>
+        <v>1.087853256910398</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.9410888096117</v>
+        <v>26.14665181530648</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>16.96728385767771</v>
+        <v>39.61760052201242</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>16.90322152320095</v>
+        <v>0.2054555191959064</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>16.97658008581654</v>
+        <v>37.2245536206833</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.99767740729703</v>
+        <v>52.04969855414483</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.9929334345274</v>
+        <v>26.89755984021283</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>17.05105508706688</v>
+        <v>36.39931541649997</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>17.0829251903203</v>
+        <v>52.58545946201083</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.88692991427604</v>
+        <v>10.92605744472276</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.03919277900345</v>
+        <v>48.34980423860642</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.08334827474718</v>
+        <v>60.32577896656234</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.88664811975136</v>
+        <v>12.63990134626513</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.98610246014939</v>
+        <v>32.656354008203</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>17.0119285660679</v>
+        <v>42.08899763866044</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.88614362252002</v>
+        <v>-0.378104858092593</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.98903106970823</v>
+        <v>33.57278564689798</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.01683743004361</v>
+        <v>44.99769246033199</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>16.94518639725585</v>
+        <v>4.023564876629512</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>17.02844322240094</v>
+        <v>50.17125102467717</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>17.05082961704218</v>
+        <v>63.25561127246574</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>17.06407558887968</v>
+        <v>57.86055128802155</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>17.13252937175207</v>
+        <v>65.49341693291106</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.16735043263331</v>
+        <v>79.05072165813343</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.95376999314907</v>
+        <v>14.02701332891676</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>17.12572846875537</v>
+        <v>62.39775101902872</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.1726869207637</v>
+        <v>75.92579002148523</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.8457233476716</v>
+        <v>18.79742187708178</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>16.94101258029063</v>
+        <v>29.57847772107143</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>16.96544965845146</v>
+        <v>31.82633095695506</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.84564386036426</v>
+        <v>16.22122757852084</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>16.94278419287627</v>
+        <v>44.27567198836577</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>16.96894941579654</v>
+        <v>45.44977967829969</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.90205293354264</v>
+        <v>19.27442615626988</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>16.98055640183582</v>
+        <v>55.09974867782155</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>17.00159097797795</v>
+        <v>59.14689661952178</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>16.99780583257118</v>
+        <v>50.16216026094992</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>17.05772485471984</v>
+        <v>60.89553031608808</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.08870183491551</v>
+        <v>63.31691127261968</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.87259044284003</v>
+        <v>29.92983886274798</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>17.03645324016175</v>
+        <v>52.13772208995994</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>17.08040397908522</v>
+        <v>57.51030448437514</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.84439276216424</v>
+        <v>17.33294638451385</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.97805581219821</v>
+        <v>35.98378810320411</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>17.01313761978795</v>
+        <v>38.56029908649181</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>16.83510527778098</v>
+        <v>8.037197680394106</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>16.9723702933763</v>
+        <v>37.08966890427522</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>17.01001321897101</v>
+        <v>42.21003468139502</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.91450232066787</v>
+        <v>9.619112127247993</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>17.02545802925403</v>
+        <v>50.49210343485961</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>17.05575737558869</v>
+        <v>58.36347397019153</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>17.05047670602459</v>
+        <v>40.83792064420556</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>17.13845918426174</v>
+        <v>51.52156219482433</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>17.18416052981594</v>
+        <v>56.23915813391019</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.88829982337974</v>
+        <v>19.81148260528075</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>17.11858974227645</v>
+        <v>59.90538439846534</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>17.18212649812505</v>
+        <v>61.90367311126207</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>16.89274783666355</v>
+        <v>15.43203871369288</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>17.04326180677718</v>
+        <v>38.86253827366453</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>17.08041769613816</v>
+        <v>43.20869643185322</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.89347165330747</v>
+        <v>3.490104101579979</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>17.04921176998576</v>
+        <v>44.1219640269443</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>17.0891674287763</v>
+        <v>47.61249274477744</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>16.98204214899367</v>
+        <v>10.93024146324183</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>17.10806991047984</v>
+        <v>63.23584705323865</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.14021861644527</v>
+        <v>69.75233174527986</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>17.16301485951104</v>
+        <v>67.744408136705</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>17.26674828273229</v>
+        <v>77.20989824083682</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>17.31677926833866</v>
+        <v>81.09337967127243</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>16.9942759111509</v>
+        <v>17.89228637461179</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>17.25455674505696</v>
+        <v>72.50995581244618</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>17.32212887817415</v>
+        <v>76.78795689235038</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.85085561844299</v>
+        <v>7.919546387000457</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.94199381654378</v>
+        <v>27.04524421009872</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.96492136076798</v>
+        <v>31.72927506805961</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>16.85111264231091</v>
+        <v>2.620519174527329</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>16.94419725881606</v>
+        <v>37.54205011398475</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>16.96873009228872</v>
+        <v>41.43324410621053</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.90448357171572</v>
+        <v>8.292436833720052</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>16.97970867670218</v>
+        <v>50.99589067762927</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>16.99942767495286</v>
+        <v>57.79868177992064</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>16.99477911493697</v>
+        <v>48.4435895329139</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>17.05293385594036</v>
+        <v>60.38725202037972</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>17.08204917191942</v>
+        <v>63.5127214642531</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.87509627159181</v>
+        <v>11.25288235482045</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.03193699930732</v>
+        <v>48.74269612723875</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>17.07318647791256</v>
+        <v>54.54322167230563</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>16.84341559941782</v>
+        <v>6.808008374970489</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>16.97106681999349</v>
+        <v>28.40646490872399</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>17.00406730165987</v>
+        <v>34.65026291774187</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>16.83452941996767</v>
+        <v>-3.457226443690667</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.96583178396586</v>
+        <v>25.53019368688369</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>17.00122697817941</v>
+        <v>35.54446240240226</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>16.91011640784171</v>
+        <v>-0.1882736984091711</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>17.01625105305575</v>
+        <v>41.41735583113928</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.0447369168438</v>
+        <v>54.10253633861196</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>17.03677059947745</v>
+        <v>36.23813234574024</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.12180186126508</v>
+        <v>42.79486850686939</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>17.16487122099327</v>
+        <v>52.13828490403865</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>16.88180437063669</v>
+        <v>4.521701868100456</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>17.10187715209792</v>
+        <v>49.93691563416532</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.16166681172906</v>
+        <v>57.35981143001217</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.88352746756736</v>
+        <v>6.035213196799367</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>17.0271073863699</v>
+        <v>30.40442754837039</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>17.06213517174011</v>
+        <v>41.62366463414874</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>16.88351965745045</v>
+        <v>-6.595428229238772</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>17.03229324487694</v>
+        <v>30.60849791700286</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>17.06995027098997</v>
+        <v>43.28050851011522</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>16.96818037582966</v>
+        <v>0.5162503764338222</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>17.08856833361938</v>
+        <v>50.55415205063867</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>17.11886344223353</v>
+        <v>65.71143426864978</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>17.1359834770132</v>
+        <v>58.19118918824314</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>17.23593286237322</v>
+        <v>64.64854026286936</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>17.28320264277995</v>
+        <v>80.19146205035025</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>16.974851335299</v>
+        <v>3.256149131177386</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>17.22329004570902</v>
+        <v>59.19163987612045</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>17.28701801793283</v>
+        <v>74.53244913626719</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.14374802824695</v>
+        <v>12.14374802824591</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.82814469918137</v>
+        <v>20.82814469918038</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.73096864790671</v>
+        <v>26.73096864790455</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.14994847266802</v>
+        <v>3.149948472670593</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.01716250080429</v>
+        <v>27.01716250080595</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.71360428302139</v>
+        <v>33.71360428302269</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.187953198238359</v>
+        <v>5.187953198238601</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37.59654117269452</v>
+        <v>37.59654117269126</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>46.28418435980939</v>
+        <v>46.2841843598076</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.92898073877871</v>
+        <v>34.92898073878072</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.4292572355375</v>
+        <v>42.42925723554383</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.36322070237195</v>
+        <v>51.36322070237311</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.19072116327289</v>
+        <v>18.1907211632746</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.02051893451394</v>
+        <v>37.02051893452171</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>48.85675590590517</v>
+        <v>48.85675590590536</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.99320657902796</v>
+        <v>14.99320657902551</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.22842108187193</v>
+        <v>32.22842108187417</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.53650563036551</v>
+        <v>40.53650563036758</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.411250301113737</v>
+        <v>3.411250301116928</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.69389032220732</v>
+        <v>28.69389032220772</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.82017809986437</v>
+        <v>41.82017809986609</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.025378024591594</v>
+        <v>4.025378024591893</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41.90460900079214</v>
+        <v>41.90460900079169</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>56.57590669525455</v>
+        <v>56.57590669525167</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.23414847715343</v>
+        <v>33.23414847715879</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.84852476966984</v>
+        <v>42.84852476966945</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57.39428829068024</v>
+        <v>57.39428829067882</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.91290355938745</v>
+        <v>15.91290355938627</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>54.57991599810175</v>
+        <v>54.57991599810062</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>66.12712342542571</v>
+        <v>66.12712342542187</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.03341508934022</v>
+        <v>20.03341508934067</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.69072162882557</v>
+        <v>41.69072162882374</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.07743381455076</v>
+        <v>51.07743381454994</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.201317628622666</v>
+        <v>5.201317628623789</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.07212937387259</v>
+        <v>41.07212937387489</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.18495157001864</v>
+        <v>52.18495157001907</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>11.58029816276184</v>
+        <v>11.58029816275911</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.10436436843543</v>
+        <v>60.10436436843553</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73.06855653595761</v>
+        <v>73.06855653595942</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>68.25850237349253</v>
+        <v>68.25850237349712</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77.50953854830426</v>
+        <v>77.50953854830715</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>89.7715087003221</v>
+        <v>89.77150870032666</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.72566556127055</v>
+        <v>22.72566556127101</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>74.65818960593563</v>
+        <v>74.65818960593808</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.78762353161595</v>
+        <v>87.78762353161706</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.38990696472717</v>
+        <v>12.38990696472676</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.24291356381298</v>
+        <v>34.24291356380827</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.68596317552684</v>
+        <v>39.68596317552866</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.664116744601655</v>
+        <v>3.664116744606401</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.25932977774774</v>
+        <v>42.25932977775035</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>45.80055335480503</v>
+        <v>45.80055335480468</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.23493550589141</v>
+        <v>10.2349355058953</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55.69546830345369</v>
+        <v>55.69546830345527</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.16270106345836</v>
+        <v>62.16270106346014</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.75853047775013</v>
+        <v>48.75853047774761</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65.88339885557329</v>
+        <v>65.88339885557224</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>68.48218896848786</v>
+        <v>68.48218896848832</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.94368721478134</v>
+        <v>13.94368721478177</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>54.39631068636043</v>
+        <v>54.39631068636179</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>59.85799192813248</v>
+        <v>59.85799192813543</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.08767068221925</v>
+        <v>15.08767068221686</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.50835487895768</v>
+        <v>39.50835487895679</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.42773414816829</v>
+        <v>44.42773414816205</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.189845257700453</v>
+        <v>2.189845257701235</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.12112358513149</v>
+        <v>36.12112358513264</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.27928086997543</v>
+        <v>43.2792808699769</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.274051359750095</v>
+        <v>8.274051359747707</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53.49698436533478</v>
+        <v>53.49698436533544</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>63.68068688728113</v>
+        <v>63.68068688728093</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.57336970582415</v>
+        <v>46.57336970582163</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>58.37622731641463</v>
+        <v>58.37622731641327</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>64.78959304917228</v>
+        <v>64.78959304917237</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.95606946947371</v>
+        <v>18.95606946947422</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>67.0878728739623</v>
+        <v>67.0878728739626</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>71.68992274061675</v>
+        <v>71.68992274061571</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.27149343141343</v>
+        <v>16.27149343141516</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.50327501040049</v>
+        <v>46.50327501040309</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.41502890018939</v>
+        <v>52.41502890018942</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.57272733978572</v>
+        <v>2.572727339784569</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.65006563392036</v>
+        <v>48.65006563392147</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.76510483992067</v>
+        <v>53.76510483992538</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.77430154026049</v>
+        <v>12.77430154025955</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.81256611842477</v>
+        <v>69.81256611842726</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>78.26273269616594</v>
+        <v>78.26273269616678</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>71.40074551703634</v>
+        <v>71.40074551703748</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>86.65330139242947</v>
+        <v>86.65330139242919</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>94.32245998642649</v>
+        <v>94.32245998642459</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.87194584981956</v>
+        <v>20.87194584981646</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>85.46938202178525</v>
+        <v>85.46938202178775</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>91.2414411266644</v>
+        <v>91.24144112666546</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.38990696472717</v>
+        <v>12.38990696472676</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.24291356381298</v>
+        <v>34.24291356380827</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.68596317552684</v>
+        <v>39.68596317552866</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.664116744601655</v>
+        <v>3.664116744606401</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.25932977774774</v>
+        <v>42.25932977775035</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.80055335480503</v>
+        <v>45.80055335480468</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.23493550589141</v>
+        <v>10.2349355058953</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>55.69546830345369</v>
+        <v>55.69546830345527</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.16270106345836</v>
+        <v>62.16270106346014</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>48.75853047775013</v>
+        <v>48.75853047774761</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>65.88339885557329</v>
+        <v>65.88339885557224</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>68.48218896848786</v>
+        <v>68.48218896848832</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.94368721478134</v>
+        <v>13.94368721478177</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>54.39631068636043</v>
+        <v>54.39631068636179</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>59.85799192813248</v>
+        <v>59.85799192813543</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.08767068221925</v>
+        <v>15.08767068221686</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.50835487895768</v>
+        <v>39.50835487895679</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.42773414816829</v>
+        <v>44.42773414816205</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.189845257700453</v>
+        <v>2.189845257701235</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.12112358513149</v>
+        <v>36.12112358513264</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.27928086997543</v>
+        <v>43.2792808699769</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>8.274051359750095</v>
+        <v>8.274051359747707</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.49698436533478</v>
+        <v>53.49698436533544</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.68068688728113</v>
+        <v>63.68068688728093</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.57336970582415</v>
+        <v>46.57336970582163</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>58.37622731641463</v>
+        <v>58.37622731641327</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.78959304917228</v>
+        <v>64.78959304917237</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.95606946947371</v>
+        <v>18.95606946947422</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>67.0878728739623</v>
+        <v>67.0878728739626</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>71.68992274061675</v>
+        <v>71.68992274061571</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.27149343141343</v>
+        <v>16.27149343141516</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46.50327501040049</v>
+        <v>46.50327501040309</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>52.41502890018939</v>
+        <v>52.41502890018942</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.57272733978572</v>
+        <v>2.572727339784569</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48.65006563392036</v>
+        <v>48.65006563392147</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53.76510483992067</v>
+        <v>53.76510483992538</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>12.77430154026049</v>
+        <v>12.77430154025955</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>69.81256611842477</v>
+        <v>69.81256611842726</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>78.26273269616594</v>
+        <v>78.26273269616678</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>71.40074551703634</v>
+        <v>71.40074551703748</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.65330139242947</v>
+        <v>86.65330139242919</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>94.32245998642649</v>
+        <v>94.32245998642459</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.87194584981956</v>
+        <v>20.87194584981646</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>85.46938202178525</v>
+        <v>85.46938202178775</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>91.2414411266644</v>
+        <v>91.24144112666546</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.64143598497733</v>
+        <v>10.64143598497634</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.0973736491372</v>
+        <v>12.09737364913924</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.0980574757113</v>
+        <v>18.09805747571222</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.005732060627649</v>
+        <v>2.005732060625851</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.36582423500548</v>
+        <v>16.36582423500032</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.41946498303366</v>
+        <v>23.41946498303119</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.1247473985404195</v>
+        <v>0.1247473985372078</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.1718068414927</v>
+        <v>24.17180684149</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.22408024259208</v>
+        <v>33.22408024259012</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.61261401562768</v>
+        <v>24.61261401563184</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.11775683802966</v>
+        <v>26.11775683803123</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.84466762827755</v>
+        <v>36.8446676282808</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.01813618252469</v>
+        <v>18.01813618252097</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.0705500407551</v>
+        <v>24.07055004075441</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.82120681442674</v>
+        <v>35.82120681442629</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.70504331797793</v>
+        <v>11.70504331798057</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.40767707404257</v>
+        <v>22.40767707404231</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.4430642545264</v>
+        <v>31.44306425452583</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.68036179065224</v>
+        <v>1.680361790649242</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.52308915316948</v>
+        <v>18.52308915316934</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.7280768927254</v>
+        <v>32.72807689272749</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9461734929267553</v>
+        <v>-0.9461734929273948</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.49765445924751</v>
+        <v>29.49765445924771</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.20420368698021</v>
+        <v>45.20420368698172</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.0148387369615</v>
+        <v>22.01483873696021</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.32703098082395</v>
+        <v>26.32703098082767</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.48827590541553</v>
+        <v>43.4882759054134</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>13.10050515916263</v>
+        <v>13.10050515916317</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.3434019873006</v>
+        <v>40.3434019873031</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.83912966180586</v>
+        <v>52.83912966181018</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.3170957266072</v>
+        <v>22.31709572660967</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.61639629537256</v>
+        <v>37.61639629537189</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.578092183442</v>
+        <v>47.57809218344139</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.032267378863173</v>
+        <v>5.032267378865731</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.92263961559885</v>
+        <v>32.92263961560115</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.91558389302057</v>
+        <v>44.91558389301905</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>9.848855526082806</v>
+        <v>9.848855526082692</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.35367947240043</v>
+        <v>51.35367947240003</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.19519336891058</v>
+        <v>65.19519336891008</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.85749426195455</v>
+        <v>60.85749426195711</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.05593762739504</v>
+        <v>65.05593762739588</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>79.77530726911937</v>
+        <v>79.7753072691202</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.41680353424776</v>
+        <v>22.41680353424724</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.49240671250516</v>
+        <v>63.49240671250354</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.48473183394719</v>
+        <v>77.48473183394717</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.08851640679801</v>
+        <v>10.0885164067997</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.85150637639246</v>
+        <v>22.85150637639075</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.09381534302788</v>
+        <v>29.09381534302782</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.929343202928058</v>
+        <v>3.929343202932733</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.85980601422079</v>
+        <v>32.85980601421981</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>39.41211652085172</v>
+        <v>39.41211652085126</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.333010998669023</v>
+        <v>7.333010998668071</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>44.2998728104428</v>
+        <v>44.29987281044136</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.89866040801466</v>
+        <v>52.89866040801417</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.31376784639327</v>
+        <v>39.31376784639183</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.52886300202496</v>
+        <v>46.52886300202294</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>55.9170289529955</v>
+        <v>55.91702895299206</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.83301260260541</v>
+        <v>13.83301260260902</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.30158363164722</v>
+        <v>37.30158363165015</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>49.28317461830608</v>
+        <v>49.28317461830649</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.03596288997573</v>
+        <v>16.0359628899724</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.04884535987689</v>
+        <v>37.04884535987686</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.74224983886721</v>
+        <v>43.74224983886831</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.188100097729487</v>
+        <v>5.188100097730574</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.44388945548879</v>
+        <v>35.44388945549187</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>46.38214502993785</v>
+        <v>46.38214502994156</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.38206322498633</v>
+        <v>7.382063224982366</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>49.70050551564893</v>
+        <v>49.70050551564582</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>62.45400631940871</v>
+        <v>62.45400631940528</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.95084754499595</v>
+        <v>39.95084754499681</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>48.7648372981194</v>
+        <v>48.76483729812112</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.7377630427312</v>
+        <v>62.73776304272965</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.98111806284764</v>
+        <v>16.98111806284742</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>60.18945308011725</v>
+        <v>60.18945308011861</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>69.51184329655987</v>
+        <v>69.51184329655553</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.57847239874118</v>
+        <v>17.57847239874349</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.03182587493646</v>
+        <v>42.03182587493724</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.75585855915448</v>
+        <v>49.75585855915616</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.944209668017413</v>
+        <v>2.944209668018933</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.24336740358472</v>
+        <v>42.24336740358481</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.39496829412694</v>
+        <v>51.39496829412868</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>9.804381559673862</v>
+        <v>9.804381559671418</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>61.46478312333312</v>
+        <v>61.46478312333169</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>72.70944568743721</v>
+        <v>72.70944568743316</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>68.79531799229527</v>
+        <v>68.79531799229628</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>76.9367509612231</v>
+        <v>76.93675096122155</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>88.71724246503686</v>
+        <v>88.71724246503688</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.61079220666114</v>
+        <v>19.61079220666165</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>74.98894792422831</v>
+        <v>74.98894792422752</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>86.00789864976228</v>
+        <v>86.00789864976009</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.163087608901725</v>
+        <v>9.163087608899863</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.91067828629537</v>
+        <v>26.91067828629482</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.30288943119088</v>
+        <v>32.30288943119213</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.152866393829049</v>
+        <v>4.152866393828353</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>39.88572371199692</v>
+        <v>39.885723711998</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.99793731664809</v>
+        <v>42.9979373166518</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.0464442802898</v>
+        <v>11.04644428028754</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.85863818144021</v>
+        <v>53.85863818144101</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.71781663303311</v>
+        <v>59.71781663303125</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>44.82006553562106</v>
+        <v>44.82006553562189</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>55.69809777978918</v>
+        <v>55.69809777979198</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>60.58101843116976</v>
+        <v>60.58101843116964</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.973876897147482</v>
+        <v>8.973876897146402</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>39.10872665688188</v>
+        <v>39.10872665687996</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.97141312889818</v>
+        <v>46.97141312889872</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.50863311566982</v>
+        <v>20.50863311567127</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.18381934220252</v>
+        <v>47.18381934220135</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.20917578213876</v>
+        <v>50.20917578213806</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.963901567294306</v>
+        <v>5.963901567293403</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.83588198037843</v>
+        <v>44.83588198037379</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>49.22881971348069</v>
+        <v>49.22881971347996</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.3810905048385</v>
+        <v>14.38109050484328</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>63.93333355160607</v>
+        <v>63.93333355160557</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>71.26574043113142</v>
+        <v>71.26574043113186</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.43466329850506</v>
+        <v>52.43466329850619</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>64.38743325162218</v>
+        <v>64.38743325162392</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.96548234101238</v>
+        <v>70.96548234101436</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.65238892441895</v>
+        <v>23.65238892441783</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>73.50240891881154</v>
+        <v>73.50240891880959</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>76.19591951185581</v>
+        <v>76.19591951185458</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.25880970411182</v>
+        <v>18.25880970411078</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.91461184487013</v>
+        <v>49.91461184487459</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.57670287386831</v>
+        <v>53.57670287386888</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.9731146671203756</v>
+        <v>0.9731146671228199</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.93650198329077</v>
+        <v>50.93650198328763</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.81723495221723</v>
+        <v>52.81723495221512</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.79548640230562</v>
+        <v>13.79548640230826</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>74.38605973571852</v>
+        <v>74.3860597357169</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>79.57346924628573</v>
+        <v>79.57346924628757</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.64234800066829</v>
+        <v>74.64234800067118</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>87.44838868488509</v>
+        <v>87.44838868488728</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>92.2111986725122</v>
+        <v>92.21119867251349</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.96335948163551</v>
+        <v>21.96335948163514</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>87.75706656184762</v>
+        <v>87.75706656184785</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>90.99987636933206</v>
+        <v>90.99987636933329</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.516048735330008</v>
+        <v>3.516048735328317</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>7.698078235504616</v>
+        <v>7.698078235505443</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.12459877333607</v>
+        <v>12.12459877333527</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-5.848513996695397</v>
+        <v>-5.848513996691347</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.17277822397341</v>
+        <v>13.17277822397367</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.5300942894518</v>
+        <v>16.53009428945441</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-5.277910126495856</v>
+        <v>-5.277910126495181</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.52434557338238</v>
+        <v>22.52434557337956</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.50802198658095</v>
+        <v>28.50802198658026</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.86820081341664</v>
+        <v>20.86820081341511</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.42534233329025</v>
+        <v>28.42534233329079</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.02958232532706</v>
+        <v>32.0295823253272</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6.550716222874604</v>
+        <v>6.550716222874319</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.32064106436223</v>
+        <v>19.32064106436371</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.55916189391843</v>
+        <v>26.55916189392172</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.84822043566021</v>
+        <v>11.8482204356619</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.23685675190078</v>
+        <v>26.23685675189908</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.06239170929252</v>
+        <v>33.06239170929267</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.2144468146173946</v>
+        <v>0.2144468146215512</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.23658790773488</v>
+        <v>23.23658790773628</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.82406538728787</v>
+        <v>32.8240653872901</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.576232774778616</v>
+        <v>1.576232774777294</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.96148826922647</v>
+        <v>36.96148826922646</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.85494618692179</v>
+        <v>48.85494618692289</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.7310810187769</v>
+        <v>28.73108101877772</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.18980499219029</v>
+        <v>39.1898049921876</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.01197895433526</v>
+        <v>47.01197895433996</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13.40971397384643</v>
+        <v>13.40971397384488</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>46.97651205778303</v>
+        <v>46.97651205778509</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>54.80637339265422</v>
+        <v>54.8063733926544</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.29215018883607</v>
+        <v>16.29215018883477</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.67259057777519</v>
+        <v>38.67259057777746</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>46.48112546973452</v>
+        <v>46.48112546973519</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3.266669927725422</v>
+        <v>3.266669927728833</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.83547172134706</v>
+        <v>41.83547172134673</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.63117086294847</v>
+        <v>48.63117086294811</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.10554393862353</v>
+        <v>12.10554393862629</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>62.31820679786008</v>
+        <v>62.31820679786119</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.84001083165199</v>
+        <v>71.84001083165079</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>65.2495009885837</v>
+        <v>65.24950098858551</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>78.01228065941459</v>
+        <v>78.0122806594128</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>84.33800770037995</v>
+        <v>84.33800770038152</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.10476709862719</v>
+        <v>22.10476709862829</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>75.25918600487279</v>
+        <v>75.25918600487346</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>83.7302752953061</v>
+        <v>83.7302752953037</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4.831086990661346</v>
+        <v>4.831086990663634</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.65762825777276</v>
+        <v>14.65762825777197</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.74704666995993</v>
+        <v>20.74704666996261</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2.663226116142384</v>
+        <v>-2.663226116142058</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.76442773485169</v>
+        <v>22.76442773485034</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.90876769556372</v>
+        <v>28.90876769556647</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.03943052679169945</v>
+        <v>-0.03943052679530901</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.1592868233204</v>
+        <v>34.15928682332008</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.54375723137644</v>
+        <v>42.54375723137407</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.5813056282683</v>
+        <v>30.5813056282698</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.06078335447104</v>
+        <v>35.06078335447209</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>44.17365227475033</v>
+        <v>44.17365227475151</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.132628025157549</v>
+        <v>7.13262802515421</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.73433189720939</v>
+        <v>25.73433189721207</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.04651732549662</v>
+        <v>37.0465173255001</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.592343217052784</v>
+        <v>8.592343217056024</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.44502096800898</v>
+        <v>27.44502096800737</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>34.08146314632783</v>
+        <v>34.0814631463269</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-4.410605670734357</v>
+        <v>-4.410605670733959</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>23.17954451763893</v>
+        <v>23.17954451764166</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.92999961491617</v>
+        <v>33.92999961491802</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.279627691331962</v>
+        <v>-2.279627691328828</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.09059737620544</v>
+        <v>38.09059737620558</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.85667023629424</v>
+        <v>50.85667023629167</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.01630428454248</v>
+        <v>29.01630428454336</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.58181585901092</v>
+        <v>35.58181585901201</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.40301033119717</v>
+        <v>49.40301033119735</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.197186153896288</v>
+        <v>8.19718615389751</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.74703813643401</v>
+        <v>47.74703813643592</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>56.7938091677273</v>
+        <v>56.79380916772603</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.20868930028342</v>
+        <v>12.20868930028438</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.15826118658511</v>
+        <v>35.15826118658606</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.15251510724995</v>
+        <v>43.15251510724899</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-5.822464679398189</v>
+        <v>-5.822464679395617</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.8243163548908</v>
+        <v>31.82431635488872</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.01592885081804</v>
+        <v>41.01592885081805</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.840657316911807</v>
+        <v>1.840657316910926</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>52.46002399015732</v>
+        <v>52.46002399015765</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>63.93506770434062</v>
+        <v>63.93506770434103</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.7470645099912</v>
+        <v>59.74706450999154</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>66.21268698106633</v>
+        <v>66.21268698106641</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>78.41199529828063</v>
+        <v>78.41199529828158</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.76245716345975</v>
+        <v>11.76245716345747</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.87528758120452</v>
+        <v>64.87528758120638</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>76.07095752775211</v>
+        <v>76.07095752775221</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.714625087001663</v>
+        <v>7.714625087000284</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.49778635416531</v>
+        <v>29.49778635416648</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.8189581204276</v>
+        <v>35.81895812042995</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.34612447633298</v>
+        <v>2.346124476330813</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.45023398579224</v>
+        <v>44.45023398579205</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>48.22760704023514</v>
+        <v>48.22760704023521</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.4997576269096</v>
+        <v>11.49975762690956</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>59.66742581828951</v>
+        <v>59.66742581828785</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.06112585239322</v>
+        <v>66.06112585239309</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>52.12197679250583</v>
+        <v>52.12197679250733</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>70.09449471146728</v>
+        <v>70.09449471146681</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>72.93167391053984</v>
+        <v>72.93167391054185</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.95289189596749</v>
+        <v>12.95289189596457</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>53.01365578910519</v>
+        <v>53.01365578910531</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>62.64611487835896</v>
+        <v>62.64611487835831</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.20374637955018</v>
+        <v>8.203746379547999</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.68747173411671</v>
+        <v>34.68747173411464</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.06194894845711</v>
+        <v>39.06194894845505</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-6.818482171976891</v>
+        <v>-6.818482171977495</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.13804367101333</v>
+        <v>33.13804367101198</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.44226130387364</v>
+        <v>38.44226130387332</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.6288925124428655</v>
+        <v>0.6288925124445921</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>50.86180773467486</v>
+        <v>50.86180773467101</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>58.96903953347781</v>
+        <v>58.96903953348047</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.24998944768225</v>
+        <v>42.24998944768357</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.16358753764006</v>
+        <v>57.16358753763949</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>61.59116653689573</v>
+        <v>61.59116653689696</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>11.66765180054721</v>
+        <v>11.66765180054229</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>63.95058771808352</v>
+        <v>63.95058771808488</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>68.58683484511693</v>
+        <v>68.58683484511454</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>9.003821913332095</v>
+        <v>9.003821913330063</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.64871621205779</v>
+        <v>41.64871621205648</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.68015991108282</v>
+        <v>45.68015991108313</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-4.038550663209856</v>
+        <v>-4.038550663207795</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.34349317264252</v>
+        <v>48.34349317264076</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.86514772669949</v>
+        <v>49.8651477267023</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>6.349568094792664</v>
+        <v>6.349568094791087</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.73096515385831</v>
+        <v>68.73096515386102</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>73.54366379743225</v>
+        <v>73.54366379743261</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.87585698314172</v>
+        <v>68.87585698314318</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>84.6265910638633</v>
+        <v>84.62659106386332</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>86.04914578581604</v>
+        <v>86.04914578581537</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.22740098515323</v>
+        <v>14.22740098515152</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>83.46492917161788</v>
+        <v>83.46492917161714</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>86.76474135142485</v>
+        <v>86.76474135142611</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.982490770265917</v>
+        <v>3.982490770264837</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.43474054476807</v>
+        <v>6.434740544765182</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.29189046823282</v>
+        <v>11.2918904682324</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-4.345234012985943</v>
+        <v>-4.345234012985737</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.670595307922939</v>
+        <v>6.670595307923262</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.59244691989707</v>
+        <v>11.59244691990108</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-7.274749425503872</v>
+        <v>-7.274749425505471</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.91714999069046</v>
+        <v>12.91714999068916</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.42240097772492</v>
+        <v>20.42240097772522</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.27534556022321</v>
+        <v>13.27534556022574</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>15.456098801875</v>
+        <v>15.45609880187616</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.54176880164543</v>
+        <v>20.5417688016479</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1.265790122712273</v>
+        <v>1.265790122712927</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.98504989577877</v>
+        <v>11.98504989577888</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>16.31993132336555</v>
+        <v>16.31993132336431</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.360225834957367</v>
+        <v>4.360225834955783</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.54732728300293</v>
+        <v>11.54732728299977</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.40536195910077</v>
+        <v>22.40536195910081</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1.016353878596471</v>
+        <v>-1.016353878595043</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.770283058764148</v>
+        <v>7.770283058765576</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.43260573805524</v>
+        <v>23.43260573805795</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-3.248386144468521</v>
+        <v>-3.248386144469437</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.56780583253325</v>
+        <v>18.56780583253365</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.10833893268578</v>
+        <v>36.10833893268882</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.27977118911517</v>
+        <v>13.27977118911821</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>13.28075077468665</v>
+        <v>13.28075077468838</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.87848567823504</v>
+        <v>27.87848567823472</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.3201351042224783</v>
+        <v>0.3201351042219951</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.63965033613081</v>
+        <v>20.63965033613125</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.19463996112061</v>
+        <v>34.19463996112168</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.23846762842441</v>
+        <v>11.23846762842377</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.13522691968475</v>
+        <v>24.1352269196842</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.63126331953333</v>
+        <v>39.63126331953281</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1.17336816532829</v>
+        <v>1.173368165326528</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.8366905606162</v>
+        <v>21.83669056061618</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.65948212197963</v>
+        <v>39.65948212197889</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>6.532519517203829</v>
+        <v>6.53251951720525</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.73972979346729</v>
+        <v>39.73972979346847</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>59.32999812207034</v>
+        <v>59.32999812207132</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>45.02067504044883</v>
+        <v>45.02067504044928</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.39089136384336</v>
+        <v>49.39089136384319</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>71.29142938153852</v>
+        <v>71.29142938153626</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.31060728698677</v>
+        <v>10.31060728698541</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>45.1917152015644</v>
+        <v>45.19171520156622</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>65.82371853650343</v>
+        <v>65.82371853650324</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.943357963019585</v>
+        <v>4.943357963021894</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.69469736742226</v>
+        <v>21.69469736742301</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.20637316975493</v>
+        <v>25.20637316975822</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.376019420511115</v>
+        <v>-2.376019420513879</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.9543456673946</v>
+        <v>27.95434566739193</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.74980730448579</v>
+        <v>29.74980730448409</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.444152376928967</v>
+        <v>0.4441523769284483</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>38.13884694670994</v>
+        <v>38.13884694671327</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.95700169777682</v>
+        <v>42.95700169777531</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.22692938721361</v>
+        <v>32.22692938721365</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.31706843039936</v>
+        <v>42.31706843040021</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>44.93644383521911</v>
+        <v>44.93644383521879</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.770343442580829</v>
+        <v>3.770343442577753</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.56022320674008</v>
+        <v>33.5602232067394</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.68694236871931</v>
+        <v>35.6869423687212</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.65346668843992</v>
+        <v>14.65346668844363</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.96912846550249</v>
+        <v>35.96912846550328</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.38098436056409</v>
+        <v>38.38098436056516</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>3.844335363712203</v>
+        <v>3.844335363709154</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.54277739556946</v>
+        <v>32.5427773955703</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.23723154548026</v>
+        <v>37.23723154548045</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.237453356403526</v>
+        <v>8.237453356404307</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.12540722681464</v>
+        <v>48.12540722681599</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.0043919716715</v>
+        <v>56.0043919716743</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.46701198466156</v>
+        <v>41.4670119846578</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.47717281233854</v>
+        <v>48.47717281234078</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.26976287956526</v>
+        <v>54.26976287956381</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>18.45345626425352</v>
+        <v>18.45345626425036</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>59.16110383460948</v>
+        <v>59.16110383461091</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>60.10982503369911</v>
+        <v>60.1098250336991</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.11197376489083</v>
+        <v>19.11197376488717</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>45.40082222416904</v>
+        <v>45.40082222417036</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>49.8878386450851</v>
+        <v>49.88783864508704</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.009724488631823</v>
+        <v>5.00972448863171</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.65403732137111</v>
+        <v>44.65403732136898</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.82364190206302</v>
+        <v>48.82364190206014</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.68538317222698</v>
+        <v>14.68538317222947</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>65.29205361988843</v>
+        <v>65.29205361988596</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>72.79528209931712</v>
+        <v>72.79528209931797</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.01772142322199</v>
+        <v>68.01772142321917</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>79.12570421844637</v>
+        <v>79.12570421844549</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.72251043561019</v>
+        <v>87.72251043561265</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.11745473846182</v>
+        <v>23.11745473845873</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.16389613012871</v>
+        <v>79.16389613012662</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>83.18637994817286</v>
+        <v>83.18637994817061</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.49565895671014</v>
+        <v>10.49565895670717</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.242895818914</v>
+        <v>13.24289581891303</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.33356864560228</v>
+        <v>17.33356864560515</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.811097168470743</v>
+        <v>1.811097168472207</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.01906366208467</v>
+        <v>15.01906366208445</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.13993664667839</v>
+        <v>18.13993664667955</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-2.072652180888626</v>
+        <v>-2.072652180889039</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.93336089928831</v>
+        <v>19.93336089928738</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.81365238620975</v>
+        <v>25.81365238621068</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.6467410692111</v>
+        <v>18.64674106921039</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.96192899509816</v>
+        <v>24.96192899509801</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.41427762886661</v>
+        <v>28.41427762886684</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.45924244356509</v>
+        <v>10.45924244356756</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.57227048734051</v>
+        <v>20.57227048733834</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.99635684963642</v>
+        <v>23.99635684963999</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.538717028817144</v>
+        <v>3.538717028815887</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>8.991037620796545</v>
+        <v>8.991037620792698</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.67400983315518</v>
+        <v>15.674009833151</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-4.468640021013373</v>
+        <v>-4.468640021006502</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>4.8945366501677</v>
+        <v>4.894536650168702</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.57610829872572</v>
+        <v>14.57610829872831</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-8.503002380970644</v>
+        <v>-8.503002380972712</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>13.6834667104359</v>
+        <v>13.68346671043419</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.93629888379288</v>
+        <v>25.9362988837913</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>8.974968673360257</v>
+        <v>8.974968673359006</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>11.00238722593058</v>
+        <v>11.00238722593354</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.92826795409993</v>
+        <v>19.9282679541005</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.734191696771111</v>
+        <v>1.734191696770173</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>19.17496018765744</v>
+        <v>19.17496018765852</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.89288123899095</v>
+        <v>25.89288123899204</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.79169476082413</v>
+        <v>15.79169476082344</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.76987831255253</v>
+        <v>28.76987831255346</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.7508468944306</v>
+        <v>35.75084689443239</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.238704700259012</v>
+        <v>1.238704700261058</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.19123198569651</v>
+        <v>25.1912319856926</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.89229027636012</v>
+        <v>31.8922902763586</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.241917683593959</v>
+        <v>5.241917683592908</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.25018859550008</v>
+        <v>41.25018859550089</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.95635399117209</v>
+        <v>50.95635399116833</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.25525020467692</v>
+        <v>44.25525020467646</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.12372874069623</v>
+        <v>51.12372874069584</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.55104329038308</v>
+        <v>60.55104329038256</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.20253353075672</v>
+        <v>12.20253353075633</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>48.0544859627274</v>
+        <v>48.05448596272754</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>54.89845659320272</v>
+        <v>54.89845659320293</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.285558301163332</v>
+        <v>6.285558301164093</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.340490408697596</v>
+        <v>2.340490408698196</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>3.982213474336556</v>
+        <v>3.98221347434003</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.01198945689233888</v>
+        <v>-0.01198945689333364</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>2.832454780897015</v>
+        <v>2.832454780895594</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.683677687639806</v>
+        <v>3.683677687641454</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-8.845323523040713</v>
+        <v>-8.845323523039548</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>3.440890978553925</v>
+        <v>3.440890978556881</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.199597235215991</v>
+        <v>7.199597235217725</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>3.379146590194187</v>
+        <v>3.379146590195687</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.943510718914718</v>
+        <v>1.943510718914295</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.0336395120629</v>
+        <v>5.033639512065454</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.954265020739461</v>
+        <v>3.954265020738353</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>0.9101371817786355</v>
+        <v>0.9101371817777544</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.273780688110163</v>
+        <v>0.273780688110838</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.917556861672677</v>
+        <v>1.917556861676244</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.182607834496492</v>
+        <v>2.182607834500294</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.883450002260942</v>
+        <v>5.883450002266235</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-3.331045321486743</v>
+        <v>-3.331045321487681</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1.826339235683678</v>
+        <v>-1.826339235686698</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.853203637210568</v>
+        <v>4.85320363721034</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-10.5309012284547</v>
+        <v>-10.53090122845224</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>3.873707725410389</v>
+        <v>3.873707725413032</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.3432113189669</v>
+        <v>13.34321131897167</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-0.3825387343171958</v>
+        <v>-0.3825387343193558</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-4.319032946879618</v>
+        <v>-4.319032946880997</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.440931961016828</v>
+        <v>3.440931961018242</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-0.8368561838055033</v>
+        <v>-0.8368561838053612</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>5.834414935315889</v>
+        <v>5.834414935319783</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.168896025361944</v>
+        <v>8.168896025364203</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>17.81047780969022</v>
+        <v>17.81047780968914</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.78241900829687</v>
+        <v>24.7824190082986</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.81145690203917</v>
+        <v>29.81145690204031</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.8392943762583</v>
+        <v>2.839294376262421</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>17.79551520858911</v>
+        <v>17.79551520859175</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.9419771876473</v>
+        <v>22.94197718765054</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>5.158549534093728</v>
+        <v>5.158549534091952</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.3315794336243</v>
+        <v>32.33157943362759</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>40.54602726760782</v>
+        <v>40.54602726760709</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.69146685807446</v>
+        <v>36.69146685807483</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.22918106795937</v>
+        <v>38.22918106796157</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47.9228030832141</v>
+        <v>47.92280308321681</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.29946624945122</v>
+        <v>12.29946624945169</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.19719975779481</v>
+        <v>36.19719975779621</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>40.46986650098774</v>
+        <v>40.46986650099152</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>8.035363521872069</v>
+        <v>8.035363521871743</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.01474951378896</v>
+        <v>12.01474951379252</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.66596870130858</v>
+        <v>17.66596870131171</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-2.999948010925623</v>
+        <v>-2.999948010924955</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.17807906642272</v>
+        <v>15.17807906642513</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.54563701188802</v>
+        <v>21.54563701188915</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2.432533489526742</v>
+        <v>-2.432533489526657</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.24357970305007</v>
+        <v>25.24357970305216</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.77301185049036</v>
+        <v>33.77301185049145</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.87579077117562</v>
+        <v>24.87579077117535</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.36999020854519</v>
+        <v>29.3699902085467</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.8957537509301</v>
+        <v>37.89575375093436</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>13.15654696675683</v>
+        <v>13.1565469667558</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.92313604999325</v>
+        <v>24.92313604999093</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.05698801937559</v>
+        <v>36.05698801937599</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.127438554784957</v>
+        <v>8.127438554785753</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.59718758271791</v>
+        <v>21.59718758271653</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.47148696986208</v>
+        <v>30.47148696986325</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-5.34829192100557</v>
+        <v>-5.348291921006266</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.1807269334779</v>
+        <v>15.18072693347602</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.95444569409116</v>
+        <v>28.95444569408852</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-5.567237649354078</v>
+        <v>-5.567237649351471</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.49916917714515</v>
+        <v>28.49916917714448</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.91606914650277</v>
+        <v>43.91606914650259</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.85496392438397</v>
+        <v>20.85496392438505</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.19638863322023</v>
+        <v>28.19638863321767</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.87102913983831</v>
+        <v>42.87102913983736</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.541282514179747</v>
+        <v>7.541282514180514</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>40.47782129736808</v>
+        <v>40.47782129736879</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.60345974222472</v>
+        <v>52.6034597422213</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.11731003916014</v>
+        <v>16.11731003916065</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.06459943891953</v>
+        <v>35.06459943891662</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.37496976130485</v>
+        <v>45.37496976130355</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1.715584035281205</v>
+        <v>-1.715584035278932</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.01421884241727</v>
+        <v>31.01421884241763</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>42.93990027418128</v>
+        <v>42.93990027417981</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.114561703955706</v>
+        <v>5.11456170395835</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>51.24149699334369</v>
+        <v>51.24149699334464</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>65.11633858070911</v>
+        <v>65.11633858070964</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>59.63297774054107</v>
+        <v>59.63297774054124</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>67.35086123637296</v>
+        <v>67.35086123637339</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>80.32924166188732</v>
+        <v>80.32924166188816</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.56983671768811</v>
+        <v>16.56983671768555</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>64.63098696126035</v>
+        <v>64.63098696126198</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>78.7770163611475</v>
+        <v>78.77701636114413</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.24664959087317</v>
+        <v>14.24664959086984</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.42236191983776</v>
+        <v>32.42236191983804</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.94651031990487</v>
+        <v>38.94651031990463</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.953974231819357</v>
+        <v>9.953974231822583</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.55901960614853</v>
+        <v>40.55901960614833</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>46.52547079419031</v>
+        <v>46.52547079418999</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.56015658068279</v>
+        <v>13.56015658068411</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.29741006302404</v>
+        <v>51.29741006302176</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>59.82688984528127</v>
+        <v>59.82688984527819</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>48.0575190968848</v>
+        <v>48.05751909688195</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>61.99747322739035</v>
+        <v>61.99747322739127</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>67.42786332169257</v>
+        <v>67.42786332169571</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.27535365902602</v>
+        <v>20.27535365902393</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>55.16086604287966</v>
+        <v>55.16086604287884</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>61.56817444229394</v>
+        <v>61.56817444229291</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.953882220550481</v>
+        <v>8.953882220549366</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.08591856867645</v>
+        <v>29.08591856867829</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.4756985077297</v>
+        <v>37.475698507731</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.860137093069978</v>
+        <v>1.860137093071691</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.1288016874113</v>
+        <v>27.12880168740974</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.41995677454241</v>
+        <v>39.41995677454265</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.255758906592183</v>
+        <v>4.255758906591984</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.88606865156653</v>
+        <v>40.88606865156589</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.53771956113602</v>
+        <v>55.53771956113471</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.81584025334713</v>
+        <v>34.81584025334455</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.36621545344219</v>
+        <v>43.36621545344304</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.68484211742501</v>
+        <v>54.68484211742405</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>11.39186225595795</v>
+        <v>11.39186225595822</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>51.70085578249698</v>
+        <v>51.70085578249655</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>61.78440155181219</v>
+        <v>61.78440155181116</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.322757444231646</v>
+        <v>9.322757444233138</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.02910275188563</v>
+        <v>34.02910275188722</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.66325511281755</v>
+        <v>44.66325511281736</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.08637408407486724</v>
+        <v>0.0863740840736309</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.66156914055947</v>
+        <v>35.66156914055806</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>47.6747402182036</v>
+        <v>47.67474021820354</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.614280083291396</v>
+        <v>6.614280083290884</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.30949522425207</v>
+        <v>53.30949522425072</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.80276258694099</v>
+        <v>67.80276258693949</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.12593365584008</v>
+        <v>57.1259336558388</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.77468394918476</v>
+        <v>69.77468394918519</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>85.418630835098</v>
+        <v>85.41863083509786</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>13.98408349702746</v>
+        <v>13.98408349702811</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>67.88153568060207</v>
+        <v>67.88153568060177</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>81.31432634651135</v>
+        <v>81.31432634651082</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>11.13228184743243</v>
+        <v>11.1322818474308</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.59237742575748</v>
+        <v>27.5923774257549</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.72553298774486</v>
+        <v>33.72553298774669</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.147264828802312</v>
+        <v>5.14726482880774</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.8035389317885</v>
+        <v>39.80353893178719</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.72861807245493</v>
+        <v>45.728618072456</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.58586794723418</v>
+        <v>10.58586794723809</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.8885115552843</v>
+        <v>52.88851155528805</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>61.05015465199993</v>
+        <v>61.05015465200383</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.16458477306396</v>
+        <v>47.16458477305722</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>59.08123421410667</v>
+        <v>59.08123421410688</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>66.51612709581541</v>
+        <v>66.51612709581501</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>17.30359140695358</v>
+        <v>17.30359140695315</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.30557677233949</v>
+        <v>48.30557677234165</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>60.11589582176753</v>
+        <v>60.11589582176978</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.92046475751786</v>
+        <v>10.92046475751543</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.8572088671124</v>
+        <v>33.85720886711199</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>40.06401676585759</v>
+        <v>40.06401676585862</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-1.533999698939725</v>
+        <v>-1.533999698941111</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.99911274602601</v>
+        <v>31.99911274601899</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.91640432600376</v>
+        <v>41.91640432599833</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.463909595539262</v>
+        <v>1.463909595537443</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.08775698434189</v>
+        <v>47.08775698433729</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>59.08218129923071</v>
+        <v>59.08218129922737</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.62637445323342</v>
+        <v>37.62637445323214</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.96801587849878</v>
+        <v>48.96801587849964</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>60.37804761573955</v>
+        <v>60.37804761574153</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.710001222099</v>
+        <v>11.71000122209938</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>59.37648155594069</v>
+        <v>59.37648155594398</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>67.79368829425154</v>
+        <v>67.79368829424945</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.22730532549664</v>
+        <v>12.22730532549611</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.3662149323473</v>
+        <v>39.36621493234517</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.1744330873429</v>
+        <v>46.17443308734027</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2.008679668572706</v>
+        <v>-2.008679668575391</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.64317583600181</v>
+        <v>41.6431758360007</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.07842684809606</v>
+        <v>49.07842684809339</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.938784442614695</v>
+        <v>4.938784442615036</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.86059093658793</v>
+        <v>60.86059093658452</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>70.71641116589008</v>
+        <v>70.71641116589072</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>67.11239218872947</v>
+        <v>67.11239218872913</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.84039117997777</v>
+        <v>77.84039117997669</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>86.47903200023555</v>
+        <v>86.47903200023521</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.09919096789768</v>
+        <v>14.09919096789449</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>75.12087330871654</v>
+        <v>75.12087330871591</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>84.34193393833</v>
+        <v>84.34193393833165</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.40057892662065</v>
+        <v>19.40057892662283</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.89625979509883</v>
+        <v>29.89625979510011</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.00365309576293</v>
+        <v>35.00365309576607</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.85517629071491</v>
+        <v>15.85517629072186</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>41.96548815681012</v>
+        <v>41.96548815680815</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.72792268908809</v>
+        <v>47.72792268908935</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.36216574832039</v>
+        <v>17.36216574831934</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.35305469991072</v>
+        <v>51.3530546999073</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.14238673429576</v>
+        <v>59.14238673429265</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>47.10569217529886</v>
+        <v>47.10569217529538</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>55.23343077483212</v>
+        <v>55.23343077483545</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>64.06825912344716</v>
+        <v>64.06825912344873</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.68947944244724</v>
+        <v>29.68947944244751</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>50.1284987946593</v>
+        <v>50.12849879465777</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>60.97323058967216</v>
+        <v>60.97323058967416</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.69586583074022</v>
+        <v>20.69586583073758</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.54939881521172</v>
+        <v>38.54939881521106</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>44.97044107436906</v>
+        <v>44.97044107437232</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>13.85895419208169</v>
+        <v>13.8589541920827</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>40.36228518926639</v>
+        <v>40.36228518926339</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>51.23504401922775</v>
+        <v>51.23504401922528</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>13.12791002545614</v>
+        <v>13.12791002545476</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.5714726253938</v>
+        <v>51.57147262539224</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>64.15045784477495</v>
+        <v>64.1504578447733</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.07442345353636</v>
+        <v>42.0744234535352</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>50.93314987464542</v>
+        <v>50.93314987464669</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>64.41826566729175</v>
+        <v>64.41826566729367</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.93922037634501</v>
+        <v>23.93922037634143</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>62.51322672938784</v>
+        <v>62.51322672938602</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>71.28235121949433</v>
+        <v>71.28235121949521</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.09040448814324</v>
+        <v>23.09040448814039</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.89597481124429</v>
+        <v>43.89597481124554</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>51.26141960622812</v>
+        <v>51.26141960623021</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>11.71733460083389</v>
+        <v>11.71733460083666</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.92771974769956</v>
+        <v>46.92771974769867</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.82551713781037</v>
+        <v>55.82551713780718</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.18545841479295</v>
+        <v>16.18545841479541</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.61755304317492</v>
+        <v>63.61755304317408</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>74.51727676719391</v>
+        <v>74.51727676719416</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>71.77980786178716</v>
+        <v>71.77980786178654</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>78.82641075939273</v>
+        <v>78.8264107593926</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>89.8607656848507</v>
+        <v>89.86076568484944</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.05847621751801</v>
+        <v>26.05847621751287</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>75.63409599172149</v>
+        <v>75.63409599172013</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>85.97998384645366</v>
+        <v>85.97998384645696</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>9.544781890602513</v>
+        <v>9.544781890600936</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.25836430190024</v>
+        <v>28.25836430189491</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.00947176300354</v>
+        <v>34.00947176300212</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>2.978351004772334</v>
+        <v>2.97835100477001</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.34639340261936</v>
+        <v>36.34639340262105</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.60925997972468</v>
+        <v>41.60925997972316</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>7.987834871320166</v>
+        <v>7.987834871313551</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.32054739535602</v>
+        <v>49.32054739535401</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.34939595266884</v>
+        <v>57.34939595266765</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.20738019379935</v>
+        <v>46.20738019379589</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>58.12478374735364</v>
+        <v>58.12478374735006</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.60915098299826</v>
+        <v>62.6091509829967</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>11.61019595485225</v>
+        <v>11.61019595485043</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.03013105984576</v>
+        <v>48.03013105984476</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.86554302337844</v>
+        <v>54.86554302337368</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>6.536033285847145</v>
+        <v>6.536033285848587</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.70049106260307</v>
+        <v>28.70049106260196</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.68371920819683</v>
+        <v>35.68371920819989</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-4.175500766643134</v>
+        <v>-4.17550076664754</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.61688632328455</v>
+        <v>24.61688632328283</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.74018437386229</v>
+        <v>35.74018437385975</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.7897119165974491</v>
+        <v>-0.7897119166019682</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>40.56018628551163</v>
+        <v>40.56018628551315</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>54.26329887624826</v>
+        <v>54.26329887624286</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.60061048372059</v>
+        <v>34.60061048372146</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.39259525619027</v>
+        <v>42.39259525619232</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.35709828517965</v>
+        <v>52.35709828518315</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>5.47332889066279</v>
+        <v>5.473328890661767</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.9194304787544</v>
+        <v>50.91943047875336</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>59.59686641790366</v>
+        <v>59.59686641790303</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.238290675260634</v>
+        <v>6.238290675257167</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.80469040253296</v>
+        <v>32.80469040253055</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.27588040237467</v>
+        <v>43.27588040237401</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-6.317799551373065</v>
+        <v>-6.317799551376803</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.72940408686557</v>
+        <v>32.72940408686584</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>44.81143591364029</v>
+        <v>44.81143591364172</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1.444128081221939</v>
+        <v>1.444128081218784</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>52.9830111804327</v>
+        <v>52.98301118043478</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>67.64268175887872</v>
+        <v>67.64268175887926</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>58.59627079147061</v>
+        <v>58.59627079147067</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.18327234875223</v>
+        <v>69.18327234875106</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>84.20176088763618</v>
+        <v>84.20176088763479</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>6.960682889686018</v>
+        <v>6.960682889683147</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>65.95925693191269</v>
+        <v>65.95925693190949</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>79.97495871569491</v>
+        <v>79.9749587156923</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.00960990840725</v>
+        <v>12.00960990840919</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.03800729318858</v>
+        <v>14.03800729319206</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.54702210101955</v>
+        <v>16.54702210101992</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.912073884316262</v>
+        <v>2.912073884318451</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.13827314582638</v>
+        <v>16.13827314582842</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.2529297647723</v>
+        <v>19.25292976477053</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>0.9435869448848972</v>
+        <v>0.9435869448888052</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.35884378677107</v>
+        <v>23.35884378677136</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.96465358153667</v>
+        <v>28.96465358153785</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.81340312123724</v>
+        <v>23.81340312123927</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.82314671477207</v>
+        <v>27.82314671477179</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.22220488342501</v>
+        <v>33.22220488342673</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.58715032851346</v>
+        <v>15.58715032851349</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.04064881285933</v>
+        <v>23.04064881285646</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.15818867460365</v>
+        <v>29.15818867460382</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.360199226785999</v>
+        <v>9.360199226785637</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.2513290981904</v>
+        <v>23.25132909819048</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.43462575205313</v>
+        <v>34.43462575205409</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>3.473281457902933</v>
+        <v>3.473281457903488</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.51298318281114</v>
+        <v>22.51298318281312</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.90718501976492</v>
+        <v>38.90718501976846</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>2.943053530079629</v>
+        <v>2.943053530082919</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.51773222097433</v>
+        <v>34.5177322209719</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.27444595729359</v>
+        <v>52.27444595729262</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.12169515412869</v>
+        <v>25.12169515412801</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.0226086063745</v>
+        <v>35.02260860637628</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.39872874382365</v>
+        <v>52.39872874382299</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>10.92579065502108</v>
+        <v>10.92579065502166</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.87673060526362</v>
+        <v>42.87673060526219</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>58.76131983426793</v>
+        <v>58.76131983426645</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.07655022541811</v>
+        <v>14.07655022541846</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.49315393359927</v>
+        <v>33.49315393360038</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.01296419671608</v>
+        <v>47.0129641967163</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1.048714582228859</v>
+        <v>1.048714582232924</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.72475860529276</v>
+        <v>31.72475860529517</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.06773139555037</v>
+        <v>48.0677313955517</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>6.533523599423964</v>
+        <v>6.533523599425612</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.60081647282471</v>
+        <v>49.60081647282247</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.35831731258224</v>
+        <v>67.35831731258051</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.305600581268</v>
+        <v>52.30560058126475</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.17797266614869</v>
+        <v>62.17797266614911</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>79.40443214655004</v>
+        <v>79.40443214654739</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>9.639841485594678</v>
+        <v>9.639841485594877</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.59016441308072</v>
+        <v>55.59016441308095</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>75.94110285605286</v>
+        <v>75.94110285605488</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>10.95412552457124</v>
+        <v>10.95412552457145</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.3070504007734</v>
+        <v>20.30705040077086</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.30588222309094</v>
+        <v>26.30588222309045</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.944315339830316</v>
+        <v>3.944315339831183</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.37784880249739</v>
+        <v>28.37784880249755</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.4181644050192</v>
+        <v>35.41816440502149</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>5.327340005544349</v>
+        <v>5.327340005542494</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.70882337190347</v>
+        <v>37.70882337190314</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>46.57829791429337</v>
+        <v>46.57829791429273</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.43553574411209</v>
+        <v>33.43553574411158</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.80499181947573</v>
+        <v>41.80499181947783</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>52.18876425955644</v>
+        <v>52.18876425955678</v>
       </c>
     </row>
     <row r="869">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.42698391188806</v>
+        <v>38.42698391188721</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>50.78451113462861</v>
+        <v>50.78451113462821</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.03884630989411</v>
+        <v>10.0388463098941</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.98506046712941</v>
+        <v>26.98506046712945</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.49322551486253</v>
+        <v>35.49322551486222</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1.087853256910398</v>
+        <v>1.08785325690892</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.14665181530648</v>
+        <v>26.14665181530556</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>39.61760052201242</v>
+        <v>39.61760052201035</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.2054555191959064</v>
+        <v>0.2054555191959206</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.2245536206833</v>
+        <v>37.22455362068198</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>52.04969855414483</v>
+        <v>52.04969855414464</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.89755984021283</v>
+        <v>26.897559840211</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.39931541649997</v>
+        <v>36.39931541650114</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.58545946201083</v>
+        <v>52.58545946201679</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.92605744472276</v>
+        <v>10.9260574447204</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.34980423860642</v>
+        <v>48.34980423860281</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>60.32577896656234</v>
+        <v>60.32577896656159</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.63990134626513</v>
+        <v>12.63990134626734</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.656354008203</v>
+        <v>32.65635400820458</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.08899763866044</v>
+        <v>42.08899763866303</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.378104858092593</v>
+        <v>-0.378104858090575</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.57278564689798</v>
+        <v>33.57278564689801</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.99769246033199</v>
+        <v>44.99769246033404</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.023564876629512</v>
+        <v>4.023564876629086</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.17125102467717</v>
+        <v>50.1712510246771</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.25561127246574</v>
+        <v>63.2556112724664</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.86055128802155</v>
+        <v>57.86055128802192</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>65.49341693291106</v>
+        <v>65.49341693290941</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>79.05072165813343</v>
+        <v>79.05072165813593</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.02701332891676</v>
+        <v>14.027013328916</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.39775101902872</v>
+        <v>62.39775101903179</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>75.92579002148523</v>
+        <v>75.92579002148776</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.79742187708178</v>
+        <v>18.79742187708051</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.57847772107143</v>
+        <v>29.57847772107256</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.82633095695506</v>
+        <v>31.82633095695572</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.22122757852084</v>
+        <v>16.22122757852435</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.27567198836577</v>
+        <v>44.27567198836633</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>45.44977967829969</v>
+        <v>45.44977967829829</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.27442615626988</v>
+        <v>19.27442615626828</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>55.09974867782155</v>
+        <v>55.0997486778238</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.14689661952178</v>
+        <v>59.14689661952049</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>50.16216026094992</v>
+        <v>50.1621602609502</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>60.89553031608808</v>
+        <v>60.89553031608425</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>63.31691127261968</v>
+        <v>63.31691127261976</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.92983886274798</v>
+        <v>29.92983886274703</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>52.13772208995994</v>
+        <v>52.13772208995706</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.51030448437514</v>
+        <v>57.51030448437231</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.33294638451385</v>
+        <v>17.33294638451049</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.98378810320411</v>
+        <v>35.98378810320173</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.56029908649181</v>
+        <v>38.56029908649047</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.037197680394106</v>
+        <v>8.037197680390269</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.08966890427522</v>
+        <v>37.08966890427108</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.21003468139502</v>
+        <v>42.210034681392</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.619112127247993</v>
+        <v>9.619112127247012</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>50.49210343485961</v>
+        <v>50.4921034348583</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>58.36347397019153</v>
+        <v>58.36347397019247</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.83792064420556</v>
+        <v>40.83792064420486</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.52156219482433</v>
+        <v>51.52156219482568</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.23915813391019</v>
+        <v>56.2391581339112</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>19.81148260528075</v>
+        <v>19.8114826052796</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>59.90538439846534</v>
+        <v>59.90538439846571</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>61.90367311126207</v>
+        <v>61.90367311126235</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>15.43203871369288</v>
+        <v>15.43203871369064</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.86253827366453</v>
+        <v>38.86253827366511</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>43.20869643185322</v>
+        <v>43.20869643185328</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>3.490104101579979</v>
+        <v>3.490104101581286</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.1219640269443</v>
+        <v>44.12196402694251</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>47.61249274477744</v>
+        <v>47.61249274477646</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.93024146324183</v>
+        <v>10.93024146324215</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>63.23584705323865</v>
+        <v>63.23584705323709</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>69.75233174527986</v>
+        <v>69.75233174528064</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>67.744408136705</v>
+        <v>67.74440813670655</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>77.20989824083682</v>
+        <v>77.20989824083861</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>81.09337967127243</v>
+        <v>81.09337967127352</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.89228637461179</v>
+        <v>17.89228637461429</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>72.50995581244618</v>
+        <v>72.50995581244418</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>76.78795689235038</v>
+        <v>76.78795689235002</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.919546387000457</v>
+        <v>7.919546387000329</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.04524421009872</v>
+        <v>27.04524421009812</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>31.72927506805961</v>
+        <v>31.72927506805726</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2.620519174527329</v>
+        <v>2.620519174527024</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>37.54205011398475</v>
+        <v>37.5420501139866</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.43324410621053</v>
+        <v>41.43324410621524</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.292436833720052</v>
+        <v>8.292436833723462</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>50.99589067762927</v>
+        <v>50.99589067762998</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>57.79868177992064</v>
+        <v>57.79868177992592</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>48.4435895329139</v>
+        <v>48.44358953291492</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>60.38725202037972</v>
+        <v>60.387252020382</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>63.5127214642531</v>
+        <v>63.51272146425669</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>11.25288235482045</v>
+        <v>11.25288235482204</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>48.74269612723875</v>
+        <v>48.74269612723894</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>54.54322167230563</v>
+        <v>54.54322167230788</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>6.808008374970489</v>
+        <v>6.808008374970347</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.40646490872399</v>
+        <v>28.4064649087243</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.65026291774187</v>
+        <v>34.65026291774236</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-3.457226443690667</v>
+        <v>-3.457226443692869</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.53019368688369</v>
+        <v>25.53019368688194</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.54446240240226</v>
+        <v>35.54446240240222</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-0.1882736984091711</v>
+        <v>-0.1882736984109616</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.41735583113928</v>
+        <v>41.4173558311388</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>54.10253633861196</v>
+        <v>54.10253633861299</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.23813234574024</v>
+        <v>36.23813234574554</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.79486850686939</v>
+        <v>42.79486850687029</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.13828490403865</v>
+        <v>52.13828490404052</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>4.521701868100456</v>
+        <v>4.521701868101465</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.93691563416532</v>
+        <v>49.93691563416485</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>57.35981143001217</v>
+        <v>57.35981143001104</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>6.035213196799367</v>
+        <v>6.035213196799694</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.40442754837039</v>
+        <v>30.4044275483709</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>41.62366463414874</v>
+        <v>41.62366463415026</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-6.595428229238772</v>
+        <v>-6.595428229237067</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.60849791700286</v>
+        <v>30.60849791700364</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>43.28050851011522</v>
+        <v>43.2805085101156</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.5162503764338222</v>
+        <v>0.5162503764342627</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.55415205063867</v>
+        <v>50.55415205063796</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>65.71143426864978</v>
+        <v>65.71143426865152</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>58.19118918824314</v>
+        <v>58.19118918824223</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.64854026286936</v>
+        <v>64.64854026286987</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>80.19146205035025</v>
+        <v>80.19146205035187</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>3.256149131177386</v>
+        <v>3.256149131177073</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>59.19163987612045</v>
+        <v>59.19163987611926</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>74.53244913626719</v>
+        <v>74.53244913626934</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.478</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.828</v>
+        <v>17.837</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.726</v>
+        <v>-0.798</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.026</v>
+        <v>23.503</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.849</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.112</v>
+        <v>7.352</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.14374802824591</v>
+        <v>15.24335780251825</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.82814469918038</v>
+        <v>19.2385943451601</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.73096864790455</v>
+        <v>21.80090854635</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.149948472670593</v>
+        <v>-0.2681058553073292</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.01716250080595</v>
+        <v>21.96149368816092</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.71360428302269</v>
+        <v>22.83721415533379</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.187953198238601</v>
+        <v>0.8413763139994046</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37.59654117269126</v>
+        <v>31.02099653100836</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>46.2841843598076</v>
+        <v>31.0750160044746</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.92898073878072</v>
+        <v>27.24258425794019</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.42925723554383</v>
+        <v>32.83863581175065</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.36322070237311</v>
+        <v>32.82872032979206</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.1907211632746</v>
+        <v>18.83033176784397</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.02051893452171</v>
+        <v>29.61877510611071</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>48.85675590590536</v>
+        <v>34.65260971948141</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.99320657902551</v>
+        <v>21.1886599954858</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.22842108187417</v>
+        <v>34.13779885139075</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.53650563036758</v>
+        <v>42.20884474398734</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.411250301116928</v>
+        <v>12.29808126050256</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.69389032220772</v>
+        <v>33.39405769116145</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.82017809986609</v>
+        <v>45.66015002437389</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.025378024591893</v>
+        <v>12.98246910332388</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41.90460900079169</v>
+        <v>47.71710149738784</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>56.57590669525167</v>
+        <v>60.96544515654868</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.23414847715879</v>
+        <v>47.27233688092701</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.84852476966945</v>
+        <v>54.62655518431733</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57.39428829067882</v>
+        <v>60.37324201609985</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.91290355938627</v>
+        <v>24.54634648950393</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>54.57991599810062</v>
+        <v>63.95432302586609</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>66.12712342542187</v>
+        <v>68.51109870058394</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.03341508934067</v>
+        <v>25.87840682892102</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.69072162882374</v>
+        <v>47.05915720648283</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.07743381454994</v>
+        <v>51.65825765032041</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.201317628623789</v>
+        <v>15.07682361331354</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.07212937387489</v>
+        <v>43.72235538006015</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.18495157001907</v>
+        <v>52.57795888940205</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>11.58029816275911</v>
+        <v>14.40563612227881</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.10436436843553</v>
+        <v>64.04349761948816</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73.06855653595942</v>
+        <v>73.19754196136157</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>68.25850237349712</v>
+        <v>73.59668523152591</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77.50953854830715</v>
+        <v>81.66099622114776</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>89.77150870032666</v>
+        <v>88.76431135178791</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.72566556127101</v>
+        <v>35.03810531123008</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>74.65818960593808</v>
+        <v>82.09672143202728</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.78762353161706</v>
+        <v>85.8909665969535</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.38990696472676</v>
+        <v>14.72669978002902</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.24291356380827</v>
+        <v>34.46589927572885</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.68596317552866</v>
+        <v>38.0634197503899</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.664116744606401</v>
+        <v>6.875742194844403</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.25932977775035</v>
+        <v>43.44574073750218</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>45.80055335480468</v>
+        <v>46.91987829982924</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.2349355058953</v>
+        <v>11.77604782379872</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55.69546830345527</v>
+        <v>60.77316582512468</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.16270106346014</v>
+        <v>60.3123956921669</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.75853047774761</v>
+        <v>56.97973340382867</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65.88339885557224</v>
+        <v>66.77211619047365</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>68.48218896848832</v>
+        <v>66.46502532710579</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.94368721478177</v>
+        <v>17.67770363695266</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>54.39631068636179</v>
+        <v>52.23229291259508</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>59.85799192813543</v>
+        <v>60.39786829087329</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.08767068221686</v>
+        <v>17.81024642845145</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.50835487895679</v>
+        <v>38.41039152438495</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.42773414816205</v>
+        <v>46.47982097550511</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.189845257701235</v>
+        <v>3.243205414299943</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.12112358513264</v>
+        <v>36.79750122052621</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.2792808699769</v>
+        <v>47.11314230175616</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.274051359747707</v>
+        <v>12.09869693257631</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53.49698436533544</v>
+        <v>55.34422247377599</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>63.68068688728093</v>
+        <v>66.09978477957834</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.57336970582163</v>
+        <v>48.37892863539301</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>58.37622731641327</v>
+        <v>59.97823749506735</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>64.78959304917237</v>
+        <v>61.6813625163018</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.95606946947422</v>
+        <v>15.07075118823542</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>67.0878728739626</v>
+        <v>60.68392730727339</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>71.68992274061571</v>
+        <v>67.39619908425864</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.27149343141516</v>
+        <v>19.6580065517728</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.50327501040309</v>
+        <v>45.4049465705955</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.41502890018942</v>
+        <v>50.50242198720137</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.572727339784569</v>
+        <v>3.485732051602646</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.65006563392147</v>
+        <v>46.41973586880043</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.76510483992538</v>
+        <v>52.21866438820001</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.77430154025955</v>
+        <v>13.44239950286617</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.81256611842726</v>
+        <v>69.29846388062332</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>78.26273269616678</v>
+        <v>73.8105872280739</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>71.40074551703748</v>
+        <v>71.97192555123492</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>86.65330139242919</v>
+        <v>85.89846767013593</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>94.32245998642459</v>
+        <v>86.46591165097318</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.87194584981646</v>
+        <v>19.8601228064987</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>85.46938202178775</v>
+        <v>77.96543979174074</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>91.24144112666546</v>
+        <v>80.63122339644954</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.38990696472676</v>
+        <v>22.99828659538333</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.24291356380827</v>
+        <v>35.38367482947783</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.68596317552866</v>
+        <v>38.49472875072332</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.664116744606401</v>
+        <v>10.65475195712028</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.25932977775035</v>
+        <v>41.19467974753951</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.80055335480468</v>
+        <v>43.0618554767109</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.2349355058953</v>
+        <v>15.76436289919982</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>55.69546830345527</v>
+        <v>58.55168624365947</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.16270106346014</v>
+        <v>56.25249164901955</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>48.75853047774761</v>
+        <v>50.52867403523496</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>65.88339885557224</v>
+        <v>61.7876211851383</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>68.48218896848832</v>
+        <v>60.64602736724972</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.94368721478177</v>
+        <v>27.15515522797102</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>54.39631068636179</v>
+        <v>53.84734977163447</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>59.85799192813543</v>
+        <v>59.55845980526027</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.08767068221686</v>
+        <v>24.06058411196285</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.50835487895679</v>
+        <v>43.30158910464979</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.42773414816205</v>
+        <v>49.34934837704713</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.189845257701235</v>
+        <v>7.84632322835078</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.12112358513264</v>
+        <v>41.3667438545858</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.2792808699769</v>
+        <v>48.43575787922441</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>8.274051359747707</v>
+        <v>15.87528221451841</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.49698436533544</v>
+        <v>59.30315813132272</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.68068688728093</v>
+        <v>66.80528147031231</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.57336970582163</v>
+        <v>51.86013239484679</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>58.37622731641327</v>
+        <v>63.61333502760472</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.78959304917237</v>
+        <v>62.93431260904863</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.95606946947422</v>
+        <v>23.69535203987643</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>67.0878728739626</v>
+        <v>65.053746207404</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>71.68992274061571</v>
+        <v>67.5780021256153</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.27149343141516</v>
+        <v>31.27089937458525</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46.50327501040309</v>
+        <v>53.42917964832277</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>52.41502890018942</v>
+        <v>57.24050945618236</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.572727339784569</v>
+        <v>9.587923402644222</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48.65006563392147</v>
+        <v>50.80837497143373</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53.76510483992538</v>
+        <v>54.38455166527682</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>12.77430154025955</v>
+        <v>17.8357133911132</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>69.81256611842726</v>
+        <v>72.01163451098435</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>78.26273269616678</v>
+        <v>74.4026702692824</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>71.40074551703748</v>
+        <v>79.33625306062638</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.65330139242919</v>
+        <v>90.93052472480912</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>94.32245998642459</v>
+        <v>90.25513577987377</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.87194584981646</v>
+        <v>32.79606296287713</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>85.46938202178775</v>
+        <v>85.27454349802103</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>91.24144112666546</v>
+        <v>85.50140669117322</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.64143598497634</v>
+        <v>18.59803642146244</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.09737364913924</v>
+        <v>21.73518472056665</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.09805747571222</v>
+        <v>22.10312042352799</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.005732060625851</v>
+        <v>6.46615713705166</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.36582423500032</v>
+        <v>26.88433891890356</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.41946498303119</v>
+        <v>24.90991559216346</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.1247473985372078</v>
+        <v>6.21997112447422</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.17180684149</v>
+        <v>34.63879025286924</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.22408024259012</v>
+        <v>31.85353703441309</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.61261401563184</v>
+        <v>31.15606562587111</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.11775683803123</v>
+        <v>34.93619519522693</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.8446676282808</v>
+        <v>36.84277044261782</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.01813618252097</v>
+        <v>50.35646625448652</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.07055004075441</v>
+        <v>53.93757333093785</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.82120681442629</v>
+        <v>56.50672481096119</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.70504331798057</v>
+        <v>19.62190254224703</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.40767707404231</v>
+        <v>33.5103412511034</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.44306425452583</v>
+        <v>38.87976090856568</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.680361790649242</v>
+        <v>12.29855202602255</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.52308915316934</v>
+        <v>33.41921489197655</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.72807689272749</v>
+        <v>42.59470841313809</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9461734929273948</v>
+        <v>13.18089312543875</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.49765445924771</v>
+        <v>47.60969847305551</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.20420368698172</v>
+        <v>58.01518152484329</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.01483873696021</v>
+        <v>39.89647317480021</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.32703098082767</v>
+        <v>46.67963020463485</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.4882759054134</v>
+        <v>56.55710921997976</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>13.10050515916317</v>
+        <v>23.36844012446774</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.3434019873031</v>
+        <v>59.24798607134552</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.83912966181018</v>
+        <v>63.95008863767931</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.31709572660967</v>
+        <v>25.52917942471586</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.61639629537189</v>
+        <v>43.12256899593496</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.57809218344139</v>
+        <v>48.59295065824612</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.032267378865731</v>
+        <v>15.15548947482974</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.92263961560115</v>
+        <v>38.40180460724008</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.91558389301905</v>
+        <v>48.15138333123019</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>9.848855526082692</v>
+        <v>15.9523028656769</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.35367947240003</v>
+        <v>60.05673921588921</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.19519336891008</v>
+        <v>70.84009315410835</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.85749426195711</v>
+        <v>65.43734524723936</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.05593762739588</v>
+        <v>72.18444703449862</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>79.7753072691202</v>
+        <v>84.54007319721271</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.41680353424724</v>
+        <v>37.66393264053286</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.49240671250354</v>
+        <v>74.25800115451186</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.48473183394717</v>
+        <v>79.96777408778257</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.0885164067997</v>
+        <v>26.50638566386744</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.85150637639075</v>
+        <v>38.36609779207402</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.09381534302782</v>
+        <v>38.50864848743942</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.929343202932733</v>
+        <v>15.20903099551582</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.85980601421981</v>
+        <v>48.20653991907146</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>39.41211652085126</v>
+        <v>46.73536887719511</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.333010998668071</v>
+        <v>19.07252323757866</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>44.29987281044136</v>
+        <v>61.61829618477805</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.89866040801417</v>
+        <v>58.83532235002485</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.31376784639183</v>
+        <v>55.11035489817905</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.52886300202294</v>
+        <v>60.23606011946474</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>55.91702895299206</v>
+        <v>60.56939431389169</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.83301260260902</v>
+        <v>26.81182111091016</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.30158363165015</v>
+        <v>30.71003439389445</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>49.28317461830649</v>
+        <v>34.30723989449206</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.0359628899724</v>
+        <v>28.89689794118002</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.04884535987686</v>
+        <v>47.69936527743403</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.74224983886831</v>
+        <v>48.72329996473168</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.188100097730574</v>
+        <v>14.15449858969141</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.44388945549187</v>
+        <v>46.2958402245916</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>46.38214502994156</v>
+        <v>49.08944498311271</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.382063224982366</v>
+        <v>17.39121655350888</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>49.70050551564582</v>
+        <v>62.92194459890985</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>62.45400631940528</v>
+        <v>66.59920272049649</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.95084754499681</v>
+        <v>60.22943307447892</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>48.76483729812112</v>
+        <v>66.97987809740746</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.73776304272965</v>
+        <v>71.75940784771426</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.98111806284742</v>
+        <v>37.96214553884962</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>60.18945308011861</v>
+        <v>76.17801948764151</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>69.51184329655553</v>
+        <v>72.84532469736828</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.57847239874349</v>
+        <v>32.54504528669893</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.03182587493724</v>
+        <v>53.09891845613022</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.75585855915616</v>
+        <v>57.0730270365837</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.944209668018933</v>
+        <v>14.19668444037808</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.24336740358481</v>
+        <v>46.27367477645952</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.39496829412868</v>
+        <v>53.26267470910452</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>9.804381559671418</v>
+        <v>16.9707367166483</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>61.46478312333169</v>
+        <v>68.51985439577633</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>72.70944568743316</v>
+        <v>77.44174083781336</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>68.79531799229628</v>
+        <v>81.00102672340549</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>76.93675096122155</v>
+        <v>86.85745313623413</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>88.71724246503688</v>
+        <v>96.07204659312994</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.61079220666165</v>
+        <v>43.76068606834015</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>74.98894792422752</v>
+        <v>85.90169074467929</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>86.00789864976009</v>
+        <v>85.81819088490992</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.163087608899863</v>
+        <v>17.13543445304767</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.91067828629482</v>
+        <v>32.30262763252383</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.30288943119213</v>
+        <v>34.81802744719667</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.152866393828353</v>
+        <v>11.99285400920365</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>39.885723711998</v>
+        <v>46.84452381282027</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.9979373166518</v>
+        <v>45.78133622253861</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.04644428028754</v>
+        <v>16.40135925848453</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.85863818144101</v>
+        <v>63.53017493194233</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.71781663303125</v>
+        <v>59.85779625014817</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>44.82006553562189</v>
+        <v>57.44723352101827</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>55.69809777979198</v>
+        <v>66.83273083302667</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>60.58101843116964</v>
+        <v>67.92816179300176</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.973876897146402</v>
+        <v>12.30655541448124</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>39.10872665687996</v>
+        <v>15.6305282490166</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.97141312889872</v>
+        <v>16.70129504432536</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.50863311567127</v>
+        <v>23.7587853834121</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.18381934220135</v>
+        <v>48.25450356630742</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.20917578213806</v>
+        <v>50.1882786680949</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.963901567293403</v>
+        <v>5.672678373093508</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.83588198037379</v>
+        <v>47.35663621894884</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>49.22881971347996</v>
+        <v>48.80361596229184</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.38109050484328</v>
+        <v>15.00432305182368</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>63.93333355160557</v>
+        <v>65.66848870631117</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>71.26574043113186</v>
+        <v>67.48810600875382</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.43466329850619</v>
+        <v>53.36636547321056</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>64.38743325162392</v>
+        <v>67.03058942452769</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.96548234101436</v>
+        <v>69.79698788114342</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.65238892441783</v>
+        <v>28.5544623511434</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>73.50240891880959</v>
+        <v>73.05216788845166</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>76.19591951185458</v>
+        <v>74.4129062207613</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.25880970411078</v>
+        <v>23.95169724685999</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.91461184487459</v>
+        <v>47.36609772176504</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.57670287386888</v>
+        <v>51.59815358971562</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.9731146671228199</v>
+        <v>5.296219064055983</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.93650198328763</v>
+        <v>47.16359100756249</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.81723495221512</v>
+        <v>50.54496375142328</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.79548640230826</v>
+        <v>14.65950372275653</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>74.3860597357169</v>
+        <v>67.58469314252525</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>79.57346924628757</v>
+        <v>71.52352034487458</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.64234800067118</v>
+        <v>71.19778984964934</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>87.44838868488728</v>
+        <v>83.1714537925362</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>92.21119867251349</v>
+        <v>86.36326909376804</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.96335948163514</v>
+        <v>28.72038925602883</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>87.75706656184785</v>
+        <v>80.68345070185447</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>90.99987636933329</v>
+        <v>80.05435785748179</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.516048735328317</v>
+        <v>8.408821520599112</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>7.698078235505443</v>
+        <v>12.39355063903811</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.12459877333527</v>
+        <v>17.05747147880929</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-5.848513996691347</v>
+        <v>-1.100999048545873</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.17277822397367</v>
+        <v>16.6986752317543</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.53009428945441</v>
+        <v>18.3623190695075</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-5.277910126495181</v>
+        <v>0.3454394071669817</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.52434557337956</v>
+        <v>27.52827412425061</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.50802198658026</v>
+        <v>27.09965105837237</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.86820081341511</v>
+        <v>20.92771617624267</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.42534233329079</v>
+        <v>31.01342682766532</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.0295823253272</v>
+        <v>28.49714787972156</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6.550716222874319</v>
+        <v>13.0618674659142</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.32064106436371</v>
+        <v>21.29995750155471</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.55916189392172</v>
+        <v>25.33131066520664</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.8482204356619</v>
+        <v>18.45414978213052</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.23685675189908</v>
+        <v>30.97013416883361</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.06239170929267</v>
+        <v>39.29496318972915</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.2144468146215512</v>
+        <v>5.519167041025629</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.23658790773628</v>
+        <v>27.39053272897983</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.8240653872901</v>
+        <v>37.64857726346079</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.576232774777294</v>
+        <v>14.00428017619202</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.96148826922646</v>
+        <v>44.09457117736879</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.85494618692289</v>
+        <v>55.1047048254111</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.73108101877772</v>
+        <v>36.5231707251773</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.1898049921876</v>
+        <v>46.12220583912591</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.01197895433996</v>
+        <v>48.10502267640118</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13.40971397384488</v>
+        <v>18.22786938857594</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>46.97651205778509</v>
+        <v>49.91887999314621</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>54.8063733926544</v>
+        <v>54.11561496509353</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.29215018883477</v>
+        <v>23.51788831463899</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.67259057777746</v>
+        <v>42.24906500866035</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>46.48112546973519</v>
+        <v>48.41831291872057</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3.266669927728833</v>
+        <v>10.72665280288614</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.83547172134673</v>
+        <v>41.33072446406074</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.63117086294811</v>
+        <v>49.06758293613474</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.10554393862629</v>
+        <v>19.06318339904636</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>62.31820679786119</v>
+        <v>61.14833565570567</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.84001083165079</v>
+        <v>68.22380943834116</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>65.24950098858551</v>
+        <v>66.97038758155306</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>78.0122806594128</v>
+        <v>78.11909978308674</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>84.33800770038152</v>
+        <v>80.53819745185734</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.10476709862829</v>
+        <v>31.82535288169378</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>75.25918600487346</v>
+        <v>76.3455596378767</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>83.7302752953037</v>
+        <v>81.39786493432376</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4.831086990663634</v>
+        <v>11.45223572423842</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.65762825777197</v>
+        <v>13.24360073323638</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.74704666996261</v>
+        <v>13.2647872982818</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2.663226116142058</v>
+        <v>-1.43971798520802</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.76442773485034</v>
+        <v>17.06151568606317</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.90876769556647</v>
+        <v>15.05046047619929</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.03943052679530901</v>
+        <v>-3.62401691642162</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.15928682332008</v>
+        <v>23.4676219502631</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.54375723137407</v>
+        <v>19.99213979178683</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.5813056282698</v>
+        <v>16.92451409727096</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.06078335447209</v>
+        <v>19.62242049407415</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>44.17365227475151</v>
+        <v>18.11099592575612</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.13262802515421</v>
+        <v>13.81753671176335</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.73433189721207</v>
+        <v>12.14956105450611</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.0465173255001</v>
+        <v>12.25171208702042</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.592343217056024</v>
+        <v>9.681618667441288</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.44502096800737</v>
+        <v>16.94171621842967</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>34.0814631463269</v>
+        <v>20.07602399357047</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-4.410605670733959</v>
+        <v>-4.225306512799651</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>23.17954451764166</v>
+        <v>11.60972261160438</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.92999961491802</v>
+        <v>16.86271781544791</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.279627691328828</v>
+        <v>-4.632641661395123</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.09059737620558</v>
+        <v>22.48608975732656</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.85667023629167</v>
+        <v>29.47656606576608</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.01630428454336</v>
+        <v>12.93183194540097</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.58181585901201</v>
+        <v>21.78195936689604</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.40301033119735</v>
+        <v>31.92834764361628</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.19718615389751</v>
+        <v>3.082119906308517</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.74703813643592</v>
+        <v>28.12495885458333</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>56.79380916772603</v>
+        <v>23.52538831764156</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.20868930028438</v>
+        <v>12.38959253260519</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.15826118658606</v>
+        <v>23.4714571028393</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.15251510724899</v>
+        <v>36.66351338673719</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-5.822464679395617</v>
+        <v>-3.898577063063218</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.82431635488872</v>
+        <v>14.40507788990832</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.01592885081805</v>
+        <v>32.97934320656339</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.840657316910926</v>
+        <v>-3.03504214009622</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>52.46002399015765</v>
+        <v>32.73135280465814</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>63.93506770434103</v>
+        <v>54.40663173109269</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.74706450999154</v>
+        <v>34.25070361057871</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>66.21268698106641</v>
+        <v>47.36830564634137</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>78.41199529828158</v>
+        <v>66.02563486532512</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.76245716345747</v>
+        <v>8.643039294615679</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.87528758120638</v>
+        <v>37.62226573286891</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>76.07095752775221</v>
+        <v>47.98625619294677</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.714625087000284</v>
+        <v>12.57233328624291</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.49778635416648</v>
+        <v>29.53778389050089</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.81895812042995</v>
+        <v>36.57145572472891</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.346124476330813</v>
+        <v>11.50254274330417</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.45023398579205</v>
+        <v>50.94918833609092</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>48.22760704023521</v>
+        <v>53.12395348336372</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.49975762690956</v>
+        <v>17.09650509796447</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>59.66742581828785</v>
+        <v>68.84282838611833</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.06112585239309</v>
+        <v>67.918676513093</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>52.12197679250733</v>
+        <v>67.08854418562397</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>70.09449471146681</v>
+        <v>77.85119921237508</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>72.93167391054185</v>
+        <v>74.95551910997528</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.95289189596457</v>
+        <v>30.60720103822945</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>53.01365578910531</v>
+        <v>54.49348017769979</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>62.64611487835831</v>
+        <v>64.89472037860247</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.203746379547999</v>
+        <v>19.55811400322622</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.68747173411464</v>
+        <v>38.38235788573978</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.06194894845505</v>
+        <v>45.13088038632818</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-6.818482171977495</v>
+        <v>3.355872541672095</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.13804367101198</v>
+        <v>36.96424757813018</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.44226130387332</v>
+        <v>43.55492535845448</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.6288925124445921</v>
+        <v>12.70398838522824</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>50.86180773467101</v>
+        <v>55.64547573241399</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>58.96903953348047</v>
+        <v>63.05876581826196</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.24998944768357</v>
+        <v>49.05335088915513</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.16358753763949</v>
+        <v>57.98364378401278</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>61.59116653689696</v>
+        <v>58.08934316485444</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>11.66765180054229</v>
+        <v>25.52014814298806</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>63.95058771808488</v>
+        <v>64.08650433971778</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>68.58683484511454</v>
+        <v>66.570503227335</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>9.003821913330063</v>
+        <v>23.04826372180792</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.64871621205648</v>
+        <v>43.22467565691265</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.68015991108313</v>
+        <v>49.10475820716893</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-4.038550663207795</v>
+        <v>7.410503082966841</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.34349317264076</v>
+        <v>44.40132487681908</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.8651477267023</v>
+        <v>49.7846975361611</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>6.349568094791087</v>
+        <v>16.25121280177653</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.73096515386102</v>
+        <v>65.03725758201008</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>73.54366379743261</v>
+        <v>69.95507845014457</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.87585698314318</v>
+        <v>72.18481788614346</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>84.62659106386332</v>
+        <v>81.36301092971927</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>86.04914578581537</v>
+        <v>81.74756716929529</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.22740098515152</v>
+        <v>33.00147787808575</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>83.46492917161714</v>
+        <v>79.43029542787097</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>86.76474135142611</v>
+        <v>82.13522675070527</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.982490770264837</v>
+        <v>8.495859687507803</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.434740544765182</v>
+        <v>14.74244752033078</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.2918904682324</v>
+        <v>19.78336030380586</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-4.345234012985737</v>
+        <v>-3.31759985839501</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.670595307923262</v>
+        <v>8.856364926145869</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.59244691990108</v>
+        <v>16.62548827708405</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-7.274749425505471</v>
+        <v>-1.675777983556081</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.91714999068916</v>
+        <v>20.18744207058912</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.42240097772522</v>
+        <v>24.81352656762789</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.27534556022574</v>
+        <v>20.06698312238687</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>15.45609880187616</v>
+        <v>25.13191215125677</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.5417688016479</v>
+        <v>25.95445270912431</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1.265790122712927</v>
+        <v>3.452732339812503</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.98504989577888</v>
+        <v>20.46436182763774</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>16.31993132336431</v>
+        <v>26.39482219378309</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.360225834955783</v>
+        <v>14.11776881089321</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.54732728299977</v>
+        <v>23.83950515346537</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.40536195910081</v>
+        <v>33.95705400852914</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1.016353878595043</v>
+        <v>3.428140282056834</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.770283058765576</v>
+        <v>18.74814415536748</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.43260573805795</v>
+        <v>32.89760434776903</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-3.248386144469437</v>
+        <v>9.951745370910604</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.56780583253365</v>
+        <v>32.36700118657102</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.10833893268882</v>
+        <v>47.16538173297204</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.27977118911821</v>
+        <v>24.10790142089191</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>13.28075077468838</v>
+        <v>33.19193960438493</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.87848567823472</v>
+        <v>37.27248848127397</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.3201351042219951</v>
+        <v>5.800099740858485</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.63965033613125</v>
+        <v>32.00137478579887</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.19463996112168</v>
+        <v>42.77654536829279</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.23846762842377</v>
+        <v>17.05447677696829</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.1352269196842</v>
+        <v>32.05079075796212</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.63126331953281</v>
+        <v>43.12986133848157</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1.173368165326528</v>
+        <v>6.056024786730099</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.83669056061618</v>
+        <v>29.42218992842174</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.65948212197889</v>
+        <v>44.60048277315991</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>6.53251951720525</v>
+        <v>12.53873145408899</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.73972979346847</v>
+        <v>45.67897892930426</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>59.32999812207132</v>
+        <v>60.69341851597282</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>45.02067504044928</v>
+        <v>46.92537957281426</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.39089136384319</v>
+        <v>58.67192003428964</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>71.29142938153626</v>
+        <v>70.65825887087942</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.31060728698541</v>
+        <v>19.15873931969276</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>45.19171520156622</v>
+        <v>55.42115037827334</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>65.82371853650324</v>
+        <v>68.24116120078108</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.943357963021894</v>
+        <v>7.293048943958528</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.69469736742301</v>
+        <v>8.675524263771528</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.20637316975822</v>
+        <v>12.95474035956759</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.376019420513879</v>
+        <v>-5.515620077085476</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.95434566739193</v>
+        <v>8.352696688937417</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.74980730448409</v>
+        <v>13.41195567314095</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.4441523769284483</v>
+        <v>-7.118215491325994</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>38.13884694671327</v>
+        <v>16.69500469295022</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.95700169777531</v>
+        <v>18.42097147419012</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.22692938721365</v>
+        <v>10.12318675268639</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.31706843040021</v>
+        <v>13.76338395081206</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>44.93644383521879</v>
+        <v>21.58827267978964</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.770343442577753</v>
+        <v>-0.4468488546470901</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.5602232067394</v>
+        <v>3.53853024593413</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.6869423687212</v>
+        <v>9.765910852099928</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.65346668844363</v>
+        <v>20.72045578069356</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.96912846550328</v>
+        <v>38.38037570823521</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.38098436056516</v>
+        <v>41.29379885819599</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>3.844335363709154</v>
+        <v>5.921119829827287</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.5427773955703</v>
+        <v>37.11916500115424</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.23723154548045</v>
+        <v>40.67291323197218</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.237453356404307</v>
+        <v>11.69249274665431</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.12540722681599</v>
+        <v>51.37314331440055</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.0043919716743</v>
+        <v>54.98851252976123</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.4670119846578</v>
+        <v>42.47030037513336</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.47717281234078</v>
+        <v>53.19378885291974</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.26976287956381</v>
+        <v>54.72222492935098</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>18.45345626425036</v>
+        <v>19.75217700408305</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>59.16110383461091</v>
+        <v>57.13603723135397</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>60.1098250336991</v>
+        <v>59.19055695083942</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.11197376488717</v>
+        <v>26.40332221458033</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>45.40082222417036</v>
+        <v>47.12870814123408</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>49.88783864508704</v>
+        <v>50.1499810754211</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.00972448863171</v>
+        <v>7.657038224296347</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.65403732136898</v>
+        <v>46.63169300009287</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.82364190206014</v>
+        <v>48.90045935980312</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.68538317222947</v>
+        <v>14.72095756598357</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>65.29205361988596</v>
+        <v>65.09582039774568</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>72.79528209931797</v>
+        <v>66.78710910583095</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.01772142321917</v>
+        <v>72.11501736711854</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>79.12570421844549</v>
+        <v>81.58029789714469</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.72251043561265</v>
+        <v>82.9829789110628</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.11745473845873</v>
+        <v>27.77858202965244</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.16389613012662</v>
+        <v>77.50639351930035</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>83.18637994817061</v>
+        <v>76.26710619771407</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.49565895670717</v>
+        <v>12.88039435246486</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.24289581891303</v>
+        <v>18.31802385387659</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.33356864560515</v>
+        <v>21.11371971510588</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.811097168472207</v>
+        <v>0.8399030629738924</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.01906366208445</v>
+        <v>17.42037492550497</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.13993664667955</v>
+        <v>19.53589235640869</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-2.072652180889039</v>
+        <v>1.416398274713675</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.93336089928738</v>
+        <v>27.52415204566775</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.81365238621068</v>
+        <v>26.75719937063263</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.64674106921039</v>
+        <v>20.9234933558845</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.96192899509801</v>
+        <v>28.75923227168481</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.41427762886684</v>
+        <v>29.08997347292039</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.45924244356756</v>
+        <v>15.05805833304263</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.57227048733834</v>
+        <v>27.50376950539854</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.99635684963999</v>
+        <v>31.55851055045575</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.538717028815887</v>
+        <v>10.26810694207425</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>8.991037620792698</v>
+        <v>19.91700263980554</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.674009833151</v>
+        <v>25.96125516593684</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-4.468640021006502</v>
+        <v>-2.975378701745971</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>4.894536650168702</v>
+        <v>14.06411430717823</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.57610829872831</v>
+        <v>21.77294210737638</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-8.503002380972712</v>
+        <v>-1.190069785325598</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>13.68346671043419</v>
+        <v>23.88503743617453</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.9362988837913</v>
+        <v>31.90586810394758</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>8.974968673359006</v>
+        <v>17.44373162504528</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>11.00238722593354</v>
+        <v>26.08457294817232</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.9282679541005</v>
+        <v>27.09513628375175</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.734191696770173</v>
+        <v>3.342352258335492</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>19.17496018765852</v>
+        <v>27.24939317750267</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.89288123899204</v>
+        <v>31.69198304621749</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.79169476082344</v>
+        <v>20.66861098298398</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.76987831255346</v>
+        <v>35.35114037591384</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.75084689443239</v>
+        <v>38.87735455614998</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.238704700261058</v>
+        <v>4.608452522633911</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.1912319856926</v>
+        <v>30.6255165010682</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.8922902763586</v>
+        <v>34.81487976078254</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.241917683592908</v>
+        <v>9.843049683173383</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.25018859550089</v>
+        <v>47.43910856009131</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.95635399116833</v>
+        <v>50.1266340499793</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.25525020467646</v>
+        <v>51.21029453708945</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.12372874069584</v>
+        <v>61.05257063581852</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.55104329038256</v>
+        <v>62.18407739095956</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.20253353075633</v>
+        <v>25.13660768172167</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>48.05448596272754</v>
+        <v>55.64492218602413</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>54.89845659320293</v>
+        <v>58.14577156830858</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.285558301164093</v>
+        <v>8.10579023420026</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.340490408698196</v>
+        <v>4.572327711124242</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>3.98221347434003</v>
+        <v>6.559268474280401</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.01198945689333364</v>
+        <v>-2.590853936343866</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>2.832454780895594</v>
+        <v>0.2063524570597117</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.683677687641454</v>
+        <v>2.429410483259115</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-8.845323523039548</v>
+        <v>-4.859812600442783</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>3.440890978556881</v>
+        <v>5.225281589200701</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.199597235217725</v>
+        <v>4.994031363966826</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>3.379146590195687</v>
+        <v>-1.350208839230842</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.943510718914295</v>
+        <v>0.6568965415713706</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.033639512065454</v>
+        <v>4.023994579311424</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.954265020738353</v>
+        <v>10.81598537657791</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>0.9101371817777544</v>
+        <v>9.683425965310299</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.273780688110838</v>
+        <v>12.33816487087778</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.917556861676244</v>
+        <v>7.361791418287879</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.182607834500294</v>
+        <v>12.2844044489691</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.883450002266235</v>
+        <v>14.74940456996805</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-3.331045321487681</v>
+        <v>-3.562476784930912</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1.826339235686698</v>
+        <v>6.221518543823958</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.85320363721034</v>
+        <v>9.851385525657456</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-10.53090122845224</v>
+        <v>-3.298942225474018</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>3.873707725413032</v>
+        <v>12.89286534498983</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.34321131897167</v>
+        <v>16.50094103873474</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-0.3825387343193558</v>
+        <v>4.674750193739413</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-4.319032946880997</v>
+        <v>11.32044934683183</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.440931961018242</v>
+        <v>11.21375680748185</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-0.8368561838053612</v>
+        <v>-2.174592913559227</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>5.834414935319783</v>
+        <v>13.62479249982703</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.168896025364203</v>
+        <v>15.95810487843191</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>17.81047780968914</v>
+        <v>16.09154451980307</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.7824190082986</v>
+        <v>25.45729936789128</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.81145690204031</v>
+        <v>29.51238515281944</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.839294376262421</v>
+        <v>3.106072926471338</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>17.79551520859175</v>
+        <v>20.77823922200263</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.94197718765054</v>
+        <v>25.72401419404584</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>5.158549534091952</v>
+        <v>6.877938935342502</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.33157943362759</v>
+        <v>34.73389927622146</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>40.54602726760709</v>
+        <v>38.63513974955059</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.69146685807483</v>
+        <v>37.36484263273955</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.22918106796157</v>
+        <v>44.70100887045231</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47.92280308321681</v>
+        <v>46.70050755831677</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.29946624945169</v>
+        <v>18.87588420568173</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.19719975779621</v>
+        <v>37.77942293274431</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>40.46986650099152</v>
+        <v>42.46325567265759</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>8.035363521871743</v>
+        <v>20.28588414018447</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.01474951379252</v>
+        <v>25.48890714889641</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.66596870131171</v>
+        <v>29.86063108699981</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-2.999948010924955</v>
+        <v>3.931704314337967</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.17807906642513</v>
+        <v>26.75509934160082</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.54563701188915</v>
+        <v>29.48584820132224</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2.432533489526657</v>
+        <v>7.597607430608704</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.24357970305216</v>
+        <v>39.0303203167628</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.77301185049145</v>
+        <v>40.45136030763804</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.87579077117535</v>
+        <v>32.60604138414823</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.3699902085467</v>
+        <v>41.47855087965198</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.89575375093436</v>
+        <v>44.27478306350042</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>13.1565469667558</v>
+        <v>37.6121270626862</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.92313604999093</v>
+        <v>51.21893062767119</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.05698801937599</v>
+        <v>59.37596805657738</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.127438554785753</v>
+        <v>15.33188743905356</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.59718758271653</v>
+        <v>25.76957074337014</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.47148696986325</v>
+        <v>31.19117163536698</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-5.348291921006266</v>
+        <v>1.551471314331721</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.18072693347602</v>
+        <v>18.91374422548306</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.95444569408852</v>
+        <v>27.03616715181056</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-5.567237649351471</v>
+        <v>3.01983383957721</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.49916917714448</v>
+        <v>33.34391036053904</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.91606914650259</v>
+        <v>42.45672498365283</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.85496392438505</v>
+        <v>31.94497586706722</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.19638863321767</v>
+        <v>38.03785581401523</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.87102913983736</v>
+        <v>41.65289136759112</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.541282514180514</v>
+        <v>17.6154682574354</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>40.47782129736879</v>
+        <v>47.16605063096542</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.6034597422213</v>
+        <v>50.71064917862921</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.11731003916065</v>
+        <v>22.59437178978764</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.06459943891662</v>
+        <v>40.81912817038972</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.37496976130355</v>
+        <v>45.6626629250254</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1.715584035278932</v>
+        <v>9.149102698114518</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.01421884241763</v>
+        <v>34.20561133641561</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>42.93990027417981</v>
+        <v>42.78902073503521</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.11456170395835</v>
+        <v>9.973561129692527</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>51.24149699334464</v>
+        <v>54.97502970117054</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>65.11633858070964</v>
+        <v>63.68984852807949</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>59.63297774054124</v>
+        <v>64.74208896442705</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>67.35086123637339</v>
+        <v>71.90056296143935</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>80.32924166188816</v>
+        <v>79.69081921772025</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.56983671768555</v>
+        <v>33.07895832259171</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>64.63098696126198</v>
+        <v>70.90630456159957</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>78.77701636114413</v>
+        <v>77.29293292382559</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.24664959086984</v>
+        <v>19.61696470631685</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.42236191983804</v>
+        <v>34.73759490879005</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.94651031990463</v>
+        <v>38.31731749793491</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.953974231822583</v>
+        <v>11.63514241661206</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.55901960614833</v>
+        <v>37.92880685326881</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>46.52547079418999</v>
+        <v>43.61764344191261</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.56015658068411</v>
+        <v>15.16071200010682</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.29741006302176</v>
+        <v>51.95519310530258</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>59.82688984527819</v>
+        <v>54.15377431539978</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>48.05751909688195</v>
+        <v>57.64300656310587</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>61.99747322739127</v>
+        <v>63.18222698505902</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>67.42786332169571</v>
+        <v>63.33845611177105</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.27535365902393</v>
+        <v>25.18257787452084</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>55.16086604287884</v>
+        <v>57.01031218709255</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>61.56817444229291</v>
+        <v>63.12757986265049</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.953882220549366</v>
+        <v>18.47481872963272</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.08591856867829</v>
+        <v>33.36576870559586</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.475698507731</v>
+        <v>40.42083692692064</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.860137093071691</v>
+        <v>8.446813355180563</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.12880168740974</v>
+        <v>32.13804636493541</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.41995677454265</v>
+        <v>41.8612590253919</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.255758906591984</v>
+        <v>13.87830246173042</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.88606865156589</v>
+        <v>45.55625181752703</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.53771956113471</v>
+        <v>55.61114855891395</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.81584025334455</v>
+        <v>42.89676122409167</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.36621545344304</v>
+        <v>51.12624333903263</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.68484211742405</v>
+        <v>52.72694378492005</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>11.39186225595822</v>
+        <v>14.67289689242906</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>51.70085578249655</v>
+        <v>49.93156049742698</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>61.78440155181116</v>
+        <v>56.29048778317322</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.322757444233138</v>
+        <v>20.32623431186863</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.02910275188722</v>
+        <v>40.53910372561243</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.66325511281736</v>
+        <v>46.88082403923539</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.0863740840736309</v>
+        <v>7.952690487593681</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.66156914055806</v>
+        <v>40.77167335580477</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>47.67474021820354</v>
+        <v>49.10522117773974</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.614280083290884</v>
+        <v>14.2197610594007</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.30949522425072</v>
+        <v>57.94993742861371</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.80276258693949</v>
+        <v>65.37380785713771</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.1259336558388</v>
+        <v>65.50734073803251</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.77468394918519</v>
+        <v>74.41557039679088</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>85.41863083509786</v>
+        <v>79.60311351622219</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>13.98408349702811</v>
+        <v>19.9606920265635</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>67.88153568060177</v>
+        <v>66.52932916521083</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>81.31432634651082</v>
+        <v>72.87108428554146</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>11.1322818474308</v>
+        <v>22.38291295825754</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.5923774257549</v>
+        <v>33.30627339542397</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.72553298774669</v>
+        <v>37.38387320305532</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.14726482880774</v>
+        <v>10.87042332174995</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.80353893178719</v>
+        <v>44.02567096163722</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.728618072456</v>
+        <v>46.07688439069018</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.58586794723809</v>
+        <v>15.01882863953736</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.88851155528805</v>
+        <v>58.02871885466543</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>61.05015465200383</v>
+        <v>58.47679964839196</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.16458477305722</v>
+        <v>58.17557139830609</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>59.08123421410688</v>
+        <v>61.71335053297807</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>66.51612709581501</v>
+        <v>62.97370216368193</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>17.30359140695315</v>
+        <v>30.24037155622799</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.30557677234165</v>
+        <v>47.19058412539265</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>60.11589582176978</v>
+        <v>57.5166236020202</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.92046475751543</v>
+        <v>22.00211421601247</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.85720886711199</v>
+        <v>37.96685657130907</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>40.06401676585862</v>
+        <v>43.91222347295865</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-1.533999698941111</v>
+        <v>8.044013258513164</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.99911274601899</v>
+        <v>35.55997298713131</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.91640432599833</v>
+        <v>43.98747350647004</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.463909595537443</v>
+        <v>10.38717048127564</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.08775698433729</v>
+        <v>51.6937171330698</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>59.08218129922737</v>
+        <v>61.35872414679351</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.62637445323214</v>
+        <v>50.54451423974994</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.96801587849964</v>
+        <v>57.04897624470831</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>60.37804761574153</v>
+        <v>60.27302030451722</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.71000122209938</v>
+        <v>24.96747233411636</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>59.37648155594398</v>
+        <v>66.43281680435345</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>67.79368829424945</v>
+        <v>68.4626843359186</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.22730532549611</v>
+        <v>24.31447817823927</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.36621493234517</v>
+        <v>46.39080908640553</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.17443308734027</v>
+        <v>51.5990640839115</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2.008679668575391</v>
+        <v>9.281902930863627</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.6431758360007</v>
+        <v>42.27076377963791</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.07842684809339</v>
+        <v>50.66873523473161</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.938784442615036</v>
+        <v>10.02743940359398</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.86059093658452</v>
+        <v>63.34024932251775</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>70.71641116589072</v>
+        <v>72.58674175385769</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>67.11239218872913</v>
+        <v>73.51809132458298</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.84039117997669</v>
+        <v>80.91971419265467</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>86.47903200023521</v>
+        <v>86.53563936478157</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.09919096789449</v>
+        <v>29.5316815022249</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>75.12087330871591</v>
+        <v>79.02623915835387</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>84.34193393833165</v>
+        <v>82.29998498356997</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.40057892662283</v>
+        <v>21.89693981613452</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.89625979510011</v>
+        <v>30.8535131608831</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.00365309576607</v>
+        <v>33.02379091195686</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.85517629072186</v>
+        <v>19.84855253330426</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>41.96548815680815</v>
+        <v>51.41654467956421</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.72792268908935</v>
+        <v>51.05097659861921</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.36216574831934</v>
+        <v>16.08027967989599</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.3530546999073</v>
+        <v>55.06126092949018</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.14238673429265</v>
+        <v>54.13254282651944</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>47.10569217529538</v>
+        <v>58.22130648953134</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>55.23343077483545</v>
+        <v>62.31475183960765</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>64.06825912344873</v>
+        <v>63.97937046627683</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.68947944244751</v>
+        <v>35.95358050580469</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>50.12849879465777</v>
+        <v>49.1071778227589</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>60.97323058967416</v>
+        <v>59.74040025471179</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.69586583073758</v>
+        <v>23.64255152720093</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.54939881521106</v>
+        <v>35.49892014049412</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>44.97044107437232</v>
+        <v>41.70383366151172</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>13.8589541920827</v>
+        <v>29.97710340040265</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>40.36228518926339</v>
+        <v>49.02115430911281</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>51.23504401922528</v>
+        <v>58.57691087921423</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>13.12791002545476</v>
+        <v>15.7049135905979</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.57147262539224</v>
+        <v>50.24346466407385</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>64.1504578447733</v>
+        <v>60.55228139277513</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.0744234535352</v>
+        <v>52.04342597317417</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>50.93314987464669</v>
+        <v>56.23788791147076</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>64.41826566729367</v>
+        <v>58.95383116671611</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.93922037634143</v>
+        <v>30.17504071472869</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>62.51322672938602</v>
+        <v>63.49953200045054</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>71.28235121949521</v>
+        <v>69.1102591721021</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.09040448814039</v>
+        <v>27.91107878266165</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.89597481124554</v>
+        <v>46.12567905930605</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>51.26141960623021</v>
+        <v>50.34768221861373</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>11.71733460083666</v>
+        <v>31.02120900847042</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.92771974769867</v>
+        <v>54.53751072593885</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.82551713780718</v>
+        <v>62.6765076342845</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.18545841479541</v>
+        <v>15.42716628593718</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.61755304317408</v>
+        <v>61.86153345846193</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>74.51727676719416</v>
+        <v>70.81009846030537</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>71.77980786178654</v>
+        <v>78.09496393503316</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>78.8264107593926</v>
+        <v>78.90807338805911</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>89.86076568484944</v>
+        <v>87.21822823325004</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.05847621751287</v>
+        <v>39.08185039393604</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>75.63409599172013</v>
+        <v>77.13775770365905</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>85.97998384645696</v>
+        <v>83.65769937409947</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>9.544781890600936</v>
+        <v>15.94442480998045</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.25836430189491</v>
+        <v>27.20759273688641</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.00947176300212</v>
+        <v>34.78490603352179</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>2.97835100477001</v>
+        <v>-1.221984282889743</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.34639340262105</v>
+        <v>23.04946154772866</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.60925997972316</v>
+        <v>34.04810063297644</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>7.987834871313551</v>
+        <v>8.112581355383952</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.32054739535401</v>
+        <v>45.00136513876394</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.34939595266765</v>
+        <v>51.00092491926219</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.20738019379589</v>
+        <v>50.53611378477284</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>58.12478374735006</v>
+        <v>54.97120486519739</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.6091509829967</v>
+        <v>57.89563823163061</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>11.61019595485043</v>
+        <v>16.32735094055699</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.03013105984476</v>
+        <v>48.65905387021813</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.86554302337368</v>
+        <v>58.53853738185704</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>6.536033285848587</v>
+        <v>16.05552437869339</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.70049106260196</v>
+        <v>30.91707261692757</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.68371920819989</v>
+        <v>38.83724171205007</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-4.17550076664754</v>
+        <v>-1.387375966555769</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.61688632328283</v>
+        <v>24.12911993720914</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.74018437385975</v>
+        <v>34.90164889314843</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.7897119166019682</v>
+        <v>5.626627502468509</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>40.56018628551315</v>
+        <v>41.00853518241465</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>54.26329887624286</v>
+        <v>52.31317234681394</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.60061048372146</v>
+        <v>36.14457417460193</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.39259525619232</v>
+        <v>44.06699358944122</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.35709828518315</v>
+        <v>47.10800803978159</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>5.473328890661767</v>
+        <v>5.70909752686017</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.91943047875336</v>
+        <v>40.50534016126822</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>59.59686641790303</v>
+        <v>50.35624163522847</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.238290675257167</v>
+        <v>18.86040722016421</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.80469040253055</v>
+        <v>39.83445251678206</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.27588040237401</v>
+        <v>48.77306936668845</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-6.317799551376803</v>
+        <v>-1.165796185004726</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.72940408686584</v>
+        <v>34.39095116229924</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>44.81143591364172</v>
+        <v>46.13659311499202</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1.444128081218784</v>
+        <v>4.913857525112487</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>52.98301118043478</v>
+        <v>53.5465101571757</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>67.64268175887926</v>
+        <v>65.29670396690857</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>58.59627079147067</v>
+        <v>61.0195893212997</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.18327234875106</v>
+        <v>72.02831285762734</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>84.20176088763479</v>
+        <v>79.42485196654232</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>6.960682889683147</v>
+        <v>9.297532340309058</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>65.95925693190949</v>
+        <v>63.03928563459036</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>79.9749587156923</v>
+        <v>72.39932368538541</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.00960990840919</v>
+        <v>16.12714190796098</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.03800729319206</v>
+        <v>19.4446256417011</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.54702210101992</v>
+        <v>22.81296963678531</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.912073884318451</v>
+        <v>4.1759034366039</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.13827314582842</v>
+        <v>20.26468119978211</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.25292976477053</v>
+        <v>22.65793175818261</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>0.9435869448888052</v>
+        <v>6.461877403397594</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.35884378677136</v>
+        <v>30.05872169640335</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.96465358153785</v>
+        <v>30.92761933295215</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.81340312123927</v>
+        <v>26.69829991103536</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.82314671477179</v>
+        <v>31.50116703601236</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.22220488342673</v>
+        <v>33.34405161193146</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.58715032851349</v>
+        <v>20.26086620902185</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.04064881285646</v>
+        <v>26.61327880803627</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.15818867460382</v>
+        <v>33.00445850525463</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.360199226785637</v>
+        <v>19.94740071208428</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.25132909819048</v>
+        <v>31.83426041040529</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.43462575205409</v>
+        <v>38.30458949961525</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>3.473281457903488</v>
+        <v>10.14311213507957</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.51298318281312</v>
+        <v>29.27295734171166</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.90718501976846</v>
+        <v>38.66845238541639</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>2.943053530082919</v>
+        <v>14.16554582561425</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.5177322209719</v>
+        <v>43.28532501421574</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.27444595729262</v>
+        <v>53.11545059748325</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.12169515412801</v>
+        <v>36.86380900058984</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.02260860637628</v>
+        <v>43.5674678370432</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.39872874382299</v>
+        <v>50.44357548644749</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>10.92579065502166</v>
+        <v>17.33342762029341</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.87673060526219</v>
+        <v>46.26757117347331</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>58.76131983426645</v>
+        <v>53.36439843492862</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.07655022541846</v>
+        <v>21.21153106460027</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.49315393360038</v>
+        <v>37.67550777282404</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.0129641967163</v>
+        <v>45.92571259053993</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1.048714582232924</v>
+        <v>10.12038816665397</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.72475860529517</v>
+        <v>33.79249239525436</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.0677313955517</v>
+        <v>46.43566632559015</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>6.533523599425612</v>
+        <v>13.16525649975569</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.60081647282247</v>
+        <v>51.32106560905624</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.35831731258051</v>
+        <v>63.6548161822291</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.30560058126475</v>
+        <v>53.73913051062003</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.17797266614911</v>
+        <v>62.75222912443766</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>79.40443214654739</v>
+        <v>77.58710952069372</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>9.639841485594877</v>
+        <v>19.04419231742196</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.59016441308095</v>
+        <v>53.89989213854328</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>75.94110285605488</v>
+        <v>70.63316894663051</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>10.95412552457145</v>
+        <v>13.61366485326435</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.30705040077086</v>
+        <v>19.46485448855591</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.30588222309045</v>
+        <v>21.65658218309816</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.944315339831183</v>
+        <v>2.442129983376358</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.37784880249755</v>
+        <v>28.84299424708402</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.41816440502149</v>
+        <v>29.16596223800768</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>5.327340005542494</v>
+        <v>1.888424653369551</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.70882337190314</v>
+        <v>35.58631422486734</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>46.57829791429273</v>
+        <v>35.23397881958517</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.43553574411158</v>
+        <v>36.45214103002387</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.80499181947783</v>
+        <v>42.85466613047056</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>52.18876425955678</v>
+        <v>44.98846563300196</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.36469274598075</v>
+        <v>23.06794746404522</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.42698391188721</v>
+        <v>38.34882533604716</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>50.78451113462821</v>
+        <v>46.73156248997952</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.0388463098941</v>
+        <v>13.05936495389902</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.98506046712945</v>
+        <v>22.29561840676586</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.49322551486222</v>
+        <v>33.02507082690077</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1.08785325690892</v>
+        <v>12.2206379039161</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.14665181530556</v>
+        <v>27.30251480075133</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>39.61760052201035</v>
+        <v>43.99641977268278</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.2054555191959206</v>
+        <v>1.788028298320668</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.22455362068198</v>
+        <v>31.90019778963604</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>52.04969855414464</v>
+        <v>48.36682163477867</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.897559840211</v>
+        <v>35.31007823361055</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.39931541650114</v>
+        <v>40.54357345184467</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.58545946201679</v>
+        <v>47.99941158899293</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.9260574447204</v>
+        <v>14.7413649790304</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.34980423860281</v>
+        <v>47.34175159959204</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>60.32577896656159</v>
+        <v>58.5455136148359</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.63990134626734</v>
+        <v>17.10298793315408</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.65635400820458</v>
+        <v>33.28124772720792</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.08899763866303</v>
+        <v>40.72725278444653</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.378104858090575</v>
+        <v>11.30088549270234</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.57278564689801</v>
+        <v>31.20823280753474</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.99769246033404</v>
+        <v>44.851175289096</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.023564876629086</v>
+        <v>0.1141935017992246</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.1712510246771</v>
+        <v>42.73132865748683</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.2556112724664</v>
+        <v>55.99699462531012</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.86055128802192</v>
+        <v>57.29699593057038</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>65.49341693290941</v>
+        <v>58.42094539858775</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>79.05072165813593</v>
+        <v>70.80091110848772</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.027013328916</v>
+        <v>21.19686882632093</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.39775101903179</v>
+        <v>57.44700164347806</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>75.92579002148776</v>
+        <v>69.93210817120462</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.79742187708051</v>
+        <v>19.97422099342118</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.57847772107256</v>
+        <v>31.10100277437934</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.82633095695572</v>
+        <v>36.0491257403013</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.22122757852435</v>
+        <v>14.56925176899276</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.27567198836633</v>
+        <v>44.59775965852689</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>45.44977967829829</v>
+        <v>47.3512506170172</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.27442615626828</v>
+        <v>17.89205999601683</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>55.0997486778238</v>
+        <v>57.06155380339423</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.14689661952049</v>
+        <v>57.19112992692209</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>50.1621602609502</v>
+        <v>59.67559519339278</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>60.89553031608425</v>
+        <v>64.60757888633793</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>63.31691127261976</v>
+        <v>68.12504734502659</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.92983886274703</v>
+        <v>33.71031243442487</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>52.13772208995706</v>
+        <v>45.55226808987235</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.51030448437231</v>
+        <v>63.03817701300545</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.33294638451049</v>
+        <v>24.08753517971028</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.98378810320173</v>
+        <v>38.13900410154108</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.56029908649047</v>
+        <v>42.43747886087465</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.037197680390269</v>
+        <v>13.93358716546436</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.08966890427108</v>
+        <v>38.65252224447249</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.210034681392</v>
+        <v>43.75213737473361</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.619112127247012</v>
+        <v>15.74280211702376</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>50.4921034348583</v>
+        <v>50.58510722932591</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>58.36347397019247</v>
+        <v>56.13916365525426</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.83792064420486</v>
+        <v>47.23502166313983</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.52156219482568</v>
+        <v>52.76573941238698</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.2391581339112</v>
+        <v>52.89470447942066</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>19.8114826052796</v>
+        <v>25.66766845417358</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>59.90538439846571</v>
+        <v>56.84416247272009</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>61.90367311126235</v>
+        <v>59.91214869066869</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>15.43203871369064</v>
+        <v>23.69358668731109</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.86253827366511</v>
+        <v>43.50816005957016</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>43.20869643185328</v>
+        <v>47.49130916141173</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>3.490104101581286</v>
+        <v>14.39842270961946</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.12196402694251</v>
+        <v>45.38807916859625</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>47.61249274477646</v>
+        <v>50.69086999581071</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.93024146324215</v>
+        <v>14.68993149895544</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>63.23584705323709</v>
+        <v>60.03207648856994</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>69.75233174528064</v>
+        <v>65.07770598879965</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>67.74440813670655</v>
+        <v>71.50454232045766</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>77.20989824083861</v>
+        <v>75.95930473090117</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>81.09337967127352</v>
+        <v>80.39108448158051</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.89228637461429</v>
+        <v>31.85934650794781</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>72.50995581244418</v>
+        <v>71.50980936271165</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>76.78795689235002</v>
+        <v>78.07576934327629</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.919546387000329</v>
+        <v>17.42562275702753</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.04524421009812</v>
+        <v>29.37522401313646</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>31.72927506805726</v>
+        <v>35.78515973196379</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2.620519174527024</v>
+        <v>3.204576993290623</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>37.5420501139866</v>
+        <v>30.62566064885607</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.43324410621524</v>
+        <v>38.66623705689177</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.292436833723462</v>
+        <v>9.883774120244468</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>50.99589067762998</v>
+        <v>48.45190701263434</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>57.79868177992592</v>
+        <v>52.60536860983154</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>48.44358953291492</v>
+        <v>49.7249949943271</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>60.387252020382</v>
+        <v>56.97420582089348</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>63.51272146425669</v>
+        <v>58.57938118798299</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>11.25288235482204</v>
+        <v>17.37361562213189</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>48.74269612723894</v>
+        <v>48.00613017013339</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>54.54322167230788</v>
+        <v>59.76225746529624</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>6.808008374970347</v>
+        <v>18.940600091158</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.4064649087243</v>
+        <v>34.58239628854331</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.65026291774236</v>
+        <v>41.16808192738384</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-3.457226443692869</v>
+        <v>3.148632050013848</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.53019368688194</v>
+        <v>30.13285978827769</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.54446240240222</v>
+        <v>38.81508970396215</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-0.1882736984109616</v>
+        <v>9.503041323858628</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.4173558311388</v>
+        <v>46.28352256561469</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>54.10253633861299</v>
+        <v>55.79726152536593</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.23813234574554</v>
+        <v>41.08101547589294</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.79486850687029</v>
+        <v>50.39858121482851</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.13828490404052</v>
+        <v>52.95149110251174</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>4.521701868101465</v>
+        <v>14.49734582383905</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.93691563416485</v>
+        <v>52.77225197710725</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>57.35981143001104</v>
+        <v>57.90096265828442</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>6.035213196799694</v>
+        <v>18.53622300595923</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.4044275483709</v>
+        <v>37.71830087647641</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>41.62366463415026</v>
+        <v>46.83254969451753</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-6.595428229237067</v>
+        <v>-0.3130441479371697</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.60849791700364</v>
+        <v>32.50629976643134</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>43.2805085101156</v>
+        <v>44.40822539498605</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.5162503764342627</v>
+        <v>3.287791760220056</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.55415205063796</v>
+        <v>49.30222931912284</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>65.71143426865152</v>
+        <v>61.66706159497596</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>58.19118918824223</v>
+        <v>57.26839376377676</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.64854026286987</v>
+        <v>68.36703608079725</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>80.19146205035187</v>
+        <v>76.78761636312267</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>3.256149131177073</v>
+        <v>13.55833740026416</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>59.19163987611926</v>
+        <v>62.37814044370133</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>74.53244913626934</v>
+        <v>71.6892097351346</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.538</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.837</v>
+        <v>17.826</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.798</v>
+        <v>-0.621</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.503</v>
+        <v>22.315</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.352</v>
+        <v>4.593</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.24335780251825</v>
+        <v>20.21064950334124</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.2385943451601</v>
+        <v>16.36682051209454</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.80090854635</v>
+        <v>17.19453201213647</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.2681058553073292</v>
+        <v>6.475045403776722</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.96149368816092</v>
+        <v>19.45224525449094</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.83721415533379</v>
+        <v>22.06420907439095</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8413763139994046</v>
+        <v>7.713539209151516</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.02099653100836</v>
+        <v>25.42848880626907</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.0750160044746</v>
+        <v>25.94779057139362</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.24258425794019</v>
+        <v>22.39793838721814</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.83863581175065</v>
+        <v>29.26993692774336</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.82872032979206</v>
+        <v>27.46773578160476</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.83033176784397</v>
+        <v>20.33141737045054</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.61877510611071</v>
+        <v>24.27697698868131</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.65260971948141</v>
+        <v>28.91321387541708</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.1886599954858</v>
+        <v>20.04801447496103</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.13779885139075</v>
+        <v>32.02628201160434</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.20884474398734</v>
+        <v>39.00587567056879</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.29808126050256</v>
+        <v>10.09752420836508</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.39405769116145</v>
+        <v>30.05609434628932</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>45.66015002437389</v>
+        <v>44.76450779273092</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.98246910332388</v>
+        <v>10.52765442042718</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>47.71710149738784</v>
+        <v>44.44039396473076</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60.96544515654868</v>
+        <v>60.43181074261175</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>47.27233688092701</v>
+        <v>47.35076788599989</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54.62655518431733</v>
+        <v>57.69323274868577</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60.37324201609985</v>
+        <v>63.06733078847301</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.54634648950393</v>
+        <v>23.02133820126894</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63.95432302586609</v>
+        <v>61.12786771632843</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68.51109870058394</v>
+        <v>69.22442517584356</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.87840682892102</v>
+        <v>27.80802819440706</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.05915720648283</v>
+        <v>43.79009600679523</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.65825765032041</v>
+        <v>47.5547609037357</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.07682361331354</v>
+        <v>12.68257316560188</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.72235538006015</v>
+        <v>39.328473975298</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.57795888940205</v>
+        <v>49.56101108543945</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.40563612227881</v>
+        <v>14.0384745015558</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>64.04349761948816</v>
+        <v>63.36150555702707</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73.19754196136157</v>
+        <v>68.50073220211225</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.59668523152591</v>
+        <v>69.80725549503998</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>81.66099622114776</v>
+        <v>79.80436797570599</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>88.76431135178791</v>
+        <v>83.39659354612937</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.03810531123008</v>
+        <v>34.97492235796427</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>82.09672143202728</v>
+        <v>79.46573491008928</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>85.8909665969535</v>
+        <v>81.14821007454614</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.72669978002902</v>
+        <v>16.66983398797444</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.46589927572885</v>
+        <v>40.26611594013638</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.0634197503899</v>
+        <v>41.91926868018106</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.875742194844403</v>
+        <v>5.06846252250951</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43.44574073750218</v>
+        <v>41.80990646145305</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.91987829982924</v>
+        <v>45.68782064570678</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.77604782379872</v>
+        <v>4.586876168629768</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.77316582512468</v>
+        <v>58.72471376332395</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60.3123956921669</v>
+        <v>57.97556481380951</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.97973340382867</v>
+        <v>51.21014189016792</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>66.77211619047365</v>
+        <v>56.92002412664719</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>66.46502532710579</v>
+        <v>58.22698657525856</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.67770363695266</v>
+        <v>17.57016031423622</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>52.23229291259508</v>
+        <v>57.9496953689862</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>60.39786829087329</v>
+        <v>64.06719911336151</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.81024642845145</v>
+        <v>17.07587174194631</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.41039152438495</v>
+        <v>37.08382379592154</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.47982097550511</v>
+        <v>42.77189424061062</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.243205414299943</v>
+        <v>5.421843401300116</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.79750122052621</v>
+        <v>34.62483474969413</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.11314230175616</v>
+        <v>45.38176196416119</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.09869693257631</v>
+        <v>8.602843131191808</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.34422247377599</v>
+        <v>53.78018962783034</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>66.09978477957834</v>
+        <v>67.5511797770168</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>48.37892863539301</v>
+        <v>47.90557476532521</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>59.97823749506735</v>
+        <v>59.92447973076307</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>61.6813625163018</v>
+        <v>62.62134344964476</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.07075118823542</v>
+        <v>15.06652327239967</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>60.68392730727339</v>
+        <v>61.99724535752138</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>67.39619908425864</v>
+        <v>68.72260853515687</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.6580065517728</v>
+        <v>17.00945251998166</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.4049465705955</v>
+        <v>43.72982288793551</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.50242198720137</v>
+        <v>45.90850166902677</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.485732051602646</v>
+        <v>5.220928500587959</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.41973586880043</v>
+        <v>42.94863671726401</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.21866438820001</v>
+        <v>48.66561995452299</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>13.44239950286617</v>
+        <v>8.313287980530472</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.29846388062332</v>
+        <v>65.65220340972527</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>73.8105872280739</v>
+        <v>70.28721699722055</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>71.97192555123492</v>
+        <v>71.04522799588702</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>85.89846767013593</v>
+        <v>83.96032694394108</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>86.46591165097318</v>
+        <v>83.73264325387231</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.8601228064987</v>
+        <v>16.52700007352606</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>77.96543979174074</v>
+        <v>77.41465749192851</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>80.63122339644954</v>
+        <v>80.09568995321857</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.99828659538333</v>
+        <v>28.31997961041651</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.38367482947783</v>
+        <v>40.47403077183218</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.49472875072332</v>
+        <v>42.21103191711978</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.65475195712028</v>
+        <v>13.16815447472031</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.19467974753951</v>
+        <v>44.93131093983304</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.0618554767109</v>
+        <v>47.28367629527976</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.76436289919982</v>
+        <v>13.22751385619219</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.55168624365947</v>
+        <v>61.38955078707788</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.25249164901955</v>
+        <v>58.2351605410229</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>50.52867403523496</v>
+        <v>53.53859646114364</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>61.7876211851383</v>
+        <v>62.49619162479475</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>60.64602736724972</v>
+        <v>62.49457937287744</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.15515522797102</v>
+        <v>31.90532636260524</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>53.84734977163447</v>
+        <v>60.9742007140709</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>59.55845980526027</v>
+        <v>65.81741055739469</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.06058411196285</v>
+        <v>26.22994645257235</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.30158910464979</v>
+        <v>43.52421958956655</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.34934837704713</v>
+        <v>45.81409727070757</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.84632322835078</v>
+        <v>9.721705078321609</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.3667438545858</v>
+        <v>41.95224702008713</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.43575787922441</v>
+        <v>45.73297348212552</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.87528221451841</v>
+        <v>12.27616923256202</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>59.30315813132272</v>
+        <v>61.63461483624698</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>66.80528147031231</v>
+        <v>66.84511189072931</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>51.86013239484679</v>
+        <v>52.08994021840439</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>63.61333502760472</v>
+        <v>63.25626274297197</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>62.93431260904863</v>
+        <v>62.46552649667485</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.69535203987643</v>
+        <v>28.04963717844315</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>65.053746207404</v>
+        <v>65.11389855364229</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>67.5780021256153</v>
+        <v>66.48781166449723</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.27089937458525</v>
+        <v>32.37295605968411</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>53.42917964832277</v>
+        <v>49.87805320618457</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.24050945618236</v>
+        <v>50.73994623277147</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.587923402644222</v>
+        <v>11.64606751738814</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>50.80837497143373</v>
+        <v>49.65078084520646</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>54.38455166527682</v>
+        <v>50.21020014721267</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>17.8357133911132</v>
+        <v>14.71400226338968</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>72.01163451098435</v>
+        <v>72.20210304384054</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.4026702692824</v>
+        <v>71.24010503704321</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>79.33625306062638</v>
+        <v>75.76520633225854</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>90.93052472480912</v>
+        <v>81.70761799554558</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>90.25513577987377</v>
+        <v>84.90681276249569</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.79606296287713</v>
+        <v>35.54666074840428</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>85.27454349802103</v>
+        <v>81.61261804341817</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>85.50140669117322</v>
+        <v>82.51260988141081</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.59803642146244</v>
+        <v>21.03994688561804</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.73518472056665</v>
+        <v>19.45234455558125</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.10312042352799</v>
+        <v>19.56270924102298</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6.46615713705166</v>
+        <v>8.695479235694805</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.88433891890356</v>
+        <v>22.94722184316859</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.90991559216346</v>
+        <v>24.09905195860847</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.21997112447422</v>
+        <v>9.220089458156956</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.63879025286924</v>
+        <v>28.50362395724009</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.85353703441309</v>
+        <v>27.87819258462511</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.15606562587111</v>
+        <v>25.83093777145017</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.93619519522693</v>
+        <v>29.77824292210718</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.84277044261782</v>
+        <v>31.13224647545952</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>50.35646625448652</v>
+        <v>57.87725918277462</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.93757333093785</v>
+        <v>58.02179345935113</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.50672481096119</v>
+        <v>60.15376755407294</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.62190254224703</v>
+        <v>19.77523018972701</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.5103412511034</v>
+        <v>35.07474356758589</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.87976090856568</v>
+        <v>38.76554144703589</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.29855202602255</v>
+        <v>13.48780034725966</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.41921489197655</v>
+        <v>35.76463263856762</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.59470841313809</v>
+        <v>47.88825400371438</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.18089312543875</v>
+        <v>11.29667419689785</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.60969847305551</v>
+        <v>45.85457863064944</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>58.01518152484329</v>
+        <v>60.31752063240906</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.89647317480021</v>
+        <v>39.65209910278239</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>46.67963020463485</v>
+        <v>49.42071257307708</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>56.55710921997976</v>
+        <v>57.23677592372208</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.36844012446774</v>
+        <v>19.70100815280923</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>59.24798607134552</v>
+        <v>57.56696300421466</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>63.95008863767931</v>
+        <v>63.52874991430291</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.52917942471586</v>
+        <v>28.89173450390131</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.12256899593496</v>
+        <v>44.54311596223433</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.59295065824612</v>
+        <v>49.44216426716301</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.15548947482974</v>
+        <v>15.61412925857098</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.40180460724008</v>
+        <v>42.75514014159106</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.15138333123019</v>
+        <v>51.38574731378169</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.9523028656769</v>
+        <v>15.84308488795942</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>60.05673921588921</v>
+        <v>61.63383793466308</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.84009315410835</v>
+        <v>69.86427727613258</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.43734524723936</v>
+        <v>59.71405487337768</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>72.18444703449862</v>
+        <v>70.60701693861213</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>84.54007319721271</v>
+        <v>81.04844483718341</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.66393264053286</v>
+        <v>37.4477566787623</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>74.25800115451186</v>
+        <v>72.52684646929971</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>79.96777408778257</v>
+        <v>76.11332996979996</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.50638566386744</v>
+        <v>29.91880475103514</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.36609779207402</v>
+        <v>43.31376104982445</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>38.50864848743942</v>
+        <v>41.17534187455118</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.20903099551582</v>
+        <v>13.88131225982776</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.20653991907146</v>
+        <v>47.1913878345218</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>46.73536887719511</v>
+        <v>49.55244412640823</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.07252323757866</v>
+        <v>17.48441317075398</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>61.61829618477805</v>
+        <v>64.18400966979593</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>58.83532235002485</v>
+        <v>61.29528801644646</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.11035489817905</v>
+        <v>55.16528070509129</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>60.23606011946474</v>
+        <v>63.23509712932263</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>60.56939431389169</v>
+        <v>61.60465956695499</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.81182111091016</v>
+        <v>22.28831640365933</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.71003439389445</v>
+        <v>18.05122681032848</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.30723989449206</v>
+        <v>22.95414136306827</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.89689794118002</v>
+        <v>32.01035834214645</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.69936527743403</v>
+        <v>47.10091562227211</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>48.72329996473168</v>
+        <v>45.20191454634818</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.15449858969141</v>
+        <v>11.94833833017941</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.2958402245916</v>
+        <v>46.35762848942233</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>49.08944498311271</v>
+        <v>46.2391311589278</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.39121655350888</v>
+        <v>13.79221347650962</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>62.92194459890985</v>
+        <v>64.65836409662182</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>66.59920272049649</v>
+        <v>63.76239704396423</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>60.22943307447892</v>
+        <v>61.9283500664593</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>66.97987809740746</v>
+        <v>70.23357162780808</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>71.75940784771426</v>
+        <v>68.31092600538182</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.96214553884962</v>
+        <v>40.72983621949176</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>76.17801948764151</v>
+        <v>73.53108857164533</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>72.84532469736828</v>
+        <v>73.03804521977243</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.54504528669893</v>
+        <v>35.891648366089</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.09891845613022</v>
+        <v>52.2677094590521</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>57.0730270365837</v>
+        <v>52.50621855585671</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>14.19668444037808</v>
+        <v>12.03832327158545</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.27367477645952</v>
+        <v>48.41748027654128</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>53.26267470910452</v>
+        <v>50.12834170319594</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>16.9707367166483</v>
+        <v>13.96937042619818</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>68.51985439577633</v>
+        <v>72.11790846344627</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.44174083781336</v>
+        <v>72.29639053753397</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>81.00102672340549</v>
+        <v>76.93288487220721</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>86.85745313623413</v>
+        <v>83.55799905935356</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>96.07204659312994</v>
+        <v>86.07558302507503</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.76068606834015</v>
+        <v>46.51339156790232</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>85.90169074467929</v>
+        <v>87.93287752579619</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>85.81819088490992</v>
+        <v>81.07572651824654</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>17.13543445304767</v>
+        <v>23.21599377442499</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.30262763252383</v>
+        <v>35.40315832376275</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.81802744719667</v>
+        <v>40.44406732797464</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>11.99285400920365</v>
+        <v>11.97219178530449</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.84452381282027</v>
+        <v>44.99246950916846</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>45.78133622253861</v>
+        <v>47.33250334135798</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.40135925848453</v>
+        <v>12.38566660123685</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.53017493194233</v>
+        <v>65.46768226329024</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.85779625014817</v>
+        <v>62.1322909614669</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>57.44723352101827</v>
+        <v>55.63248460561329</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>66.83273083302667</v>
+        <v>60.84416266420545</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>67.92816179300176</v>
+        <v>61.72443811121886</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.30655541448124</v>
+        <v>17.59102928741479</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.6305282490166</v>
+        <v>11.28808536891026</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.70129504432536</v>
+        <v>10.58529932670119</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.7587853834121</v>
+        <v>28.18053409835346</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.25450356630742</v>
+        <v>46.15329008858426</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.1882786680949</v>
+        <v>48.83757196361491</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.672678373093508</v>
+        <v>8.938093012597715</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.35663621894884</v>
+        <v>45.41983247315926</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>48.80361596229184</v>
+        <v>49.16018233476709</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.00432305182368</v>
+        <v>13.46365493534718</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>65.66848870631117</v>
+        <v>65.44761457876558</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>67.48810600875382</v>
+        <v>68.86182153257377</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>53.36636547321056</v>
+        <v>50.73424742917582</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>67.03058942452769</v>
+        <v>65.32267452091094</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.79698788114342</v>
+        <v>67.88986301092552</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.5544623511434</v>
+        <v>27.06427834945804</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>73.05216788845166</v>
+        <v>71.89500206575927</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>74.4129062207613</v>
+        <v>75.17905121241074</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.95169724685999</v>
+        <v>27.75810616382943</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.36609772176504</v>
+        <v>46.63354562515825</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>51.59815358971562</v>
+        <v>48.48333868266377</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5.296219064055983</v>
+        <v>8.117600995635978</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.16359100756249</v>
+        <v>47.6877653706611</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50.54496375142328</v>
+        <v>47.80469541695282</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.65950372275653</v>
+        <v>11.68654891059125</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>67.58469314252525</v>
+        <v>67.91786778357339</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>71.52352034487458</v>
+        <v>66.21586693011632</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>71.19778984964934</v>
+        <v>68.60909112598908</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>83.1714537925362</v>
+        <v>78.03124679501472</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>86.36326909376804</v>
+        <v>77.91795450313782</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.72038925602883</v>
+        <v>26.23115866798669</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>80.68345070185447</v>
+        <v>78.73542153958064</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>80.05435785748179</v>
+        <v>77.79815701202563</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>8.408821520599112</v>
+        <v>15.87831811129228</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.39355063903811</v>
+        <v>13.06538152219275</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>17.05747147880929</v>
+        <v>16.01111392868411</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1.100999048545873</v>
+        <v>7.569331177601416</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.6986752317543</v>
+        <v>17.4575997638286</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.3623190695075</v>
+        <v>19.6804223289141</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.3454394071669817</v>
+        <v>6.88424917479291</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.52827412425061</v>
+        <v>24.29819362891658</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.09965105837237</v>
+        <v>24.8101560726934</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.92771617624267</v>
+        <v>22.93307016255032</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.01342682766532</v>
+        <v>29.27146794769821</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.49714787972156</v>
+        <v>30.50889116783824</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.0618674659142</v>
+        <v>18.71226785403348</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.29995750155471</v>
+        <v>21.16207738725364</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.33131066520664</v>
+        <v>23.52663124712282</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.45414978213052</v>
+        <v>17.5550024182919</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.97013416883361</v>
+        <v>29.28565069784321</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>39.29496318972915</v>
+        <v>34.58499759423899</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5.519167041025629</v>
+        <v>6.845532231696822</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.39053272897983</v>
+        <v>28.85194190378505</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.64857726346079</v>
+        <v>36.39529745806944</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.00428017619202</v>
+        <v>10.9421099148416</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.09457117736879</v>
+        <v>42.32529385496668</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>55.1047048254111</v>
+        <v>51.71573576858411</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.5231707251773</v>
+        <v>38.61540005608823</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.12220583912591</v>
+        <v>47.93361011977258</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.10502267640118</v>
+        <v>48.30274538636876</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>18.22786938857594</v>
+        <v>19.2224409386684</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.91887999314621</v>
+        <v>47.14851840294114</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>54.11561496509353</v>
+        <v>50.11788214893437</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.51788831463899</v>
+        <v>22.35978711811608</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>42.24906500866035</v>
+        <v>38.35261426268795</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>48.41831291872057</v>
+        <v>41.89777600976715</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.72665280288614</v>
+        <v>10.68087461281553</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.33072446406074</v>
+        <v>41.56683873619316</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.06758293613474</v>
+        <v>45.8891279580816</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.06318339904636</v>
+        <v>15.74762608650989</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>61.14833565570567</v>
+        <v>60.61429942546163</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>68.22380943834116</v>
+        <v>62.39526819665191</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.97038758155306</v>
+        <v>64.7654377252853</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>78.11909978308674</v>
+        <v>71.95333614194266</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>80.53819745185734</v>
+        <v>73.68551170540866</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.82535288169378</v>
+        <v>34.24844799584648</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>76.3455596378767</v>
+        <v>73.10999257697537</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>81.39786493432376</v>
+        <v>77.76241285037439</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>11.45223572423842</v>
+        <v>18.15784487495648</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.24360073323638</v>
+        <v>18.04019413007997</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.2647872982818</v>
+        <v>17.33060511132554</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1.43971798520802</v>
+        <v>6.510428160595843</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17.06151568606317</v>
+        <v>16.68847290542409</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.05046047619929</v>
+        <v>19.6323700760496</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-3.62401691642162</v>
+        <v>3.076431380614643</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.4676219502631</v>
+        <v>18.6366926211988</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.99213979178683</v>
+        <v>17.03623275441446</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.92451409727096</v>
+        <v>13.43492912322566</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.62242049407415</v>
+        <v>15.26250892681876</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.11099592575612</v>
+        <v>13.05311841521484</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>13.81753671176335</v>
+        <v>18.91807827376411</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>12.14956105450611</v>
+        <v>14.54036827389887</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.25171208702042</v>
+        <v>16.78965069303047</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.681618667441288</v>
+        <v>11.51502516851382</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.94171621842967</v>
+        <v>14.76901609224902</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20.07602399357047</v>
+        <v>17.18090885323163</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-4.225306512799651</v>
+        <v>3.272615704931773</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>11.60972261160438</v>
+        <v>14.376119301736</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.86271781544791</v>
+        <v>18.42857044808499</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-4.632641661395123</v>
+        <v>1.086267525787004</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.48608975732656</v>
+        <v>19.17219295376508</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.47656606576608</v>
+        <v>26.14185195043079</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.93183194540097</v>
+        <v>13.93988638370491</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.78195936689604</v>
+        <v>24.05545463985672</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.92834764361628</v>
+        <v>31.47487642107534</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.082119906308517</v>
+        <v>7.865840163435632</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.12495885458333</v>
+        <v>23.19519774483528</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>23.52538831764156</v>
+        <v>19.04271995546216</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.38959253260519</v>
+        <v>12.11154144745393</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.4714571028393</v>
+        <v>21.14436360334824</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.66351338673719</v>
+        <v>34.26085871684644</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-3.898577063063218</v>
+        <v>2.86763829472094</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>14.40507788990832</v>
+        <v>20.0532190041686</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.97934320656339</v>
+        <v>39.07621851054256</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.03504214009622</v>
+        <v>1.40496300363187</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32.73135280465814</v>
+        <v>30.45897386471785</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>54.40663173109269</v>
+        <v>56.00651034934523</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>34.25070361057871</v>
+        <v>26.4225042626816</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.36830564634137</v>
+        <v>48.07273759408447</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>66.02563486532512</v>
+        <v>67.0299807400902</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.643039294615679</v>
+        <v>11.01489039364373</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.62226573286891</v>
+        <v>38.10767324449282</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>47.98625619294677</v>
+        <v>45.95034100494559</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.57233328624291</v>
+        <v>20.79522109448501</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.53778389050089</v>
+        <v>27.4920644691546</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.57145572472891</v>
+        <v>40.29783852270222</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.50254274330417</v>
+        <v>11.91057397346365</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>50.94918833609092</v>
+        <v>45.1312585836493</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>53.12395348336372</v>
+        <v>49.92804198110327</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.09650509796447</v>
+        <v>12.81272539311961</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>68.84282838611833</v>
+        <v>63.58079717979869</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.918676513093</v>
+        <v>65.26496912005024</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>67.08854418562397</v>
+        <v>59.30109583112001</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>77.85119921237508</v>
+        <v>68.3462689819121</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>74.95551910997528</v>
+        <v>68.03831501947974</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.60720103822945</v>
+        <v>34.92270033623168</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>54.49348017769979</v>
+        <v>54.53802643159865</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>64.89472037860247</v>
+        <v>70.25111940812266</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.55811400322622</v>
+        <v>23.16864565665216</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.38235788573978</v>
+        <v>36.20033504369121</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>45.13088038632818</v>
+        <v>39.86713910922657</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.355872541672095</v>
+        <v>8.090184952443813</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.96424757813018</v>
+        <v>35.69460442003848</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>43.55492535845448</v>
+        <v>38.97106784654993</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.70398838522824</v>
+        <v>11.12904022450059</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.64547573241399</v>
+        <v>52.48528243791817</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>63.05876581826196</v>
+        <v>56.85684999716519</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49.05335088915513</v>
+        <v>44.95709846559539</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.98364378401278</v>
+        <v>52.1429588256617</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>58.08934316485444</v>
+        <v>51.68301024639942</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.52014814298806</v>
+        <v>29.02946913038598</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>64.08650433971778</v>
+        <v>59.03550397930562</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>66.570503227335</v>
+        <v>58.90791538353851</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.04826372180792</v>
+        <v>24.1419930272243</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.22467565691265</v>
+        <v>39.33183989071169</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.10475820716893</v>
+        <v>42.50048319636274</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>7.410503082966841</v>
+        <v>11.12192846184745</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.40132487681908</v>
+        <v>44.60758354191491</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.7846975361611</v>
+        <v>45.94498528642396</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.25121280177653</v>
+        <v>14.06841250828293</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.03725758201008</v>
+        <v>63.65112162126619</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>69.95507845014457</v>
+        <v>63.97880326791928</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>72.18481788614346</v>
+        <v>66.00900713889317</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>81.36301092971927</v>
+        <v>72.15058967675115</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>81.74756716929529</v>
+        <v>72.86853623779737</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.00147787808575</v>
+        <v>34.25241450758035</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>79.43029542787097</v>
+        <v>72.15159916420318</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>82.13522675070527</v>
+        <v>77.12082389758612</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.495859687507803</v>
+        <v>11.97173977877323</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.74244752033078</v>
+        <v>17.06950162867988</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>19.78336030380586</v>
+        <v>16.76381583985605</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-3.31759985839501</v>
+        <v>4.911138343845206</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.856364926145869</v>
+        <v>12.0097793867725</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.62548827708405</v>
+        <v>18.1341353250733</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-1.675777983556081</v>
+        <v>3.598405833317965</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.18744207058912</v>
+        <v>20.49089157408193</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.81352656762789</v>
+        <v>22.04365138840997</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.06698312238687</v>
+        <v>19.19103799868655</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.13191215125677</v>
+        <v>22.9690441099872</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.95445270912431</v>
+        <v>24.65203119649118</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3.452732339812503</v>
+        <v>11.14355698629728</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.46436182763774</v>
+        <v>22.03406033246816</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.39482219378309</v>
+        <v>24.35805752158862</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>14.11776881089321</v>
+        <v>13.27151815492583</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.83950515346537</v>
+        <v>24.4267999373288</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.95705400852914</v>
+        <v>29.7324776404704</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>3.428140282056834</v>
+        <v>6.906354055447483</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>18.74814415536748</v>
+        <v>22.71980679632206</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.89760434776903</v>
+        <v>31.6248063611061</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.951745370910604</v>
+        <v>8.91199135994275</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.36700118657102</v>
+        <v>33.85881703743129</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>47.16538173297204</v>
+        <v>45.18266224340171</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.10790142089191</v>
+        <v>25.88240785644475</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.19193960438493</v>
+        <v>36.87042048758985</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>37.27248848127397</v>
+        <v>36.02929226973213</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.800099740858485</v>
+        <v>11.03455737433632</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.00137478579887</v>
+        <v>34.17281856421161</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.77654536829279</v>
+        <v>41.47991223506641</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.05447677696829</v>
+        <v>20.98843346114256</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.05079075796212</v>
+        <v>35.02626264721006</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>43.12986133848157</v>
+        <v>41.24614171781417</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>6.056024786730099</v>
+        <v>13.75031624217164</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.42218992842174</v>
+        <v>33.01750260761425</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.60048277315991</v>
+        <v>42.93153131385533</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.53873145408899</v>
+        <v>17.71926443863071</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>45.67897892930426</v>
+        <v>47.12817435363775</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>60.69341851597282</v>
+        <v>57.62285394035059</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.92537957281426</v>
+        <v>48.0002348180235</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>58.67192003428964</v>
+        <v>59.26591813160763</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>70.65825887087942</v>
+        <v>71.85695744373396</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.15873931969276</v>
+        <v>27.75940821432973</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>55.42115037827334</v>
+        <v>57.19602302982971</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>68.24116120078108</v>
+        <v>66.87634881785529</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.293048943958528</v>
+        <v>9.682953747561342</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.675524263771528</v>
+        <v>8.566025322020369</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.95474035956759</v>
+        <v>12.1895736330949</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-5.515620077085476</v>
+        <v>1.885258857221572</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.352696688937417</v>
+        <v>7.423327374408981</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.41195567314095</v>
+        <v>14.79634682564333</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-7.118215491325994</v>
+        <v>-1.644022486223207</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.69500469295022</v>
+        <v>9.137792522653271</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>18.42097147419012</v>
+        <v>14.12080710788074</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.12318675268639</v>
+        <v>7.407112522673401</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>13.76338395081206</v>
+        <v>7.367641288937605</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.58827267978964</v>
+        <v>17.39024121300823</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.4468488546470901</v>
+        <v>9.170835412124489</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>3.53853024593413</v>
+        <v>11.9135078969632</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.765910852099928</v>
+        <v>19.09300599319047</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.72045578069356</v>
+        <v>23.26213114861192</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.38037570823521</v>
+        <v>37.31199493615843</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>41.29379885819599</v>
+        <v>38.12891897690257</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.921119829827287</v>
+        <v>10.19140892621033</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.11916500115424</v>
+        <v>37.5036620397634</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.67291323197218</v>
+        <v>38.94112614782109</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.69249274665431</v>
+        <v>11.51098251074228</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>51.37314331440055</v>
+        <v>52.43598294265718</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>54.98851252976123</v>
+        <v>53.88635236224069</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.47030037513336</v>
+        <v>44.11465151484963</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.19378885291974</v>
+        <v>52.15654148792205</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.72222492935098</v>
+        <v>52.26189765104969</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.75217700408305</v>
+        <v>22.62242211370827</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>57.13603723135397</v>
+        <v>55.90204007362831</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>59.19055695083942</v>
+        <v>56.55915234219613</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.40332221458033</v>
+        <v>26.01554898270255</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.12870814123408</v>
+        <v>42.51089223375576</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>50.1499810754211</v>
+        <v>44.84935418650463</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>7.657038224296347</v>
+        <v>11.29507823827634</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.63169300009287</v>
+        <v>47.98974391203248</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.90045935980312</v>
+        <v>48.99045544552268</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.72095756598357</v>
+        <v>11.58425569495352</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>65.09582039774568</v>
+        <v>64.93677340138223</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.78710910583095</v>
+        <v>63.3043250105068</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>72.11501736711854</v>
+        <v>71.19324443414868</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.58029789714469</v>
+        <v>79.35130303443684</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.9829789110628</v>
+        <v>77.85564708031939</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.77858202965244</v>
+        <v>27.21245085836622</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>77.50639351930035</v>
+        <v>77.00398273627547</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>76.26710619771407</v>
+        <v>74.96975122283489</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.88039435246486</v>
+        <v>16.13206470416955</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.31802385387659</v>
+        <v>20.18632161496281</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.11371971510588</v>
+        <v>21.28792398353181</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.8399030629738924</v>
+        <v>6.06951186051565</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.42037492550497</v>
+        <v>18.69593589857875</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.53589235640869</v>
+        <v>22.31872893069526</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1.416398274713675</v>
+        <v>3.630468697469549</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.52415204566775</v>
+        <v>23.26807222598636</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.75719937063263</v>
+        <v>26.14373130180774</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.9234933558845</v>
+        <v>22.48912604790413</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.75923227168481</v>
+        <v>24.61587594601307</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.08997347292039</v>
+        <v>28.80540480036161</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>15.05805833304263</v>
+        <v>16.49853453142818</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.50376950539854</v>
+        <v>26.62075330832978</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.55851055045575</v>
+        <v>29.78781374175733</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.26810694207425</v>
+        <v>11.71161173795148</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.91700263980554</v>
+        <v>17.71944985598973</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.96125516593684</v>
+        <v>23.87475534632505</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-2.975378701745971</v>
+        <v>4.467046231891256</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>14.06411430717823</v>
+        <v>14.4270415507773</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.77294210737638</v>
+        <v>24.03594794329643</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.190069785325598</v>
+        <v>2.73535728000433</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.88503743617453</v>
+        <v>20.29615806905605</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.90586810394758</v>
+        <v>33.49912208605001</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>17.44373162504528</v>
+        <v>14.639392022769</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.08457294817232</v>
+        <v>23.52153268181109</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.09513628375175</v>
+        <v>28.53505689569909</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.342352258335492</v>
+        <v>8.20709311487656</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.24939317750267</v>
+        <v>22.66830486796431</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.69198304621749</v>
+        <v>29.15110813318667</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.66861098298398</v>
+        <v>22.75751055895277</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.35114037591384</v>
+        <v>31.99916844791984</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.87735455614998</v>
+        <v>36.91309034492388</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.608452522633911</v>
+        <v>8.408292039941596</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.6255165010682</v>
+        <v>27.63009338546658</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.81487976078254</v>
+        <v>32.2744851079233</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.843049683173383</v>
+        <v>12.58350905329711</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>47.43910856009131</v>
+        <v>44.16420964665619</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.1266340499793</v>
+        <v>50.2742311195925</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>51.21029453708945</v>
+        <v>47.00897769837054</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>61.05257063581852</v>
+        <v>53.76930699431528</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>62.18407739095956</v>
+        <v>59.56258892219419</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.13660768172167</v>
+        <v>28.37309367826263</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>55.64492218602413</v>
+        <v>49.22729904151865</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.14577156830858</v>
+        <v>51.9920421360321</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.10579023420026</v>
+        <v>10.59211795359763</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.572327711124242</v>
+        <v>9.392036489305585</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.559268474280401</v>
+        <v>9.713708290287713</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.590853936343866</v>
+        <v>4.886519687415618</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.2063524570597117</v>
+        <v>6.057786602807301</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>2.429410483259115</v>
+        <v>9.064489962542364</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-4.859812600442783</v>
+        <v>1.828094556222258</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.225281589200701</v>
+        <v>4.733275332981744</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>4.994031363966826</v>
+        <v>7.217830089771791</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1.350208839230842</v>
+        <v>2.586483508171003</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.6568965415713706</v>
+        <v>2.159546835069925</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.023994579311424</v>
+        <v>7.436399938731569</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.81598537657791</v>
+        <v>11.05009985565608</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.683425965310299</v>
+        <v>14.11205438171562</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>12.33816487087778</v>
+        <v>16.62658195460375</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.361791418287879</v>
+        <v>9.960497311253548</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.2844044489691</v>
+        <v>11.98292752902852</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.74940456996805</v>
+        <v>13.28188865967875</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-3.562476784930912</v>
+        <v>6.245853940756412</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.221518543823958</v>
+        <v>10.01616780624687</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>9.851385525657456</v>
+        <v>12.5139964513312</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-3.298942225474018</v>
+        <v>2.327950963037193</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.89286534498983</v>
+        <v>10.4845063291342</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.50094103873474</v>
+        <v>13.60977858383971</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.674750193739413</v>
+        <v>7.451472351968743</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>11.32044934683183</v>
+        <v>11.73914519579314</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.21375680748185</v>
+        <v>10.42136508704233</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-2.174592913559227</v>
+        <v>4.858449733369973</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.62479249982703</v>
+        <v>11.74130802162811</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.95810487843191</v>
+        <v>12.98699338922018</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.09154451980307</v>
+        <v>21.13052510234478</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.45729936789128</v>
+        <v>26.13735816393085</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.51238515281944</v>
+        <v>29.77474560476484</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>3.106072926471338</v>
+        <v>10.82155567041674</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>20.77823922200263</v>
+        <v>22.28809721590943</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.72401419404584</v>
+        <v>25.30271711258735</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.877938935342502</v>
+        <v>11.33551757451734</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.73389927622146</v>
+        <v>31.17393188833018</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.63513974955059</v>
+        <v>34.31229615592483</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.36484263273955</v>
+        <v>36.99754565728494</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>44.70100887045231</v>
+        <v>42.61667808183282</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>46.70050755831677</v>
+        <v>40.82612249076751</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.87588420568173</v>
+        <v>25.50730974314916</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.77942293274431</v>
+        <v>34.52000669351704</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>42.46325567265759</v>
+        <v>37.96239488830866</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.28588414018447</v>
+        <v>23.22188563110527</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.48890714889641</v>
+        <v>24.00605368687607</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.86063108699981</v>
+        <v>29.93736264767799</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.931704314337967</v>
+        <v>5.741838191977372</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.75509934160082</v>
+        <v>22.81908927997468</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.48584820132224</v>
+        <v>30.25542228845006</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>7.597607430608704</v>
+        <v>8.087167348138976</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.0303203167628</v>
+        <v>33.82062040434985</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.45136030763804</v>
+        <v>38.90581418686686</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.60604138414823</v>
+        <v>29.81276656690467</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.47855087965198</v>
+        <v>38.58728619153362</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.27478306350042</v>
+        <v>42.66641543601143</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.6121270626862</v>
+        <v>34.17994741914519</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>51.21893062767119</v>
+        <v>48.23231818131478</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>59.37596805657738</v>
+        <v>60.88393833797885</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.33188743905356</v>
+        <v>17.43390878872504</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.76957074337014</v>
+        <v>27.32479735827991</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.19117163536698</v>
+        <v>29.34944571086495</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>1.551471314331721</v>
+        <v>3.690405597474744</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.91374422548306</v>
+        <v>19.70804683931213</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.03616715181056</v>
+        <v>25.43347784201202</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>3.01983383957721</v>
+        <v>2.890747663367325</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.34391036053904</v>
+        <v>31.12068283076101</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.45672498365283</v>
+        <v>36.49880827542788</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.94497586706722</v>
+        <v>31.27797086314903</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.03785581401523</v>
+        <v>37.44121436056588</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>41.65289136759112</v>
+        <v>36.10531484567761</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.6154682574354</v>
+        <v>18.5118768228193</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.16605063096542</v>
+        <v>40.96251752683571</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>50.71064917862921</v>
+        <v>45.35650312330795</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.59437178978764</v>
+        <v>25.15905815491692</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.81912817038972</v>
+        <v>37.79830598921665</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.6626629250254</v>
+        <v>42.72252414597907</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.149102698114518</v>
+        <v>8.396100132106017</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.20561133641561</v>
+        <v>33.1825988639235</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>42.78902073503521</v>
+        <v>39.81919403212252</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>9.973561129692527</v>
+        <v>10.13810202296163</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.97502970117054</v>
+        <v>54.56339830824335</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>63.68984852807949</v>
+        <v>57.54869948687509</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>64.74208896442705</v>
+        <v>61.8580330686876</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>71.90056296143935</v>
+        <v>67.34649008757411</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>79.69081921772025</v>
+        <v>72.91212682926933</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.07895832259171</v>
+        <v>30.11119752728074</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>70.90630456159957</v>
+        <v>59.9407614671986</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>77.29293292382559</v>
+        <v>66.34667292461801</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.61696470631685</v>
+        <v>21.19899745836115</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.73759490879005</v>
+        <v>37.68200240544409</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.31731749793491</v>
+        <v>38.5065925699416</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.63514241661206</v>
+        <v>12.04707987585581</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.92880685326881</v>
+        <v>40.08048052484739</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>43.61764344191261</v>
+        <v>44.84419471629935</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.16071200010682</v>
+        <v>12.72419475542996</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.95519310530258</v>
+        <v>54.2945901656369</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>54.15377431539978</v>
+        <v>56.0806134222437</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>57.64300656310587</v>
+        <v>60.98775546588452</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>63.18222698505902</v>
+        <v>64.59452990956859</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>63.33845611177105</v>
+        <v>65.62373888765242</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.18257787452084</v>
+        <v>25.69752895802832</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>57.01031218709255</v>
+        <v>61.74945941064339</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>63.12757986265049</v>
+        <v>65.84148003297544</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.47481872963272</v>
+        <v>20.11942897603584</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.36576870559586</v>
+        <v>34.52883440660529</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.42083692692064</v>
+        <v>37.61638285822964</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.446813355180563</v>
+        <v>10.0039696215225</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.13804636493541</v>
+        <v>32.40382499874742</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.8612590253919</v>
+        <v>37.92180366549419</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.87830246173042</v>
+        <v>10.7903490365027</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.55625181752703</v>
+        <v>45.32264384942908</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.61114855891395</v>
+        <v>53.1109346667552</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.89676122409167</v>
+        <v>41.90450256923585</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.12624333903263</v>
+        <v>51.22358873141651</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.72694378492005</v>
+        <v>48.50297057664996</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>14.67289689242906</v>
+        <v>19.92004667352546</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>49.93156049742698</v>
+        <v>53.08077068247829</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>56.29048778317322</v>
+        <v>57.47771227490848</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.32623431186863</v>
+        <v>22.50273468564812</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.53910372561243</v>
+        <v>40.22171587295644</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>46.88082403923539</v>
+        <v>44.36627767378705</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>7.952690487593681</v>
+        <v>11.42330708589607</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.77167335580477</v>
+        <v>38.81276260637293</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>49.10522117773974</v>
+        <v>45.63343646807421</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>14.2197610594007</v>
+        <v>12.70057227426724</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.94993742861371</v>
+        <v>53.96258574989282</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.37380785713771</v>
+        <v>61.316634151983</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.50734073803251</v>
+        <v>63.64173953092757</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>74.41557039679088</v>
+        <v>72.49554513308419</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>79.60311351622219</v>
+        <v>77.36191512890056</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.9606920265635</v>
+        <v>22.01221267256237</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>66.52932916521083</v>
+        <v>66.31256413184485</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.87108428554146</v>
+        <v>72.81398323827894</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.38291295825754</v>
+        <v>26.50210583794716</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.30627339542397</v>
+        <v>31.21668822581674</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.38387320305532</v>
+        <v>36.00199254692458</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.87042332174995</v>
+        <v>12.34505637133421</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.02567096163722</v>
+        <v>40.44361993755875</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.07688439069018</v>
+        <v>46.59945907122641</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>15.01882863953736</v>
+        <v>13.97303276658495</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.02871885466543</v>
+        <v>52.85181105251878</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.47679964839196</v>
+        <v>55.46213573277929</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>58.17557139830609</v>
+        <v>55.43598093019855</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>61.71335053297807</v>
+        <v>58.84980051009174</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>62.97370216368193</v>
+        <v>60.37198586478458</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.24037155622799</v>
+        <v>27.41455377794136</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.19058412539265</v>
+        <v>40.55140592927828</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>57.5166236020202</v>
+        <v>59.26683875150675</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.00211421601247</v>
+        <v>25.51683654335936</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.96685657130907</v>
+        <v>37.17295065761929</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>43.91222347295865</v>
+        <v>39.20441616581358</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>8.044013258513164</v>
+        <v>9.434263445113064</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.55997298713131</v>
+        <v>34.37782246282542</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>43.98747350647004</v>
+        <v>39.21150597144973</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>10.38717048127564</v>
+        <v>9.331738460216553</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>51.6937171330698</v>
+        <v>50.01070251272726</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>61.35872414679351</v>
+        <v>55.36485265941124</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.54451423974994</v>
+        <v>48.24516345562509</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.04897624470831</v>
+        <v>54.29500614522332</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>60.27302030451722</v>
+        <v>54.1364764174793</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.96747233411636</v>
+        <v>27.19283307483396</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>66.43281680435345</v>
+        <v>59.78839736717708</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>68.4626843359186</v>
+        <v>63.65900885433282</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.31447817823927</v>
+        <v>27.97401666056474</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.39080908640553</v>
+        <v>43.20691461734724</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>51.5990640839115</v>
+        <v>45.98514736218794</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.281902930863627</v>
+        <v>11.01024513325209</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.27076377963791</v>
+        <v>41.91078601491688</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.66873523473161</v>
+        <v>47.68411436444946</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>10.02743940359398</v>
+        <v>9.755367542836975</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.34024932251775</v>
+        <v>62.63106172767988</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>72.58674175385769</v>
+        <v>65.8472973898368</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>73.51809132458298</v>
+        <v>70.65489677243799</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>80.91971419265467</v>
+        <v>75.83054472078592</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>86.53563936478157</v>
+        <v>78.5404556561264</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.5316815022249</v>
+        <v>28.48289361846155</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>79.02623915835387</v>
+        <v>71.58636095794856</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>82.29998498356997</v>
+        <v>74.71576781789305</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.89693981613452</v>
+        <v>23.86183544079492</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.8535131608831</v>
+        <v>26.53074406778583</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.02379091195686</v>
+        <v>29.75693721109519</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.84855253330426</v>
+        <v>17.05254852742367</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>51.41654467956421</v>
+        <v>52.03747668913527</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>51.05097659861921</v>
+        <v>52.03506286418015</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.08027967989599</v>
+        <v>11.93709633730022</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.06126092949018</v>
+        <v>52.79258640643023</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>54.13254282651944</v>
+        <v>51.0308172216495</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>58.22130648953134</v>
+        <v>56.00322636599432</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>62.31475183960765</v>
+        <v>60.64479621967033</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>63.97937046627683</v>
+        <v>58.69832567178703</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.95358050580469</v>
+        <v>30.60617903660554</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>49.1071778227589</v>
+        <v>41.70224645432193</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>59.74040025471179</v>
+        <v>56.43095758058192</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.64255152720093</v>
+        <v>26.40500612489662</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.49892014049412</v>
+        <v>36.14339112407752</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>41.70383366151172</v>
+        <v>37.89565473536891</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.97710340040265</v>
+        <v>33.14440763108877</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>49.02115430911281</v>
+        <v>50.25740520019783</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>58.57691087921423</v>
+        <v>56.43827586589636</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>15.7049135905979</v>
+        <v>11.32972765922613</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>50.24346466407385</v>
+        <v>49.45608162897473</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>60.55228139277513</v>
+        <v>56.06598659223889</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.04342597317417</v>
+        <v>46.97947313578011</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.23788791147076</v>
+        <v>54.52503110004171</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>58.95383116671611</v>
+        <v>52.59597523853896</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.17504071472869</v>
+        <v>30.40111293014769</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>63.49953200045054</v>
+        <v>57.71764745909717</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>69.1102591721021</v>
+        <v>62.89976501066783</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.91107878266165</v>
+        <v>30.01762012280129</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.12567905930605</v>
+        <v>42.64311512420593</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>50.34768221861373</v>
+        <v>44.76597989902635</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.02120900847042</v>
+        <v>33.78036380469531</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.53751072593885</v>
+        <v>55.36647006286209</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>62.6765076342845</v>
+        <v>57.71343385073788</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.42716628593718</v>
+        <v>12.23238597878672</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>61.86153345846193</v>
+        <v>61.94539265530393</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>70.81009846030537</v>
+        <v>62.88887011975233</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>78.09496393503316</v>
+        <v>75.13178962090701</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>78.90807338805911</v>
+        <v>75.31967433419943</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>87.21822823325004</v>
+        <v>79.71088111891156</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.08185039393604</v>
+        <v>38.36930205253062</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>77.13775770365905</v>
+        <v>73.38735239065974</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>83.65769937409947</v>
+        <v>76.36822966499454</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>15.94442480998045</v>
+        <v>19.49170982045333</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.20759273688641</v>
+        <v>30.6285632240109</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.78490603352179</v>
+        <v>36.33297138287216</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-1.221984282889743</v>
+        <v>5.402656615524847</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.04946154772866</v>
+        <v>22.66032565274355</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.04810063297644</v>
+        <v>40.32248256209365</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.112581355383952</v>
+        <v>7.937593011947541</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.00136513876394</v>
+        <v>45.97413471144117</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>51.00092491926219</v>
+        <v>53.426811711783</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.53611378477284</v>
+        <v>52.7191009943753</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.97120486519739</v>
+        <v>57.36009776821301</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.89563823163061</v>
+        <v>60.23558103723976</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.32735094055699</v>
+        <v>18.20475778878013</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.65905387021813</v>
+        <v>55.44559352058632</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>58.53853738185704</v>
+        <v>63.75522139357478</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.05552437869339</v>
+        <v>18.64739990105714</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.91707261692757</v>
+        <v>33.1265314013172</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>38.83724171205007</v>
+        <v>35.78970043608935</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1.387375966555769</v>
+        <v>4.406585135519929</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.12911993720914</v>
+        <v>28.47625758022143</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.90164889314843</v>
+        <v>33.41315028917647</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>5.626627502468509</v>
+        <v>6.113160436876246</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.00853518241465</v>
+        <v>43.61491804521782</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.31317234681394</v>
+        <v>50.04777789115147</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.14457417460193</v>
+        <v>38.60486785899717</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>44.06699358944122</v>
+        <v>45.82016167745992</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>47.10800803978159</v>
+        <v>45.31255989495</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>5.70909752686017</v>
+        <v>11.27453988190316</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.50534016126822</v>
+        <v>36.39002508671726</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>50.35624163522847</v>
+        <v>51.82947777373187</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>18.86040722016421</v>
+        <v>19.07419632294202</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.83445251678206</v>
+        <v>36.61223977220595</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.77306936668845</v>
+        <v>41.79994400154946</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1.165796185004726</v>
+        <v>5.014507164542117</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.39095116229924</v>
+        <v>36.53086303508496</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.13659311499202</v>
+        <v>43.91467987792362</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>4.913857525112487</v>
+        <v>5.768953964731278</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.5465101571757</v>
+        <v>51.72641620554769</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>65.29670396690857</v>
+        <v>59.6903068720551</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.0195893212997</v>
+        <v>58.42214272110482</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>72.02831285762734</v>
+        <v>68.58876247328749</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>79.42485196654232</v>
+        <v>75.55449888550288</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.297532340309058</v>
+        <v>9.874283772697439</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>63.03928563459036</v>
+        <v>61.49458070609641</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>72.39932368538541</v>
+        <v>70.16091465370731</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.12714190796098</v>
+        <v>19.64715522596418</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.4446256417011</v>
+        <v>18.88474569221223</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.81296963678531</v>
+        <v>19.98483459905141</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4.1759034366039</v>
+        <v>11.53508679450074</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.26468119978211</v>
+        <v>19.90945963178415</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.65793175818261</v>
+        <v>23.0678559828976</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.461877403397594</v>
+        <v>12.15500016344664</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.05872169640335</v>
+        <v>26.17247859537368</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.92761933295215</v>
+        <v>27.29787091402459</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.69829991103536</v>
+        <v>23.81141543272407</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.50116703601236</v>
+        <v>27.68059537040885</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.34405161193146</v>
+        <v>28.89980346343691</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.26086620902185</v>
+        <v>22.56449791161468</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.61327880803627</v>
+        <v>25.21094925239082</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.00445850525463</v>
+        <v>30.1028634749883</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.94740071208428</v>
+        <v>18.23884238791535</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.83426041040529</v>
+        <v>30.48842668986956</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.30458949961525</v>
+        <v>35.53023820440382</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.14311213507957</v>
+        <v>11.74436638214867</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.27295734171166</v>
+        <v>31.49519953510135</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.66845238541639</v>
+        <v>40.47747507330564</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.16554582561425</v>
+        <v>14.03857084592002</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.28532501421574</v>
+        <v>44.49876874759902</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.11545059748325</v>
+        <v>54.76992627067823</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.86380900058984</v>
+        <v>42.02890039063682</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.5674678370432</v>
+        <v>46.05010850732474</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>50.44357548644749</v>
+        <v>52.50610247520253</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>17.33342762029341</v>
+        <v>18.18648296533384</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.26757117347331</v>
+        <v>44.67639098178374</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>53.36439843492862</v>
+        <v>52.25248617012384</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.21153106460027</v>
+        <v>23.76332998520529</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.67550777282404</v>
+        <v>36.14653199006498</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.92571259053993</v>
+        <v>43.50313903559254</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>10.12038816665397</v>
+        <v>12.63088228137496</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.79249239525436</v>
+        <v>34.05287998931571</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.43566632559015</v>
+        <v>46.7189022630368</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>13.16525649975569</v>
+        <v>17.1717931212364</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.32106560905624</v>
+        <v>51.7350072826037</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>63.6548161822291</v>
+        <v>63.50197302327159</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.73913051062003</v>
+        <v>52.18450476845253</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.75222912443766</v>
+        <v>56.88804331037249</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>77.58710952069372</v>
+        <v>75.46561588387422</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>19.04419231742196</v>
+        <v>26.16671331093031</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>53.89989213854328</v>
+        <v>51.18865880082535</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>70.63316894663051</v>
+        <v>70.57119569219191</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>13.61366485326435</v>
+        <v>17.70466147328045</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.46485448855591</v>
+        <v>16.33880826866267</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.65658218309816</v>
+        <v>18.79195393398226</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.442129983376358</v>
+        <v>3.699459132520378</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.84299424708402</v>
+        <v>26.91626892546626</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.16596223800768</v>
+        <v>27.90897848827922</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1.888424653369551</v>
+        <v>3.260587919784399</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.58631422486734</v>
+        <v>32.01668273386679</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>35.23397881958517</v>
+        <v>31.38260826431952</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.45214103002387</v>
+        <v>30.67694326405093</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.85466613047056</v>
+        <v>39.2328466794418</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.98846563300196</v>
+        <v>39.3701710121347</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.06794746404522</v>
+        <v>22.69557943199633</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.34882533604716</v>
+        <v>36.39184166858539</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.73156248997952</v>
+        <v>45.97038205063436</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>13.05936495389902</v>
+        <v>11.45506890529051</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.29561840676586</v>
+        <v>21.2357876573387</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.02507082690077</v>
+        <v>30.26527695864307</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.2206379039161</v>
+        <v>10.31969338269467</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.30251480075133</v>
+        <v>23.87128100095704</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.99641977268278</v>
+        <v>46.76948621277599</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1.788028298320668</v>
+        <v>0.755885974642851</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.90019778963604</v>
+        <v>31.23575454668879</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>48.36682163477867</v>
+        <v>51.18294376418577</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.31007823361055</v>
+        <v>31.6778625962776</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.54357345184467</v>
+        <v>41.77420027207928</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.99941158899293</v>
+        <v>49.93360380146419</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>14.7413649790304</v>
+        <v>13.34251800530851</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>47.34175159959204</v>
+        <v>43.0222293090483</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>58.5455136148359</v>
+        <v>57.28668543413955</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.10298793315408</v>
+        <v>21.40671110022439</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.28124772720792</v>
+        <v>31.0436061618693</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>40.72725278444653</v>
+        <v>39.53408939169313</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>11.30088549270234</v>
+        <v>10.36096496865097</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.20823280753474</v>
+        <v>26.86400293663251</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.851175289096</v>
+        <v>42.69437472858961</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>0.1141935017992246</v>
+        <v>2.412508094850836</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.73132865748683</v>
+        <v>42.03141602643993</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>55.99699462531012</v>
+        <v>55.17868393109617</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.29699593057038</v>
+        <v>57.09109944579163</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.42094539858775</v>
+        <v>57.33917490328186</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>70.80091110848772</v>
+        <v>69.00884624396146</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>21.19686882632093</v>
+        <v>19.35380224677137</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>57.44700164347806</v>
+        <v>50.27373253993368</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.93210817120462</v>
+        <v>66.40856865513399</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>19.97422099342118</v>
+        <v>24.06349579668453</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.10100277437934</v>
+        <v>30.65343780039044</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.0491257403013</v>
+        <v>34.38294723875609</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.56925176899276</v>
+        <v>12.34406005986842</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.59775965852689</v>
+        <v>43.19622516854525</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>47.3512506170172</v>
+        <v>44.73630277482046</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>17.89205999601683</v>
+        <v>13.78541488527367</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.06155380339423</v>
+        <v>55.74475177482507</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>57.19112992692209</v>
+        <v>53.09078941360611</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>59.67559519339278</v>
+        <v>54.17932342907257</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>64.60757888633793</v>
+        <v>59.67648626456628</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>68.12504734502659</v>
+        <v>61.53468109475104</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.71031243442487</v>
+        <v>32.61276600528693</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.55226808987235</v>
+        <v>43.07749262934109</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>63.03817701300545</v>
+        <v>64.21604234009934</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.08753517971028</v>
+        <v>26.92552972795886</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>38.13900410154108</v>
+        <v>38.7304491683669</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>42.43747886087465</v>
+        <v>38.51331810988349</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.93358716546436</v>
+        <v>11.13407629451908</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.65252224447249</v>
+        <v>38.07568823687274</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>43.75213737473361</v>
+        <v>37.42948989671627</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>15.74280211702376</v>
+        <v>10.85857282454</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>50.58510722932591</v>
+        <v>50.23485934673718</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>56.13916365525426</v>
+        <v>49.58817984587393</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.23502166313983</v>
+        <v>46.72689706813358</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.76573941238698</v>
+        <v>52.93664018763288</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>52.89470447942066</v>
+        <v>50.23106702790437</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.66766845417358</v>
+        <v>28.32501690473378</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>56.84416247272009</v>
+        <v>53.97362282161517</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>59.91214869066869</v>
+        <v>53.2187784513433</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>23.69358668731109</v>
+        <v>26.29844541819858</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.50816005957016</v>
+        <v>40.5948663668686</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>47.49130916141173</v>
+        <v>42.86339945446303</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>14.39842270961946</v>
+        <v>11.76093283767839</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.38807916859625</v>
+        <v>43.84893443361122</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>50.69086999581071</v>
+        <v>44.58746859743684</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.68993149895544</v>
+        <v>11.27113992505236</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.03207648856994</v>
+        <v>59.62367207684841</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>65.07770598879965</v>
+        <v>59.00804575302767</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>71.50454232045766</v>
+        <v>69.03341978629609</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>75.95930473090117</v>
+        <v>69.48914638207067</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>80.39108448158051</v>
+        <v>72.20128647563308</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.85934650794781</v>
+        <v>32.0721848833124</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>71.50980936271165</v>
+        <v>64.46068550372624</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>78.07576934327629</v>
+        <v>69.61423282520354</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>17.42562275702753</v>
+        <v>20.02602465189432</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.37522401313646</v>
+        <v>31.14721483937762</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.78515973196379</v>
+        <v>35.33783751483832</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>3.204576993290623</v>
+        <v>7.893049531041303</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.62566064885607</v>
+        <v>30.99601853519146</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>38.66623705689177</v>
+        <v>41.36340293102712</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>9.883774120244468</v>
+        <v>8.63584503080876</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>48.45190701263434</v>
+        <v>47.73011121505203</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>52.60536860983154</v>
+        <v>51.76146049032364</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.7249949943271</v>
+        <v>50.29086669017491</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.97420582089348</v>
+        <v>57.95541208497328</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>58.57938118798299</v>
+        <v>57.41958652440022</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.37361562213189</v>
+        <v>17.66349955753601</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>48.00613017013339</v>
+        <v>52.77647649956594</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>59.76225746529624</v>
+        <v>61.46158597416679</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.940600091158</v>
+        <v>18.80672865745645</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.58239628854331</v>
+        <v>34.29914031345945</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>41.16808192738384</v>
+        <v>35.71120883363917</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.148632050013848</v>
+        <v>6.578649867257745</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.13285978827769</v>
+        <v>33.19385767687772</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.81508970396215</v>
+        <v>35.67917201224936</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>9.503041323858628</v>
+        <v>8.548535365857784</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>46.28352256561469</v>
+        <v>47.59088325980042</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>55.79726152536593</v>
+        <v>51.62256380736528</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>41.08101547589294</v>
+        <v>43.73440318260182</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>50.39858121482851</v>
+        <v>51.39068174773155</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.95149110251174</v>
+        <v>50.4132744551052</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>14.49734582383905</v>
+        <v>15.38148556235941</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>52.77225197710725</v>
+        <v>52.84025481053655</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>57.90096265828442</v>
+        <v>54.94344573428538</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.53622300595923</v>
+        <v>17.93825726075302</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.71830087647641</v>
+        <v>33.87805562345993</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>46.83254969451753</v>
+        <v>39.65117348424592</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-0.3130441479371697</v>
+        <v>5.898395360821503</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>32.50629976643134</v>
+        <v>34.58924099971178</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>44.40822539498605</v>
+        <v>42.439056610383</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>3.287791760220056</v>
+        <v>6.126293411501166</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.30222931912284</v>
+        <v>47.3720297674579</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>61.66706159497596</v>
+        <v>57.30048250360759</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.26839376377676</v>
+        <v>52.03725025234861</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.36703608079725</v>
+        <v>62.44052732897207</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>76.78761636312267</v>
+        <v>71.6929658494783</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>13.55833740026416</v>
+        <v>12.24154438863608</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>62.37814044370133</v>
+        <v>56.15035401590108</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>71.6892097351346</v>
+        <v>66.97967890221135</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.535</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.826</v>
+        <v>17.915</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.621</v>
+        <v>-0.912</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.315</v>
+        <v>24.236</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.974</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.593</v>
+        <v>7.906</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.21064950334124</v>
+        <v>10.99316381981173</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.36682051209454</v>
+        <v>18.70341181013434</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.19453201213647</v>
+        <v>22.03283439847793</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.475045403776722</v>
+        <v>-2.785519415420719</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.45224525449094</v>
+        <v>22.24477992500642</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.06420907439095</v>
+        <v>22.39374014773668</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.713539209151516</v>
+        <v>-0.5882368840265499</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.42848880626907</v>
+        <v>31.89570243819607</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.94779057139362</v>
+        <v>32.71974609588707</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.39793838721814</v>
+        <v>29.29397299679482</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.26993692774336</v>
+        <v>35.53295575561926</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.46773578160476</v>
+        <v>37.07074408680624</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.33141737045054</v>
+        <v>14.84803388941022</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.27697698868131</v>
+        <v>29.87078596747715</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.91321387541708</v>
+        <v>36.92100047959713</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.04801447496103</v>
+        <v>21.66957418543234</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.02628201160434</v>
+        <v>36.2452615235561</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.00587567056879</v>
+        <v>43.36964858672786</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.09752420836508</v>
+        <v>9.87367277538732</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.05609434628932</v>
+        <v>32.46944044294806</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44.76450779273092</v>
+        <v>44.23461333833609</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.52765442042718</v>
+        <v>12.79960597987231</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44.44039396473076</v>
+        <v>48.01366225937879</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60.43181074261175</v>
+        <v>61.94274140905286</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>47.35076788599989</v>
+        <v>46.18393495326544</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>57.69323274868577</v>
+        <v>58.67607115041541</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>63.06733078847301</v>
+        <v>61.00330609351035</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.02133820126894</v>
+        <v>24.62548087733156</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>61.12786771632843</v>
+        <v>63.89726419562733</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>69.22442517584356</v>
+        <v>69.12934822132874</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.80802819440706</v>
+        <v>25.44171556165768</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43.79009600679523</v>
+        <v>46.62795185649786</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.5547609037357</v>
+        <v>52.08220074855591</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.68257316560188</v>
+        <v>13.54752854589411</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.328473975298</v>
+        <v>44.33754992306814</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.56101108543945</v>
+        <v>52.63987939331126</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.0384745015558</v>
+        <v>16.02097671193506</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>63.36150555702707</v>
+        <v>63.26445750608848</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68.50073220211225</v>
+        <v>73.18325361169582</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>69.80725549503998</v>
+        <v>73.65521015638032</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>79.80436797570599</v>
+        <v>83.12345676468365</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>83.39659354612937</v>
+        <v>90.99819952326422</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.97492235796427</v>
+        <v>35.64206904079197</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>79.46573491008928</v>
+        <v>81.60926069114072</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>81.14821007454614</v>
+        <v>87.66767016375131</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.66983398797444</v>
+        <v>12.74284377283165</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.26611594013638</v>
+        <v>33.83046663202386</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.91926868018106</v>
+        <v>40.08720969966377</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.06846252250951</v>
+        <v>5.658960389877542</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41.80990646145305</v>
+        <v>43.36721407433883</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>45.68782064570678</v>
+        <v>47.53499737527061</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.586876168629768</v>
+        <v>11.2994722683275</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.72471376332395</v>
+        <v>58.06484208713646</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>57.97556481380951</v>
+        <v>60.88523308764057</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.21014189016792</v>
+        <v>59.539385429934</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>56.92002412664719</v>
+        <v>69.27301381239889</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.22698657525856</v>
+        <v>68.71907476528885</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.57016031423622</v>
+        <v>20.14023638423127</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>57.9496953689862</v>
+        <v>53.72530764576335</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>64.06719911336151</v>
+        <v>62.22684477600787</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.07587174194631</v>
+        <v>17.52725404787607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.08382379592154</v>
+        <v>40.59933828202911</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.77189424061062</v>
+        <v>49.30828220532526</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.421843401300116</v>
+        <v>0.9639675250865523</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.62483474969413</v>
+        <v>35.96967127637463</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>45.38176196416119</v>
+        <v>46.31867724772673</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.602843131191808</v>
+        <v>10.92570027090397</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53.78018962783034</v>
+        <v>55.91602232361544</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>67.5511797770168</v>
+        <v>67.31091971568942</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>47.90557476532521</v>
+        <v>49.7819930975845</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>59.92447973076307</v>
+        <v>62.71005398014273</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>62.62134344964476</v>
+        <v>62.99149413364631</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.06652327239967</v>
+        <v>15.05203165056557</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>61.99724535752138</v>
+        <v>63.63146703284809</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>68.72260853515687</v>
+        <v>69.95478323732826</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.00945251998166</v>
+        <v>17.82161286119856</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.72982288793551</v>
+        <v>46.54026759603273</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.90850166902677</v>
+        <v>54.87119426151076</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5.220928500587959</v>
+        <v>0.2998046984827027</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.94863671726401</v>
+        <v>45.37046761241142</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.66561995452299</v>
+        <v>53.01270962822007</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.313287980530472</v>
+        <v>11.56008760621</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>65.65220340972527</v>
+        <v>68.47053681324309</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>70.28721699722055</v>
+        <v>76.26802828503379</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>71.04522799588702</v>
+        <v>73.66787321340583</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>83.96032694394108</v>
+        <v>87.25591664892164</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>83.73264325387231</v>
+        <v>89.82822692314008</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.52700007352606</v>
+        <v>20.81501303206868</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>77.41465749192851</v>
+        <v>80.92982927517883</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>80.09568995321857</v>
+        <v>84.5992338696167</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.31997961041651</v>
+        <v>15.45871629055095</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.47403077183218</v>
+        <v>31.37126723568793</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.21103191711978</v>
+        <v>36.438281829609</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.16815447472031</v>
+        <v>8.562980512302147</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.93131093983304</v>
+        <v>41.17390101898265</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.28367629527976</v>
+        <v>43.25178955744317</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.22751385619219</v>
+        <v>14.12855452440528</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>61.38955078707788</v>
+        <v>56.0004732125332</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>58.2351605410229</v>
+        <v>56.70441494286031</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>53.53859646114364</v>
+        <v>51.6430833375498</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>62.49619162479475</v>
+        <v>62.02433742718608</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>62.49457937287744</v>
+        <v>61.1641539784675</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.90532636260524</v>
+        <v>24.88417957443445</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>60.9742007140709</v>
+        <v>53.8948042310888</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.81741055739469</v>
+        <v>59.67041164909456</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.22994645257235</v>
+        <v>22.95498067894011</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.52421958956655</v>
+        <v>44.47233386917908</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.81409727070757</v>
+        <v>50.44683649108441</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.721705078321609</v>
+        <v>7.905867738062884</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.95224702008713</v>
+        <v>41.60191859071132</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.73297348212552</v>
+        <v>48.03575907790551</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.27616923256202</v>
+        <v>16.41407472592983</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>61.63461483624698</v>
+        <v>60.31885925804258</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>66.84511189072931</v>
+        <v>67.98454623423338</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.08994021840439</v>
+        <v>53.67483432046956</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>63.25626274297197</v>
+        <v>65.6317514976774</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>62.46552649667485</v>
+        <v>64.35725904895301</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.04963717844315</v>
+        <v>24.02507149458418</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>65.11389855364229</v>
+        <v>68.10152675818485</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66.48781166449723</v>
+        <v>69.93835130937319</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.37295605968411</v>
+        <v>24.39952447970555</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.87805320618457</v>
+        <v>51.29896126154462</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.73994623277147</v>
+        <v>57.66560677780835</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.64606751738814</v>
+        <v>7.329624313881318</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>49.65078084520646</v>
+        <v>51.01703577769464</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>50.21020014721267</v>
+        <v>55.6811907968224</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>14.71400226338968</v>
+        <v>15.93372131326427</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>72.20210304384054</v>
+        <v>71.67202773214056</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>71.24010503704321</v>
+        <v>76.67846699210394</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.76520633225854</v>
+        <v>80.44676979987126</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.70761799554558</v>
+        <v>91.75057273847682</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.90681276249569</v>
+        <v>93.06980615091381</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.54666074840428</v>
+        <v>32.60435243178254</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>81.61261804341817</v>
+        <v>88.18153230336526</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>82.51260988141081</v>
+        <v>88.85701379317111</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.03994688561804</v>
+        <v>15.22802423061221</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.45234455558125</v>
+        <v>20.9377248575054</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.56270924102298</v>
+        <v>23.03188453317508</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8.695479235694805</v>
+        <v>4.084772105948453</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.94722184316859</v>
+        <v>25.97362839616345</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.09905195860847</v>
+        <v>24.66180919747758</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.220089458156956</v>
+        <v>6.04752204108614</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.50362395724009</v>
+        <v>35.26762913220148</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.87819258462511</v>
+        <v>34.99503378612147</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.83093777145017</v>
+        <v>33.77117205745184</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.77824292210718</v>
+        <v>37.03517694291679</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.13224647545952</v>
+        <v>41.26073248639582</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>57.87725918277462</v>
+        <v>39.41652441491691</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>58.02179345935113</v>
+        <v>48.79678677582059</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.15376755407294</v>
+        <v>55.24631994503519</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.77523018972701</v>
+        <v>20.7628644629443</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.07474356758589</v>
+        <v>34.54631763673861</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.76554144703589</v>
+        <v>40.38248736717035</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>13.48780034725966</v>
+        <v>11.92821921581938</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.76463263856762</v>
+        <v>32.57636719756967</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>47.88825400371438</v>
+        <v>42.68248525007986</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.29667419689785</v>
+        <v>14.27875937839857</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>45.85457863064944</v>
+        <v>47.43480073091534</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.31752063240906</v>
+        <v>60.06553356525444</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.65209910278239</v>
+        <v>39.88711871480964</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>49.42071257307708</v>
+        <v>50.57376506115797</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>57.23677592372208</v>
+        <v>58.23376759502383</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.70100815280923</v>
+        <v>27.18440949631422</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>57.56696300421466</v>
+        <v>61.91333119032824</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>63.52874991430291</v>
+        <v>66.54356611357211</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.89173450390131</v>
+        <v>25.33044147109149</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.54311596223433</v>
+        <v>42.34325107612483</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>49.44216426716301</v>
+        <v>48.64517950443421</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.61412925857098</v>
+        <v>13.75303238509554</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.75514014159106</v>
+        <v>38.76332132961339</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.38574731378169</v>
+        <v>47.81007138609807</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.84308488795942</v>
+        <v>17.42619775761778</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.63383793466308</v>
+        <v>59.09575642750033</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>69.86427727613258</v>
+        <v>70.10146102596367</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.71405487337768</v>
+        <v>65.77596882706219</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>70.60701693861213</v>
+        <v>73.20210296625271</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>81.04844483718341</v>
+        <v>86.76423598852219</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.4477566787623</v>
+        <v>39.18485590597283</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>72.52684646929971</v>
+        <v>75.32707393196139</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.11332996979996</v>
+        <v>82.97696007941521</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.91880475103514</v>
+        <v>23.86649406158036</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.31376104982445</v>
+        <v>38.65290021227617</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>41.17534187455118</v>
+        <v>39.93226935408415</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.88131225982776</v>
+        <v>14.59119977229413</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>47.1913878345218</v>
+        <v>48.20069484947214</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49.55244412640823</v>
+        <v>46.45769360229903</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.48441317075398</v>
+        <v>19.49864786771056</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>64.18400966979593</v>
+        <v>60.54732754793255</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>61.29528801644646</v>
+        <v>59.37966546931432</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.16528070509129</v>
+        <v>55.51271806439191</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>63.23509712932263</v>
+        <v>60.6583031762116</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>61.60465956695499</v>
+        <v>63.01404278732976</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.28831640365933</v>
+        <v>27.66836499853296</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.05122681032848</v>
+        <v>40.8757531572098</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.95414136306827</v>
+        <v>45.62943656572749</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.01035834214645</v>
+        <v>29.08169125784739</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.10091562227211</v>
+        <v>51.06888394424689</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>45.20191454634818</v>
+        <v>51.94684663111032</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.94833833017941</v>
+        <v>14.46348955028289</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.35762848942233</v>
+        <v>47.34697936863187</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>46.2391311589278</v>
+        <v>51.31303893315419</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.79221347650962</v>
+        <v>19.26528178732315</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.65836409662182</v>
+        <v>64.24927922443315</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>63.76239704396423</v>
+        <v>70.78941679465943</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>61.9283500664593</v>
+        <v>60.27045290383103</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>70.23357162780808</v>
+        <v>71.65632390962058</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>68.31092600538182</v>
+        <v>74.13530010982912</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40.72983621949176</v>
+        <v>37.76038786548586</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>73.53108857164533</v>
+        <v>78.69821143407515</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>73.03804521977243</v>
+        <v>75.67901626079606</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.891648366089</v>
+        <v>30.33783332837099</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.2677094590521</v>
+        <v>53.99544054990855</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.50621855585671</v>
+        <v>57.949511585699</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12.03832327158545</v>
+        <v>13.93570673260973</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.41748027654128</v>
+        <v>49.1318052733162</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>50.12834170319594</v>
+        <v>55.1519400033021</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>13.96937042619818</v>
+        <v>18.34456599139745</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>72.11790846344627</v>
+        <v>69.69503987385657</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>72.29639053753397</v>
+        <v>77.81149696766454</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>76.93288487220721</v>
+        <v>81.09290173191886</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>83.55799905935356</v>
+        <v>88.99451593130902</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>86.07558302507503</v>
+        <v>99.5977304632203</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.51339156790232</v>
+        <v>43.02303365822901</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>87.93287752579619</v>
+        <v>86.86391424225502</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>81.07572651824654</v>
+        <v>89.7427771601822</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.21599377442499</v>
+        <v>15.22666777745814</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.40315832376275</v>
+        <v>32.46264674886327</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.44406732797464</v>
+        <v>36.46639117000724</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>11.97219178530449</v>
+        <v>11.83851349404974</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.99246950916846</v>
+        <v>45.52323229302696</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.33250334135798</v>
+        <v>46.23840617995889</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>12.38566660123685</v>
+        <v>18.09765989979275</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.46768226329024</v>
+        <v>60.59725043006229</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.1322909614669</v>
+        <v>60.87772614570979</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.63248460561329</v>
+        <v>56.66279153979881</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>60.84416266420545</v>
+        <v>64.0943051970185</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>61.72443811121886</v>
+        <v>67.37680082339473</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.59102928741479</v>
+        <v>13.91114132244495</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.28808536891026</v>
+        <v>20.62641279479971</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10.58529932670119</v>
+        <v>25.3656744794101</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.18053409835346</v>
+        <v>22.73156593044328</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.15329008858426</v>
+        <v>52.31439877445095</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>48.83757196361491</v>
+        <v>53.62840084672648</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.938093012597715</v>
+        <v>3.6354419895215</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>45.41983247315926</v>
+        <v>47.84556223126094</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>49.16018233476709</v>
+        <v>48.97758597921971</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.46365493534718</v>
+        <v>14.37638289441969</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>65.44761457876558</v>
+        <v>67.54578468818379</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>68.86182153257377</v>
+        <v>70.47591037873904</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>50.73424742917582</v>
+        <v>56.5492214726268</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>65.32267452091094</v>
+        <v>71.38628529181904</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>67.88986301092552</v>
+        <v>73.58627877117928</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.06427834945804</v>
+        <v>30.01487194767997</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>71.89500206575927</v>
+        <v>77.85770302723503</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>75.17905121241074</v>
+        <v>76.27441860372961</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.75810616382943</v>
+        <v>22.92845576650999</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.63354562515825</v>
+        <v>52.18628139116255</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.48333868266377</v>
+        <v>57.06760634716609</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>8.117600995635978</v>
+        <v>2.502805007229494</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.6877653706611</v>
+        <v>49.04020188724503</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.80469541695282</v>
+        <v>52.18567580803068</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.68654891059125</v>
+        <v>13.77470608842335</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>67.91786778357339</v>
+        <v>71.26257501563698</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>66.21586693011632</v>
+        <v>75.68252978331473</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>68.60909112598908</v>
+        <v>75.27102386688701</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.03124679501472</v>
+        <v>87.65690929528292</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>77.91795450313782</v>
+        <v>93.52995500982931</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.23115866798669</v>
+        <v>29.11885557322601</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>78.73542153958064</v>
+        <v>84.51007763913749</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>77.79815701202563</v>
+        <v>84.30463400655182</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.87831811129228</v>
+        <v>3.526378887415358</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.06538152219275</v>
+        <v>9.375079023603028</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16.01111392868411</v>
+        <v>14.38175046636807</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>7.569331177601416</v>
+        <v>-3.689342994922495</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.4575997638286</v>
+        <v>16.00917595083311</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.6804223289141</v>
+        <v>16.73369620723961</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.88424917479291</v>
+        <v>-1.945401527432598</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.29819362891658</v>
+        <v>26.43726120895043</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.8101560726934</v>
+        <v>26.94915331851268</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.93307016255032</v>
+        <v>19.97270084746196</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.27146794769821</v>
+        <v>29.41447602899042</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.50889116783824</v>
+        <v>29.05043518638033</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.71226785403348</v>
+        <v>8.606224303364218</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.16207738725364</v>
+        <v>19.03635472240452</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.52663124712282</v>
+        <v>22.96825556403015</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.5550024182919</v>
+        <v>18.13573912497833</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.28565069784321</v>
+        <v>30.91188226930239</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.58499759423899</v>
+        <v>40.19357341634171</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.845532231696822</v>
+        <v>4.621643578943381</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.85194190378505</v>
+        <v>25.92743398661588</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.39529745806944</v>
+        <v>36.56651959167029</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.9421099148416</v>
+        <v>13.08099386957856</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.32529385496668</v>
+        <v>44.27508535676483</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.71573576858411</v>
+        <v>56.4018883787142</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>38.61540005608823</v>
+        <v>36.79799876372284</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.93361011977258</v>
+        <v>48.65302340917454</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.30274538636876</v>
+        <v>50.22273481201383</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.2224409386684</v>
+        <v>20.67473215580953</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>47.14851840294114</v>
+        <v>52.36105095507827</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.11788214893437</v>
+        <v>57.27397105050768</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.35978711811608</v>
+        <v>22.17607176434187</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.35261426268795</v>
+        <v>41.87589030162432</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.89777600976715</v>
+        <v>50.40612403165495</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.68087461281553</v>
+        <v>9.225389877227357</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.56683873619316</v>
+        <v>41.24759743173793</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>45.8891279580816</v>
+        <v>49.32076162337128</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>15.74762608650989</v>
+        <v>17.48277414227729</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>60.61429942546163</v>
+        <v>61.16640257949678</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.39526819665191</v>
+        <v>69.98938457842817</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>64.7654377252853</v>
+        <v>68.08782011583013</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.95333614194266</v>
+        <v>79.19343802664176</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.68551170540866</v>
+        <v>83.2630072022979</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.24844799584648</v>
+        <v>35.51314128488586</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>73.10999257697537</v>
+        <v>78.95300247702802</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>77.76241285037439</v>
+        <v>83.92663649468741</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>18.15784487495648</v>
+        <v>5.656705777546083</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>18.04019413007997</v>
+        <v>10.0406788792793</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>17.33060511132554</v>
+        <v>11.70325566797883</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>6.510428160595843</v>
+        <v>-3.349063631972705</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.68847290542409</v>
+        <v>16.69292800764738</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.6323700760496</v>
+        <v>15.06486715206827</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>3.076431380614643</v>
+        <v>-4.40289401398849</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.6366926211988</v>
+        <v>23.80819170734011</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.03623275441446</v>
+        <v>22.89169475574642</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.43492912322566</v>
+        <v>18.95374872983992</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.26250892681876</v>
+        <v>21.64385119143561</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.05311841521484</v>
+        <v>24.40086466316256</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>18.91807827376411</v>
+        <v>8.494867373225244</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.54036827389887</v>
+        <v>13.03960234819496</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.78965069303047</v>
+        <v>16.14785521399557</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>11.51502516851382</v>
+        <v>7.136875516451582</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.76901609224902</v>
+        <v>15.97009444322886</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.18090885323163</v>
+        <v>19.50771798761251</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>3.272615704931773</v>
+        <v>-5.175448638370781</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>14.376119301736</v>
+        <v>10.83856601811133</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.42857044808499</v>
+        <v>17.41523723906802</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1.086267525787004</v>
+        <v>-5.851932495747931</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.17219295376508</v>
+        <v>22.82188330954632</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.14185195043079</v>
+        <v>32.32260606295101</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.93988638370491</v>
+        <v>13.70430333461884</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.05545463985672</v>
+        <v>24.55310592236136</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.47487642107534</v>
+        <v>32.38595681373388</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.865840163435632</v>
+        <v>2.340692269265482</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.19519774483528</v>
+        <v>28.61327828971087</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.04271995546216</v>
+        <v>26.66546491550157</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.11154144745393</v>
+        <v>10.8190911386376</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.14436360334824</v>
+        <v>22.64924942844343</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.26085871684644</v>
+        <v>34.98148363330108</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.86763829472094</v>
+        <v>-4.794750465451507</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.0532190041686</v>
+        <v>15.6394361991228</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.07621851054256</v>
+        <v>31.2466183022761</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.40496300363187</v>
+        <v>-3.043687302313483</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>30.45897386471785</v>
+        <v>33.6969510594882</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.00651034934523</v>
+        <v>51.39500442120973</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.4225042626816</v>
+        <v>36.6395395653734</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.07273759408447</v>
+        <v>47.88173724510068</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.0299807400902</v>
+        <v>67.14863437556181</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.01489039364373</v>
+        <v>8.818111016954216</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.10767324449282</v>
+        <v>38.85252425500841</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>45.95034100494559</v>
+        <v>50.86364054738424</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.79522109448501</v>
+        <v>8.485169828028024</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.4920644691546</v>
+        <v>30.11351670712649</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>40.29783852270222</v>
+        <v>38.84751842592884</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.91057397346365</v>
+        <v>7.822419794182505</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.1312585836493</v>
+        <v>49.60265562250908</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>49.92804198110327</v>
+        <v>53.85956420356689</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.81272539311961</v>
+        <v>15.86761351458426</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>63.58079717979869</v>
+        <v>66.4563394772137</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65.26496912005024</v>
+        <v>69.99596681853929</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>59.30109583112001</v>
+        <v>66.9648046287177</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>68.3462689819121</v>
+        <v>78.95888778128807</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>68.03831501947974</v>
+        <v>78.66047335267896</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.92270033623168</v>
+        <v>27.63346346816922</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>54.53802643159865</v>
+        <v>55.05816013379527</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>70.25111940812266</v>
+        <v>66.28379503701645</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.16864565665216</v>
+        <v>15.81319708713237</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.20033504369121</v>
+        <v>38.12510352503695</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.86713910922657</v>
+        <v>44.77022488563617</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.090184952443813</v>
+        <v>-2.099620653184576</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.69460442003848</v>
+        <v>34.17425185391743</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.97106784654993</v>
+        <v>40.62170376310618</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11.12904022450059</v>
+        <v>9.091198351274858</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>52.48528243791817</v>
+        <v>55.2099977383416</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>56.85684999716519</v>
+        <v>63.44335744669051</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.95709846559539</v>
+        <v>49.51096611456992</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>52.1429588256617</v>
+        <v>59.88702584355973</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>51.68301024639942</v>
+        <v>59.49723481322465</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.02946913038598</v>
+        <v>24.16418294098418</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>59.03550397930562</v>
+        <v>66.45309138787493</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>58.90791538353851</v>
+        <v>68.00716603977168</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.1419930272243</v>
+        <v>18.29421013835298</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.33183989071169</v>
+        <v>43.03617886153732</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.50048319636274</v>
+        <v>50.8659276064318</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>11.12192846184745</v>
+        <v>0.9686308452675405</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.60758354191491</v>
+        <v>43.26619612772552</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.94498528642396</v>
+        <v>49.04459086277932</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.06841250828293</v>
+        <v>11.21358308691642</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>63.65112162126619</v>
+        <v>65.04608695123741</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.97880326791928</v>
+        <v>71.68009399174628</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>66.00900713889317</v>
+        <v>73.11083142614591</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>72.15058967675115</v>
+        <v>83.31373325112317</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>72.86853623779737</v>
+        <v>84.94466820287755</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.25241450758035</v>
+        <v>29.54548109522888</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>72.15159916420318</v>
+        <v>81.89454810334369</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>77.12082389758612</v>
+        <v>84.73050988280225</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.97173977877323</v>
+        <v>5.706307292049871</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.06950162867988</v>
+        <v>11.91237737767953</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.76381583985605</v>
+        <v>18.33589211235475</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4.911138343845206</v>
+        <v>-5.955874941937559</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.0097793867725</v>
+        <v>9.365074104281124</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.1341353250733</v>
+        <v>15.14251837637776</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>3.598405833317965</v>
+        <v>-5.040191043763727</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.49089157408193</v>
+        <v>18.57750455743526</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.04365138840997</v>
+        <v>23.25770115745595</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.19103799868655</v>
+        <v>19.68548758047343</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.9690441099872</v>
+        <v>24.21470858117937</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.65203119649118</v>
+        <v>25.11970308704948</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>11.14355698629728</v>
+        <v>2.02052679765125</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.03406033246816</v>
+        <v>19.60370885536579</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.35805752158862</v>
+        <v>25.43746338312611</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13.27151815492583</v>
+        <v>11.67076855530256</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.4267999373288</v>
+        <v>21.67647854385257</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.7324776404704</v>
+        <v>34.46428273825053</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.906354055447483</v>
+        <v>-1.326993849365071</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.71980679632206</v>
+        <v>14.17879643172866</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.6248063611061</v>
+        <v>30.28666334777076</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.91199135994275</v>
+        <v>4.813190623594839</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.85881703743129</v>
+        <v>29.2852458072957</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>45.18266224340171</v>
+        <v>46.18774596433424</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.88240785644475</v>
+        <v>21.90097187165098</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.87042048758985</v>
+        <v>32.96236411965493</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.02929226973213</v>
+        <v>36.75041251435379</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.03455737433632</v>
+        <v>2.103941366864987</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.17281856421161</v>
+        <v>32.33028862755327</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.47991223506641</v>
+        <v>44.37225152566868</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.98843346114256</v>
+        <v>13.51101534514607</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.02626264721006</v>
+        <v>30.03965376777592</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.24614171781417</v>
+        <v>44.82042133933014</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.75031624217164</v>
+        <v>0.680423203986301</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.01750260761425</v>
+        <v>26.17343705317</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>42.93153131385533</v>
+        <v>43.24328559157343</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.71926443863071</v>
+        <v>7.503889434099523</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>47.12817435363775</v>
+        <v>43.65266859985378</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>57.62285394035059</v>
+        <v>60.76509059711013</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.0002348180235</v>
+        <v>46.54643729130729</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>59.26591813160763</v>
+        <v>57.38973020439706</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>71.85695744373396</v>
+        <v>71.10878792577306</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.75940821432973</v>
+        <v>15.60485585751794</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>57.19602302982971</v>
+        <v>55.83256730618633</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>66.87634881785529</v>
+        <v>69.19906090423476</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>9.682953747561342</v>
+        <v>1.369592007029244</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.566025322020369</v>
+        <v>8.127971004341159</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.1895736330949</v>
+        <v>11.20088282157451</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>1.885258857221572</v>
+        <v>-7.074791406471224</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.423327374408981</v>
+        <v>11.92884338092659</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.79634682564333</v>
+        <v>13.20379717777421</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.644022486223207</v>
+        <v>-7.671366566022375</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.137792522653271</v>
+        <v>20.22831745318634</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.12080710788074</v>
+        <v>20.25146001413622</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.407112522673401</v>
+        <v>16.16774816541267</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>7.367641288937605</v>
+        <v>19.83446531610344</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.39024121300823</v>
+        <v>22.66942899842458</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.170835412124489</v>
+        <v>-1.219687299725376</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.9135078969632</v>
+        <v>7.960130621403035</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.09300599319047</v>
+        <v>10.97902734652241</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.26213114861192</v>
+        <v>19.53205205944347</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.31199493615843</v>
+        <v>41.2431415276988</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.12891897690257</v>
+        <v>43.53025737985915</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.19140892621033</v>
+        <v>5.59931358474924</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.5036620397634</v>
+        <v>38.50322298294395</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.94112614782109</v>
+        <v>41.15305013610929</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.51098251074228</v>
+        <v>11.29634492572744</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>52.43598294265718</v>
+        <v>53.41025430173768</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>53.88635236224069</v>
+        <v>57.16689993980044</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>44.11465151484963</v>
+        <v>45.40732590800891</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.15654148792205</v>
+        <v>57.27639928001251</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.26189765104969</v>
+        <v>57.60623467034964</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.62242211370827</v>
+        <v>20.2165128445898</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>55.90204007362831</v>
+        <v>61.77383249692782</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>56.55915234219613</v>
+        <v>61.56381430228264</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.01554898270255</v>
+        <v>21.90315934028382</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.51089223375576</v>
+        <v>48.13696431776413</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.84935418650463</v>
+        <v>52.46599575426524</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>11.29507823827634</v>
+        <v>5.734345259034413</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.98974391203248</v>
+        <v>47.28083578408329</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.99045544552268</v>
+        <v>50.07427292229084</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.58425569495352</v>
+        <v>13.31146123702945</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>64.93677340138223</v>
+        <v>66.01497558402096</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.3043250105068</v>
+        <v>69.32100660799682</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.19324443414868</v>
+        <v>73.6726282737763</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>79.35130303443684</v>
+        <v>83.46956469423061</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>77.85564708031939</v>
+        <v>87.46422813366591</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.21245085836622</v>
+        <v>28.50325060893051</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>77.00398273627547</v>
+        <v>80.6168570249181</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>74.96975122283489</v>
+        <v>79.43219891533676</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.13206470416955</v>
+        <v>9.37800850021052</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.18632161496281</v>
+        <v>14.54984006217329</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.28792398353181</v>
+        <v>18.13628003303825</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>6.06951186051565</v>
+        <v>-0.8164742541537642</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.69593589857875</v>
+        <v>15.72903416617449</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.31872893069526</v>
+        <v>16.65207739876129</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>3.630468697469549</v>
+        <v>1.045216089940237</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.26807222598636</v>
+        <v>26.19072325713415</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.14373130180774</v>
+        <v>26.23274978369449</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.48912604790413</v>
+        <v>21.6658850983147</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.61587594601307</v>
+        <v>27.80152486431553</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.80540480036161</v>
+        <v>28.01896803564312</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.49853453142818</v>
+        <v>14.93713761060189</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.62075330832978</v>
+        <v>27.01643152851201</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.78781374175733</v>
+        <v>31.24914461781051</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>11.71161173795148</v>
+        <v>9.319419268442356</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.71944985598973</v>
+        <v>17.81127707845242</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.87475534632505</v>
+        <v>24.25828709475347</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>4.467046231891256</v>
+        <v>-4.606175324304917</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>14.4270415507773</v>
+        <v>10.41586647627926</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.03594794329643</v>
+        <v>17.8461417878575</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>2.73535728000433</v>
+        <v>-1.779088986749596</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.29615806905605</v>
+        <v>22.93449701010976</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.49912208605001</v>
+        <v>31.41839475842967</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.639392022769</v>
+        <v>16.60405978940306</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.52153268181109</v>
+        <v>25.67401233381677</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.53505689569909</v>
+        <v>26.25768399257394</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.20709311487656</v>
+        <v>3.954139401807431</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.66830486796431</v>
+        <v>28.56813115506453</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.15110813318667</v>
+        <v>32.53712146465609</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.75751055895277</v>
+        <v>17.2904372843571</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.99916844791984</v>
+        <v>32.47039361392742</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.91309034492388</v>
+        <v>38.28926596990307</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.408292039941596</v>
+        <v>1.891710728137941</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.63009338546658</v>
+        <v>28.02169335856519</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.2744851079233</v>
+        <v>32.77442941108272</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.58350905329711</v>
+        <v>8.090002778586072</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.16420964665619</v>
+        <v>45.76302016644208</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.2742311195925</v>
+        <v>50.74434289520813</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>47.00897769837054</v>
+        <v>51.79513501616586</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.76930699431528</v>
+        <v>60.42357656951413</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.56258892219419</v>
+        <v>63.04106919043379</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.37309367826263</v>
+        <v>25.49190465178119</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.22729904151865</v>
+        <v>57.82755901560854</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>51.9920421360321</v>
+        <v>59.89481805025025</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.59211795359763</v>
+        <v>6.301096709289702</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.392036489305585</v>
+        <v>1.386630366825312</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>9.713708290287713</v>
+        <v>2.557572171769756</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.886519687415618</v>
+        <v>-3.732382578789206</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.057786602807301</v>
+        <v>-1.53384420489116</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>9.064489962542364</v>
+        <v>-2.392954031833376</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.828094556222258</v>
+        <v>-5.192885102350928</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>4.733275332981744</v>
+        <v>5.109163872518231</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.217830089771791</v>
+        <v>3.543127147099803</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>2.586483508171003</v>
+        <v>0.4707367802452715</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.159546835069925</v>
+        <v>0.6828228274642818</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>7.436399938731569</v>
+        <v>1.665642971387602</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.05009985565608</v>
+        <v>10.61276122929319</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.11205438171562</v>
+        <v>7.564843552133606</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.62658195460375</v>
+        <v>9.174717851811746</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.960497311253548</v>
+        <v>6.603719544179249</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.98292752902852</v>
+        <v>9.064024629902892</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.28188865967875</v>
+        <v>12.16509448039817</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.245853940756412</v>
+        <v>-4.698061186685951</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.01616780624687</v>
+        <v>1.644676743737836</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.5139964513312</v>
+        <v>5.558429597670816</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.327950963037193</v>
+        <v>-4.025440398028564</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.4845063291342</v>
+        <v>11.32598253389976</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.60977858383971</v>
+        <v>16.2131943198715</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.451472351968743</v>
+        <v>2.548496802381003</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>11.73914519579314</v>
+        <v>9.473924992161514</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.42136508704233</v>
+        <v>10.01236490696706</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>4.858449733369973</v>
+        <v>-1.667112715471223</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.74130802162811</v>
+        <v>13.5314254161075</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.98699338922018</v>
+        <v>15.90233417402579</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.13052510234478</v>
+        <v>14.01055683821145</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.13735816393085</v>
+        <v>22.30120761443874</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.77474560476484</v>
+        <v>28.58720601701043</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>10.82155567041674</v>
+        <v>-0.1093160146350023</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.28809721590943</v>
+        <v>16.06067800044755</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.30271711258735</v>
+        <v>21.9515380404049</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.33551757451734</v>
+        <v>5.156345067216851</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.17393188833018</v>
+        <v>32.3346747887847</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.31229615592483</v>
+        <v>38.45314877414727</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.99754565728494</v>
+        <v>35.90867030102636</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.61667808183282</v>
+        <v>42.16851049261149</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.82612249076751</v>
+        <v>47.08654347090416</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.50730974314916</v>
+        <v>17.86911702160399</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.52000669351704</v>
+        <v>38.05620176740207</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>37.96239488830866</v>
+        <v>42.93014327071344</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.22188563110527</v>
+        <v>17.15243236159021</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.00605368687607</v>
+        <v>24.99289337677583</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.93736264767799</v>
+        <v>30.16575112070405</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.741838191977372</v>
+        <v>2.056810258722798</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.81908927997468</v>
+        <v>26.75710782816093</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.25542228845006</v>
+        <v>28.79914672406169</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.087167348138976</v>
+        <v>7.218621693621028</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.82062040434985</v>
+        <v>39.67921913022418</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>38.90581418686686</v>
+        <v>42.23124242090892</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.81276656690467</v>
+        <v>37.20250862177683</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.58728619153362</v>
+        <v>43.3834150730255</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.66641543601143</v>
+        <v>47.32921573268589</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.17994741914519</v>
+        <v>31.41494820308096</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>48.23231818131478</v>
+        <v>46.90095598303022</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>60.88393833797885</v>
+        <v>57.56508562339025</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.43390878872504</v>
+        <v>14.39101156036017</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.32479735827991</v>
+        <v>26.04592235225997</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.34944571086495</v>
+        <v>31.37813276919829</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>3.690405597474744</v>
+        <v>-2.460855634670949</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.70804683931213</v>
+        <v>16.42592474287076</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.43347784201202</v>
+        <v>25.14241177555919</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.890747663367325</v>
+        <v>2.370970761198752</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.12068283076101</v>
+        <v>33.83897827758926</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.49880827542788</v>
+        <v>45.07856138739518</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.27797086314903</v>
+        <v>30.66879096097795</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.44121436056588</v>
+        <v>41.05813764674868</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.10531484567761</v>
+        <v>42.76066387131915</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.5118768228193</v>
+        <v>16.22682826260014</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>40.96251752683571</v>
+        <v>48.92624051406501</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>45.35650312330795</v>
+        <v>52.61409304110867</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.15905815491692</v>
+        <v>22.07588623089833</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.79830598921665</v>
+        <v>40.19012681368174</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.72252414597907</v>
+        <v>45.756327947968</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>8.396100132106017</v>
+        <v>6.729841046915602</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.1825988639235</v>
+        <v>34.0466262158446</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.81919403212252</v>
+        <v>41.68974094851337</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.13810202296163</v>
+        <v>11.35143423058307</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.56339830824335</v>
+        <v>54.93098587771962</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>57.54869948687509</v>
+        <v>64.28207886094503</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>61.8580330686876</v>
+        <v>64.80331715990023</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>67.34649008757411</v>
+        <v>72.5997201906011</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>72.91212682926933</v>
+        <v>81.09298719764828</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.11119752728074</v>
+        <v>32.78186945499426</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>59.9407614671986</v>
+        <v>72.24770841022725</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>66.34667292461801</v>
+        <v>78.73256973159623</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.19899745836115</v>
+        <v>18.92975712207205</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.68200240544409</v>
+        <v>35.53463134889893</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.5065925699416</v>
+        <v>40.5336435181067</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>12.04707987585581</v>
+        <v>11.60784102959349</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.08048052484739</v>
+        <v>41.00688417468136</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.84419471629935</v>
+        <v>45.05400064787</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.72419475542996</v>
+        <v>15.00110700084582</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>54.2945901656369</v>
+        <v>52.34378651194744</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.0806134222437</v>
+        <v>55.05898828260409</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>60.98775546588452</v>
+        <v>59.41599482405007</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>64.59452990956859</v>
+        <v>64.98261964632759</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>65.62373888765242</v>
+        <v>65.04220502666385</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.69752895802832</v>
+        <v>25.52606020459783</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>61.74945941064339</v>
+        <v>58.46227595042059</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>65.84148003297544</v>
+        <v>64.30814800284877</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.11942897603584</v>
+        <v>18.47866571287442</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.52883440660529</v>
+        <v>35.226964140626</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.61638285822964</v>
+        <v>43.87443269014278</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.0039696215225</v>
+        <v>6.734923329410286</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.40382499874742</v>
+        <v>31.71101354275707</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.92180366549419</v>
+        <v>42.54834013103455</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.7903490365027</v>
+        <v>12.49557846021106</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.32264384942908</v>
+        <v>46.49259679864859</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>53.1109346667552</v>
+        <v>58.11636117531903</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.90450256923585</v>
+        <v>44.17799199041778</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.22358873141651</v>
+        <v>53.97800059582333</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.50297057664996</v>
+        <v>54.90667235654026</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.92004667352546</v>
+        <v>13.04480460611729</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>53.08077068247829</v>
+        <v>52.35249060854014</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.47771227490848</v>
+        <v>59.77508611163239</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.50273468564812</v>
+        <v>17.96489994509768</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.22171587295644</v>
+        <v>41.12405144394245</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.36627767378705</v>
+        <v>50.46567772590914</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>11.42330708589607</v>
+        <v>4.606664143543622</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.81276260637293</v>
+        <v>39.94622617568985</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.63343646807421</v>
+        <v>49.8359451822562</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>12.70057227426724</v>
+        <v>11.8431298377299</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.96258574989282</v>
+        <v>57.96634569842581</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.316634151983</v>
+        <v>67.87054484397979</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>63.64173953092757</v>
+        <v>66.16758415174073</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>72.49554513308419</v>
+        <v>75.4754423755613</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.36191512890056</v>
+        <v>81.98016505394394</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.01221267256237</v>
+        <v>19.48930769558938</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>66.31256413184485</v>
+        <v>69.29042931613071</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.81398323827894</v>
+        <v>75.82695319507951</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.50210583794716</v>
+        <v>17.70930629305099</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.21668822581674</v>
+        <v>33.18052667605043</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.00199254692458</v>
+        <v>38.36065986949355</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>12.34505637133421</v>
+        <v>7.206499268162499</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.44361993755875</v>
+        <v>43.12632376651094</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.59945907122641</v>
+        <v>45.0422558243819</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.97303276658495</v>
+        <v>12.99508303383458</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.85181105251878</v>
+        <v>56.79704123263561</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>55.46213573277929</v>
+        <v>59.04678795315414</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>55.43598093019855</v>
+        <v>57.73908370319211</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>58.84980051009174</v>
+        <v>64.53336305506241</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>60.37198586478458</v>
+        <v>66.17617040550803</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.41455377794136</v>
+        <v>26.48110158230612</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.55140592927828</v>
+        <v>48.92408378978702</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>59.26683875150675</v>
+        <v>59.95074730103487</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.51683654335936</v>
+        <v>20.59531252420113</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.17295065761929</v>
+        <v>39.58047635808045</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.20441616581358</v>
+        <v>44.54982251864762</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>9.434263445113064</v>
+        <v>4.468855225123146</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.37782246282542</v>
+        <v>34.4533457534803</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.21150597144973</v>
+        <v>42.93805641054516</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.331738460216553</v>
+        <v>9.47993936919249</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>50.01070251272726</v>
+        <v>52.14665072866458</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55.36485265941124</v>
+        <v>63.09886888801898</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>48.24516345562509</v>
+        <v>50.2812578422033</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.29500614522332</v>
+        <v>61.67696254056067</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>54.1364764174793</v>
+        <v>61.84023718338142</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.19283307483396</v>
+        <v>23.75430569348454</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>59.78839736717708</v>
+        <v>67.48859499586617</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>63.65900885433282</v>
+        <v>69.84164178964784</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.97401666056474</v>
+        <v>23.00245373120994</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.20691461734724</v>
+        <v>46.70159089908427</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.98514736218794</v>
+        <v>52.0056136512129</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.01024513325209</v>
+        <v>7.045554036477743</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.91078601491688</v>
+        <v>43.43129767108916</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.68411436444946</v>
+        <v>50.62419162637081</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>9.755367542836975</v>
+        <v>11.11368391289873</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>62.63106172767988</v>
+        <v>63.87842698992877</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>65.8472973898368</v>
+        <v>72.82750227111367</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>70.65489677243799</v>
+        <v>74.58905244983468</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.83054472078592</v>
+        <v>83.69917255595936</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>78.5404556561264</v>
+        <v>89.75143937640654</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.48289361846155</v>
+        <v>29.73422425336197</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>71.58636095794856</v>
+        <v>80.44612689839488</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>74.71576781789305</v>
+        <v>85.37474731489355</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.86183544079492</v>
+        <v>22.19237249979566</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.53074406778583</v>
+        <v>34.68404059931242</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.75693721109519</v>
+        <v>37.50071394643771</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.05254852742367</v>
+        <v>19.82719436578448</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>52.03747668913527</v>
+        <v>51.81975274277764</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>52.03506286418015</v>
+        <v>51.23963090042515</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.93709633730022</v>
+        <v>19.08402471056606</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>52.79258640643023</v>
+        <v>57.53183383447008</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>51.0308172216495</v>
+        <v>57.76184949100906</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>56.00322636599432</v>
+        <v>59.84493449685634</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>60.64479621967033</v>
+        <v>63.12775997888764</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>58.69832567178703</v>
+        <v>65.33962144738861</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.60617903660554</v>
+        <v>35.39655252213362</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.70224645432193</v>
+        <v>53.11134664338742</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>56.43095758058192</v>
+        <v>63.17166422342909</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.40500612489662</v>
+        <v>23.97685111435503</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.14339112407752</v>
+        <v>39.75052875483095</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.89565473536891</v>
+        <v>44.81901412435589</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.14440763108877</v>
+        <v>25.96086492305289</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>50.25740520019783</v>
+        <v>49.81160193340695</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>56.43827586589636</v>
+        <v>59.10234944966523</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.32972765922613</v>
+        <v>16.15217281805093</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>49.45608162897473</v>
+        <v>52.91115931745378</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>56.06598659223889</v>
+        <v>64.3558595275977</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>46.97947313578011</v>
+        <v>51.85452816026151</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>54.52503110004171</v>
+        <v>60.49238506244313</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>52.59597523853896</v>
+        <v>60.93474326731054</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.40111293014769</v>
+        <v>29.04629142876771</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>57.71764745909717</v>
+        <v>65.88499029459297</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>62.89976501066783</v>
+        <v>70.60569798175032</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.01762012280129</v>
+        <v>26.59945322507945</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.64311512420593</v>
+        <v>46.76597043887233</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.76597989902635</v>
+        <v>50.86877762387493</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.78036380469531</v>
+        <v>27.42449697438133</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>55.36647006286209</v>
+        <v>56.35436038021541</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.71343385073788</v>
+        <v>63.13404749401435</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.23238597878672</v>
+        <v>18.46508246684342</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>61.94539265530393</v>
+        <v>64.43846236592606</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>62.88887011975233</v>
+        <v>72.99635712533009</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>75.13178962090701</v>
+        <v>77.9610586978703</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.31967433419943</v>
+        <v>81.1711533424546</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>79.71088111891156</v>
+        <v>89.95149813807814</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.36930205253062</v>
+        <v>38.50438394022973</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>73.38735239065974</v>
+        <v>78.86300037539867</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>76.36822966499454</v>
+        <v>86.23381802619181</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.49170982045333</v>
+        <v>12.13659258110249</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.6285632240109</v>
+        <v>27.53063113154189</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.33297138287216</v>
+        <v>35.56685078023941</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>5.402656615524847</v>
+        <v>-0.813533434862407</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.66032565274355</v>
+        <v>29.76581414104421</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>40.32248256209365</v>
+        <v>36.93779439452856</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>7.937593011947541</v>
+        <v>6.793842768587272</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.97413471144117</v>
+        <v>46.30832056682066</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.426811711783</v>
+        <v>51.89203168028159</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.7191009943753</v>
+        <v>52.32805869535878</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>57.36009776821301</v>
+        <v>56.87815189245271</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>60.23558103723976</v>
+        <v>59.29330395282672</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>18.20475778878013</v>
+        <v>15.77864347502444</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>55.44559352058632</v>
+        <v>49.16825236427192</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>63.75522139357478</v>
+        <v>59.41529888323812</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.64739990105714</v>
+        <v>13.4049658931372</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.1265314013172</v>
+        <v>31.40271477536916</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.78970043608935</v>
+        <v>39.45105712348789</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>4.406585135519929</v>
+        <v>-3.689725297161612</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.47625758022143</v>
+        <v>24.18063552803963</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.41315028917647</v>
+        <v>34.52386760252782</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>6.113160436876246</v>
+        <v>3.29324764803215</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>43.61491804521782</v>
+        <v>41.73354376049064</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>50.04777789115147</v>
+        <v>53.53548877982541</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.60486785899717</v>
+        <v>37.54985156426159</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>45.82016167745992</v>
+        <v>47.36612838942239</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.31255989495</v>
+        <v>48.82344585275492</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.27453988190316</v>
+        <v>4.621257906289472</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.39002508671726</v>
+        <v>46.23727899085694</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>51.82947777373187</v>
+        <v>53.56214154361606</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>19.07419632294202</v>
+        <v>13.96570318016875</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.61223977220595</v>
+        <v>38.07895396625991</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.79994400154946</v>
+        <v>49.28092808444532</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>5.014507164542117</v>
+        <v>-3.436264935647312</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.53086303508496</v>
+        <v>34.21366632201089</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.91467987792362</v>
+        <v>46.60805802033066</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>5.768953964731278</v>
+        <v>2.874779192329857</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.72641620554769</v>
+        <v>53.29024666822066</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.6903068720551</v>
+        <v>66.25976902419727</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>58.42214272110482</v>
+        <v>61.98943491215194</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.58876247328749</v>
+        <v>72.00216570500538</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>75.55449888550288</v>
+        <v>81.81522448613356</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.874283772697439</v>
+        <v>10.93357850352912</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>61.49458070609641</v>
+        <v>65.58078098268354</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>70.16091465370731</v>
+        <v>75.53369345033174</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.64715522596418</v>
+        <v>13.4381653289777</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.88474569221223</v>
+        <v>18.73041838135798</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.98483459905141</v>
+        <v>22.36637923801959</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>11.53508679450074</v>
+        <v>2.819922563046266</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.90945963178415</v>
+        <v>21.6116730878976</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.0678559828976</v>
+        <v>22.42731164269621</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.15500016344664</v>
+        <v>5.867182191243227</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.17247859537368</v>
+        <v>31.97172291388181</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.29787091402459</v>
+        <v>32.96455154065234</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.81141543272407</v>
+        <v>30.08887135535787</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.68059537040885</v>
+        <v>34.27225609864162</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.89980346343691</v>
+        <v>37.63118561356886</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.56449791161468</v>
+        <v>18.47347554106762</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.21094925239082</v>
+        <v>27.03385023732092</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.1028634749883</v>
+        <v>33.11405297510093</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.23884238791535</v>
+        <v>19.08450929084718</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.48842668986956</v>
+        <v>31.23188849672768</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.53023820440382</v>
+        <v>39.18411858337052</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>11.74436638214867</v>
+        <v>7.158402088114652</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.49519953510135</v>
+        <v>26.258761919181</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.47747507330564</v>
+        <v>37.59861018137714</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.03857084592002</v>
+        <v>12.06763036274116</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.49876874759902</v>
+        <v>41.6960386373345</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.76992627067823</v>
+        <v>54.6240458326685</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.02890039063682</v>
+        <v>36.23857129494084</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.05010850732474</v>
+        <v>45.9302103682502</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.50610247520253</v>
+        <v>52.19927992013467</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>18.18648296533384</v>
+        <v>16.48159550485952</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.67639098178374</v>
+        <v>46.96044541153972</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>52.25248617012384</v>
+        <v>55.53427397063166</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.76332998520529</v>
+        <v>19.79175968780567</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.14653199006498</v>
+        <v>37.85908105754906</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.50313903559254</v>
+        <v>47.92847773027754</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.63088228137496</v>
+        <v>7.085671602199895</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.05287998931571</v>
+        <v>34.23838221291182</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.7189022630368</v>
+        <v>47.00383720351824</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>17.1717931212364</v>
+        <v>12.42424518131433</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.7350072826037</v>
+        <v>52.84523557611015</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>63.50197302327159</v>
+        <v>66.30079242659508</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.18450476845253</v>
+        <v>55.13293672040857</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>56.88804331037249</v>
+        <v>64.52180372817763</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>75.46561588387422</v>
+        <v>80.27538630229721</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.16671331093031</v>
+        <v>18.85033801747446</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>51.18865880082535</v>
+        <v>57.01943919879245</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>70.57119569219191</v>
+        <v>73.15949685174716</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.70466147328045</v>
+        <v>11.86608243991716</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.33880826866267</v>
+        <v>20.44877503937688</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.79195393398226</v>
+        <v>24.70268908964843</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.699459132520378</v>
+        <v>3.178750506067939</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.91626892546626</v>
+        <v>30.02958706935371</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.90897848827922</v>
+        <v>31.37845371487324</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>3.260587919784399</v>
+        <v>4.287166517447911</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>32.01668273386679</v>
+        <v>37.82822580668699</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.38260826431952</v>
+        <v>39.77149747927101</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.67694326405093</v>
+        <v>39.81068144360831</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.2328466794418</v>
+        <v>44.06428314790504</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>39.3701710121347</v>
+        <v>47.35092109666109</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.69557943199633</v>
+        <v>21.79847967281204</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.39184166858539</v>
+        <v>38.70600326898843</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>45.97038205063436</v>
+        <v>49.17447062317866</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>11.45506890529051</v>
+        <v>13.11924724003423</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.2357876573387</v>
+        <v>25.29720977689051</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.26527695864307</v>
+        <v>34.85143135838808</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>10.31969338269467</v>
+        <v>9.653571133961499</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.87128100095704</v>
+        <v>28.68563601693344</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>46.76948621277599</v>
+        <v>43.93140140579835</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.755885974642851</v>
+        <v>2.592308917694492</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.23575454668879</v>
+        <v>34.64318873744645</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>51.18294376418577</v>
+        <v>51.33841764766224</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.6778625962776</v>
+        <v>35.17575162160902</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.77420027207928</v>
+        <v>44.1832935968754</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.93360380146419</v>
+        <v>48.53007809354603</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.34251800530851</v>
+        <v>13.61289136689849</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.0222293090483</v>
+        <v>48.54622798559276</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.28668543413955</v>
+        <v>58.5582841357791</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.40671110022439</v>
+        <v>14.91920701066158</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.0436061618693</v>
+        <v>32.01527465148227</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.53408939169313</v>
+        <v>39.97349712841265</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>10.36096496865097</v>
+        <v>8.806073230565083</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.86400293663251</v>
+        <v>33.44062999279542</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.69437472858961</v>
+        <v>45.48510192494061</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2.412508094850836</v>
+        <v>3.323542817339192</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.03141602643993</v>
+        <v>45.11131057966008</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>55.17868393109617</v>
+        <v>58.18269274195791</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.09109944579163</v>
+        <v>59.17602593111677</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.33917490328186</v>
+        <v>62.33488736473363</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>69.00884624396146</v>
+        <v>74.14959659758674</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>19.35380224677137</v>
+        <v>21.65725369051003</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.27373253993368</v>
+        <v>59.86493230454252</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>66.40856865513399</v>
+        <v>72.33670706628972</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.06349579668453</v>
+        <v>17.69102420743648</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.65343780039044</v>
+        <v>33.36531036143538</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.38294723875609</v>
+        <v>39.00376422962565</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>12.34406005986842</v>
+        <v>13.25579483273632</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.19622516854525</v>
+        <v>46.8560450228451</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.73630277482046</v>
+        <v>48.88886648229425</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.78541488527367</v>
+        <v>16.36075217747365</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>55.74475177482507</v>
+        <v>57.6019910016627</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>53.09078941360611</v>
+        <v>59.30063753805433</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>54.17932342907257</v>
+        <v>62.55975432154024</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>59.67648626456628</v>
+        <v>65.85389453007041</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>61.53468109475104</v>
+        <v>69.509661607338</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.61276600528693</v>
+        <v>29.4443483320387</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>43.07749262934109</v>
+        <v>48.0218438462756</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>64.21604234009934</v>
+        <v>63.86846219310655</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.92552972795886</v>
+        <v>23.44354841004584</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>38.7304491683669</v>
+        <v>40.3167839632558</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.51331810988349</v>
+        <v>44.43266393311487</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>11.13407629451908</v>
+        <v>13.18067642789327</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.07568823687274</v>
+        <v>39.82557014894721</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.42948989671627</v>
+        <v>44.91960855056489</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.85857282454</v>
+        <v>14.44168394418806</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>50.23485934673718</v>
+        <v>51.82715497270269</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>49.58817984587393</v>
+        <v>58.89663571164934</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.72689706813358</v>
+        <v>48.42486352411518</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.93664018763288</v>
+        <v>55.99047847130567</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.23106702790437</v>
+        <v>55.2031825644722</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.32501690473378</v>
+        <v>24.89544269893673</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>53.97362282161517</v>
+        <v>59.13334866690309</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>53.2187784513433</v>
+        <v>63.06514698403028</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.29844541819858</v>
+        <v>21.99442170203096</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.5948663668686</v>
+        <v>45.25068166926506</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>42.86339945446303</v>
+        <v>49.11807195219986</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>11.76093283767839</v>
+        <v>12.81327733977843</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.84893443361122</v>
+        <v>48.4698263898045</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.58746859743684</v>
+        <v>51.76225584940651</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>11.27113992505236</v>
+        <v>13.33958491358477</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>59.62367207684841</v>
+        <v>62.27325215699105</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>59.00804575302767</v>
+        <v>66.93230707885196</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>69.03341978629609</v>
+        <v>73.14401584846128</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.48914638207067</v>
+        <v>78.38092266035244</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>72.20128647563308</v>
+        <v>83.55615622313637</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>32.0721848833124</v>
+        <v>31.56681870180866</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>64.46068550372624</v>
+        <v>75.40582215230125</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>69.61423282520354</v>
+        <v>81.10691546420044</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.02602465189432</v>
+        <v>12.77571442612345</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.14721483937762</v>
+        <v>29.04520162744778</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.33783751483832</v>
+        <v>36.4388759456534</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>7.893049531041303</v>
+        <v>2.321821569568744</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.99601853519146</v>
+        <v>34.9246814928253</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.36340293102712</v>
+        <v>40.7570850242652</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.63584503080876</v>
+        <v>8.120352795271017</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>47.73011121505203</v>
+        <v>49.11174864568005</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>51.76146049032364</v>
+        <v>53.85877826188997</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>50.29086669017491</v>
+        <v>51.48927256505841</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>57.95541208497328</v>
+        <v>58.65131247268231</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>57.41958652440022</v>
+        <v>60.64243157943338</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.66349955753601</v>
+        <v>16.31193055503446</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>52.77647649956594</v>
+        <v>49.86299817766384</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>61.46158597416679</v>
+        <v>60.62966497660032</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.80672865745645</v>
+        <v>15.7954325701517</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.29914031345945</v>
+        <v>34.43658494888963</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.71120883363917</v>
+        <v>41.62102616374535</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.578649867257745</v>
+        <v>0.1120765555716403</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.19385767687772</v>
+        <v>28.9701465107036</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.67917201224936</v>
+        <v>38.26458379507155</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>8.548535365857784</v>
+        <v>6.057385576176287</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>47.59088325980042</v>
+        <v>45.50690496501581</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>51.62256380736528</v>
+        <v>56.52580396326718</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>43.73440318260182</v>
+        <v>41.08839113907473</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.39068174773155</v>
+        <v>52.2111329303175</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>50.4132744551052</v>
+        <v>53.68663404911963</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>15.38148556235941</v>
+        <v>11.24512262690373</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>52.84025481053655</v>
+        <v>54.94354338880599</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>54.94344573428538</v>
+        <v>59.94516649911587</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>17.93825726075302</v>
+        <v>13.15529062242593</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.87805562345993</v>
+        <v>35.77636587571244</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.65117348424592</v>
+        <v>47.01787730538032</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.898395360821503</v>
+        <v>-2.857820401784558</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.58924099971178</v>
+        <v>32.77914421974799</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.439056610383</v>
+        <v>45.32360943273137</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>6.126293411501166</v>
+        <v>0.7367265942014818</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.3720297674579</v>
+        <v>49.48015424773757</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>57.30048250360759</v>
+        <v>62.81798749592643</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.03725025234861</v>
+        <v>58.16569241972013</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.44052732897207</v>
+        <v>68.60300109070573</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>71.6929658494783</v>
+        <v>79.25970395575914</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>12.24154438863608</v>
+        <v>11.86269136070072</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>56.15035401590108</v>
+        <v>64.45547457877423</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>66.97967890221135</v>
+        <v>74.48610811736468</v>
       </c>
     </row>
   </sheetData>
